--- a/Financial_Modeling_SimTrade_VaR_calculation.xlsx
+++ b/Financial_Modeling_SimTrade_VaR_calculation.xlsx
@@ -8,17 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB82FFA2-EC78-4D78-B738-5C8D655473EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55E31D62-73E6-4870-AB99-EB59BE69401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data CAC 40 index" sheetId="11" r:id="rId1"/>
-    <sheet name="Data Historical VaR" sheetId="17" r:id="rId2"/>
-    <sheet name="Fig. Historical Var" sheetId="18" r:id="rId3"/>
-    <sheet name="Data Normal VaR" sheetId="24" r:id="rId4"/>
-    <sheet name="Fig. Normal VaR" sheetId="20" r:id="rId5"/>
+    <sheet name="MyVersion" sheetId="25" r:id="rId2"/>
+    <sheet name="Data Historical VaR" sheetId="17" r:id="rId3"/>
+    <sheet name="Fig. Historical Var" sheetId="18" r:id="rId4"/>
+    <sheet name="Data Normal VaR" sheetId="24" r:id="rId5"/>
+    <sheet name="Fig. Normal VaR" sheetId="20" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_fBCAST">_xlfn.LAMBDA(_xlpm._nData, _xlfn.LET(_xlpm.f, _xlfn.LAMBDA(_xlpm._d, _xlfn.LET(_xlpm._c, COLUMNS(_xlpm._d) - 1, _xlfn.DROP(_xlfn.REDUCE("", _xlfn.TAKE(_xlpm._d, , 1), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.VSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.v, _xlpm._c, 1, _xlpm.v)))), 1))), _xlfn.HSTACK(_xlpm.f(_xlpm._nData), _xlfn.TOCOL(_xlfn.DROP(_xlpm._nData, , 1)))))</definedName>
+    <definedName name="_fCharCount">_xlfn.LAMBDA(_xlpm.s,_xlpm.c, _xlfn.LET(_xlpm.z, SUBSTITUTE(_xlpm.s, _xlpm.c, ""), LEN(_xlpm.s) - LEN(_xlpm.z)))</definedName>
+    <definedName name="_fDN">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlfn.SCAN(_xlpm._ini, _xlpm.arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v)))))</definedName>
+    <definedName name="_fDX">_xlfn.LAMBDA(_xlpm.vlookup_value,_xlpm.vlookup_array,_xlpm.hlookup_value,_xlpm.hlookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.vmatch_mode,_xlop.vsearch_mode,_xlop.hmatch_mode,_xlop.hsearch_mode, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.vlookup_value, _xlpm.vlookup_array, _xlpm.vmatch_mode, _xlpm.vsearch_mode), _xlfn.XMATCH(_xlpm.hlookup_value, _xlpm.hlookup_array, _xlpm.hmatch_mode, _xlpm.hsearch_mode)), IF(ISOMlTTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)))</definedName>
+    <definedName name="_fIndex">_xlfn.LAMBDA(_xlpm.d,_xlpm.r, INDEX(_xlpm.d, _xlpm.r, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.d))))</definedName>
+    <definedName name="_fInterp">_xlfn.LAMBDA(_xlpm.x,_xlpm.xdat,_xlpm.ydat, _xlfn.LET(_xlpm.xmin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , -1), _xlpm.xmax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , 1), _xlpm.ymin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , -1), _xlpm.ymax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , 1), IF(_xlpm.xmin = _xlpm.xmax, _xlpm.ymin, (_xlpm.ymin * (_xlpm.xmax - _xlpm.x) + _xlpm.ymax * (_xlpm.x - _xlpm.xmin)) / (_xlpm.xmax - _xlpm.xmin))))</definedName>
+    <definedName name="_fLC">_xlfn.LAMBDA(_xlpm.Reference,_xlpm.ContainedIn, _xlfn._xlws.FILTER(_xlpm.Reference, COUNTIFS(_xlpm.ContainedIn, _xlpm.Reference) = 0))</definedName>
+    <definedName name="_fQ">_xlfn.LAMBDA(_xlpm.x, ROUNDUP(MONTH(1 &amp; _xlpm.x) / 3, 0))</definedName>
+    <definedName name="_fSUPERXLOOKUP">_xlfn.LAMBDA(_xlpm.lookup_value,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.match_mode,_xlop.search_mode, IF(COLUMNS(_xlpm.lookup_value) = 1, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode), _xlfn.SEQUENCE(1, COLUMNS(_xlpm.return_array))), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)), IFERROR(INDEX(_xlpm.return_array, _xlfn.SEQUENCE(ROWS(_xlpm.return_array)), _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode)), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found))))</definedName>
+    <definedName name="_fUP">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._f, _xlfn.LAMBDA(_xlpm.z, INDEX(_xlpm.z, _xlfn.SEQUENCE(ROWS(_xlpm.z), 1, ROWS(_xlpm.z), -1))), _xlpm._arr, _xlpm._f(_xlpm.arr), _xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlpm._f(_xlfn.SCAN(_xlpm._ini, _xlpm._arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v))))))</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">MyVersion!$P$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">MyVersion!$E$3:$E$492</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">MyVersion!$P$4</definedName>
+    <definedName name="DDL">_xlfn.LAMBDA(_xlpm.range,_xlop.lookup1,_xlop.lookup2,_xlop.lookup3,_xlop.lookup4,_xlop.lookup5,_xlop.lookup6,_xlop.lookup7,_xlop.lookup8,_xlop.lookup9,_xlop.lookup10, _xlfn.LET(_xlpm._s, "%^&amp;&amp;@", _xlpm.lookupValue, _xlpm.lookup1 &amp; _xlpm._s &amp; _xlpm.lookup2 &amp; _xlpm._s &amp; _xlpm.lookup3 &amp; _xlpm._s &amp; _xlpm.lookup4 &amp; _xlpm._s &amp; _xlpm.lookup5 &amp; _xlpm._s &amp; _xlpm.lookup6 &amp; _xlpm._s &amp; _xlpm.lookup7 &amp; _xlpm._s &amp; _xlpm.lookup8 &amp; _xlpm._s &amp; _xlpm.lookup9 &amp; _xlpm._s &amp; _xlpm.lookup10, _xlpm.levelIndex, IFERROR(ROWS(_xlfn.TEXTSPLIT(_xlpm.lookupValue, , _xlpm._s, TRUE())), 0) + 1, _xlpm.lookupArray, _xlfn.BYROW(_xlfn.EXPAND(_xlfn.CHOOSECOLS(_xlpm.range, _xlfn.SEQUENCE(1, _xlpm.levelIndex - 1)), , 10, ""), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN(_xlpm._s, FALSE, _xlpm.row))), _xlpm.returnRange, INDEX(_xlpm.range, 0, _xlpm.levelIndex), _xlpm.result, IF(_xlfn.ISOMITTED(_xlpm.lookup1) * _xlpm.levelIndex = 1, _xlpm.returnRange, _xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange):_xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange, , , -1)), _xlpm.result))</definedName>
+    <definedName name="DDLSorter">_xlfn.LAMBDA(_xlpm.Range,_xlop.SortOrder, _xlfn._xlws.SORT(_xlpm.Range, _xlfn.SEQUENCE(, COLUMNS(_xlpm.Range)), _xlpm.SortOrder))</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+    <definedName name="Standard._fBCAST" hidden="1">_xlfn.LAMBDA(_xlpm._nData, _xlfn.LET(_xlpm.f, _xlfn.LAMBDA(_xlpm._d, _xlfn.LET(_xlpm._c, COLUMNS(_xlpm._d) - 1, _xlfn.DROP(_xlfn.REDUCE("", _xlfn.TAKE(_xlpm._d, , 1), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.VSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.v, _xlpm._c, 1, _xlpm.v)))), 1))), _xlfn.HSTACK(_xlpm.f(_xlpm._nData), _xlfn.TOCOL(_xlfn.DROP(_xlpm._nData, , 1)))))</definedName>
+    <definedName name="Standard._fCharCount" hidden="1">_xlfn.LAMBDA(_xlpm.s,_xlpm.c, _xlfn.LET(_xlpm.z, SUBSTITUTE(_xlpm.s, _xlpm.c, ""), LEN(_xlpm.s) - LEN(_xlpm.z)))</definedName>
+    <definedName name="Standard._fDN" hidden="1">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlfn.SCAN(_xlpm._ini, _xlpm.arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v)))))</definedName>
+    <definedName name="Standard._fDX" hidden="1">_xlfn.LAMBDA(_xlpm.vlookup_value,_xlpm.vlookup_array,_xlpm.hlookup_value,_xlpm.hlookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.vmatch_mode,_xlop.vsearch_mode,_xlop.hmatch_mode,_xlop.hsearch_mode, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.vlookup_value, _xlpm.vlookup_array, _xlpm.vmatch_mode, _xlpm.vsearch_mode), _xlfn.XMATCH(_xlpm.hlookup_value, _xlpm.hlookup_array, _xlpm.hmatch_mode, _xlpm.hsearch_mode)), IF(ISOMlTTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)))</definedName>
+    <definedName name="Standard._fIndex" hidden="1">_xlfn.LAMBDA(_xlpm.d,_xlpm.r, INDEX(_xlpm.d, _xlpm.r, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.d))))</definedName>
+    <definedName name="Standard._fInterp" hidden="1">_xlfn.LAMBDA(_xlpm.x,_xlpm.xdat,_xlpm.ydat, _xlfn.LET(_xlpm.xmin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , -1), _xlpm.xmax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , 1), _xlpm.ymin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , -1), _xlpm.ymax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , 1), IF(_xlpm.xmin = _xlpm.xmax, _xlpm.ymin, (_xlpm.ymin * (_xlpm.xmax - _xlpm.x) + _xlpm.ymax * (_xlpm.x - _xlpm.xmin)) / (_xlpm.xmax - _xlpm.xmin))))</definedName>
+    <definedName name="Standard._fLC" hidden="1">_xlfn.LAMBDA(_xlpm.Reference,_xlpm.ContainedIn, _xlfn._xlws.FILTER(_xlpm.Reference, COUNTIFS(_xlpm.ContainedIn, _xlpm.Reference) = 0))</definedName>
+    <definedName name="Standard._fQ" hidden="1">_xlfn.LAMBDA(_xlpm.x, ROUNDUP(MONTH(1 &amp; _xlpm.x) / 3, 0))</definedName>
+    <definedName name="Standard._fSUPERXLOOKUP" hidden="1">_xlfn.LAMBDA(_xlpm.lookup_value,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.match_mode,_xlop.search_mode, IF(COLUMNS(_xlpm.lookup_value) = 1, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode), _xlfn.SEQUENCE(1, COLUMNS(_xlpm.return_array))), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)), IFERROR(INDEX(_xlpm.return_array, _xlfn.SEQUENCE(ROWS(_xlpm.return_array)), _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode)), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found))))</definedName>
+    <definedName name="Standard._fUP" hidden="1">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._f, _xlfn.LAMBDA(_xlpm.z, INDEX(_xlpm.z, _xlfn.SEQUENCE(ROWS(_xlpm.z), 1, ROWS(_xlpm.z), -1))), _xlpm._arr, _xlpm._f(_xlpm.arr), _xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlpm._f(_xlfn.SCAN(_xlpm._ini, _xlpm._arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v))))))</definedName>
+    <definedName name="Standard.DDL">_xlfn.LAMBDA(_xlpm.range,_xlop.lookup1,_xlop.lookup2,_xlop.lookup3,_xlop.lookup4,_xlop.lookup5,_xlop.lookup6,_xlop.lookup7,_xlop.lookup8,_xlop.lookup9,_xlop.lookup10, _xlfn.LET(_xlpm._s, "%^&amp;&amp;@", _xlpm.lookupValue, _xlpm.lookup1 &amp; _xlpm._s &amp; _xlpm.lookup2 &amp; _xlpm._s &amp; _xlpm.lookup3 &amp; _xlpm._s &amp; _xlpm.lookup4 &amp; _xlpm._s &amp; _xlpm.lookup5 &amp; _xlpm._s &amp; _xlpm.lookup6 &amp; _xlpm._s &amp; _xlpm.lookup7 &amp; _xlpm._s &amp; _xlpm.lookup8 &amp; _xlpm._s &amp; _xlpm.lookup9 &amp; _xlpm._s &amp; _xlpm.lookup10, _xlpm.levelIndex, IFERROR(ROWS(_xlfn.TEXTSPLIT(_xlpm.lookupValue, , _xlpm._s, TRUE())), 0) + 1, _xlpm.lookupArray, _xlfn.BYROW(_xlfn.EXPAND(_xlfn.CHOOSECOLS(_xlpm.range, _xlfn.SEQUENCE(1, _xlpm.levelIndex - 1)), , 10, ""), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN(_xlpm._s, FALSE, _xlpm.row))), _xlpm.returnRange, INDEX(_xlpm.range, 0, _xlpm.levelIndex), _xlpm.result, IF(_xlfn.ISOMITTED(_xlpm.lookup1) * _xlpm.levelIndex = 1, _xlpm.returnRange, _xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange):_xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange, , , -1)), _xlpm.result))</definedName>
+    <definedName name="Standard.DDLSorter">_xlfn.LAMBDA(_xlpm.Range,_xlop.SortOrder, _xlfn._xlws.SORT(_xlpm.Range, _xlfn.SEQUENCE(, COLUMNS(_xlpm.Range)), _xlpm.SortOrder))</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -39,8 +70,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="24" uniqueCount="17">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +145,24 @@
   <si>
     <t>VaR based on the historical distribution</t>
   </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Nbins</t>
+  </si>
+  <si>
+    <t>Underflow</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,8 +339,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +541,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -587,7 +679,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -631,8 +723,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,8 +819,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="43" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -761,9 +859,11 @@
     <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Intro_Hd" xfId="44" xr:uid="{A1FEC3F4-B3DD-4951-975A-23F769B5EFAB}"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{CF05B573-F417-4275-AA8C-2CF700721F44}"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -771,7 +871,11 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -785,6 +889,406 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.13482370047255543"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.69558340710369782"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MyVersion!$L$5:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>(-13--12)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(-12--11)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(-11--10)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(-10--9)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(-9--8)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(-8--7)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(-7--6)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(-6--5)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(-5--4)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(-4--3)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(-3--2)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(-2--1)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(-1-0)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(0-1)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(1-2)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(2-3)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(3-4)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(4-5)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>(5-6)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>(6-7)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>(7-8)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>(8-9)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MyVersion!$N$5:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0816326530612249E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0816326530612249E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0816326530612249E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1632653061224497E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8367346938775512E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4693877551020408E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1224489795918366E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44489795918367347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83061224489795915</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93877551020408168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98163265306122449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98775510204081629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99183673469387756</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99591836734693873</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99591836734693873</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99795918367346936</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCB9-4C1F-8D44-37E7ABE84A41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="25"/>
+        <c:axId val="958189871"/>
+        <c:axId val="958190351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="958189871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958190351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="958190351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958189871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1189,7 +1693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2780,6 +3284,61 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{9028D435-D7C2-4EFC-8BBB-011322B8A56B}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="1"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="0.000" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2820,7 +3379,1098 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3340,7 +4990,7 @@
 <chartsheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8C4CE2E4-FD00-0A44-B708-DBEB319413DE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="55" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3360,9 +5010,189 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9570097B-55F7-875E-92F8-F43995B67DFC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4568190" y="8477250"/>
+              <a:ext cx="4572000" cy="4415790"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Historical method VaR">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04572D0-DE0A-987B-81AD-40AE9385FC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10622280" y="557516"/>
+          <a:ext cx="5806439" cy="3785883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC571E21-7847-86EF-845F-459B39619BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9323294" cy="6081059"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3391,7 +5221,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://purl.oclc.org/ooxml/drawingml/chartDrawing">
     <cdr:from>
@@ -3708,7 +5538,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3741,7 +5571,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://purl.oclc.org/ooxml/drawingml/chartDrawing">
     <cdr:from>
@@ -4058,6 +5888,20 @@
 </c:userShapes>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{121CDF39-BA8C-45E7-9175-994A844DCA9C}" name="Table1" displayName="Table1" ref="A2:C493" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A2:C493" xr:uid="{121CDF39-BA8C-45E7-9175-994A844DCA9C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{25B3EBED-CEEC-40BD-A6B6-B31E4D8F8EB9}" name="Date" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{99E44773-F78D-40D6-B6A5-D3FA2F391127}" name="Closing price" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{D8F436BD-51D6-48B5-B684-15F543334C2E}" name="Change" dataDxfId="0" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>IFERROR(100*(B3-B2)/B2,"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4353,12 +6197,41 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="8">
+    <wetp:webextensionref xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{D7AFED75-C2A4-4BCF-89E5-6EE0F26A9704}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{16E2388D-783C-42BB-9BD7-9AF038777E70}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF2330C-B2DF-174A-9B01-E62665A27E33}">
   <dimension ref="A1:F495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12052,10 +13925,7873 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F29F9-E7D8-418D-8598-248BD26C39A9}">
+  <dimension ref="A1:V493"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="32"/>
+    <col min="2" max="2" width="11.5" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
+        <v>43826</v>
+      </c>
+      <c r="B3" s="32">
+        <v>6037.3901370000003</v>
+      </c>
+      <c r="C3" s="33" t="str">
+        <f t="shared" ref="C3:C66" si="0">IFERROR(100*(B3-B2)/B2,"")</f>
+        <v/>
+      </c>
+      <c r="E3" s="32" cm="1">
+        <f t="array" ref="E3:E492">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Table1[Change],ISNUMBER(Table1[Change])))</f>
+        <v>-12.276774361477145</v>
+      </c>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
+        <v>43829</v>
+      </c>
+      <c r="B4" s="32">
+        <v>5982.2202150000003</v>
+      </c>
+      <c r="C4" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.91380415623453748</v>
+      </c>
+      <c r="E4" s="32">
+        <v>-8.3905524204591178</v>
+      </c>
+      <c r="M4" s="32" cm="1">
+        <f t="array" ref="M4:M27">FREQUENCY(_xlfn.ANCHORARRAY(E3),_xlfn.ANCHORARRAY(J5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>43830</v>
+      </c>
+      <c r="B5" s="32">
+        <v>5978.0600590000004</v>
+      </c>
+      <c r="C5" s="33">
+        <f t="shared" si="0"/>
+        <v>-6.9542006988786778E-2</v>
+      </c>
+      <c r="E5" s="32">
+        <v>-5.935696337940672</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="32">
+        <f>MIN(_xlfn.ANCHORARRAY(E3))</f>
+        <v>-12.276774361477145</v>
+      </c>
+      <c r="I5" s="32">
+        <v>-13</v>
+      </c>
+      <c r="J5" s="32" cm="1">
+        <f t="array" ref="J5:J27">_xlfn.SEQUENCE(J1,1,I5,(I6-I5)/(J1-1))</f>
+        <v>-13</v>
+      </c>
+      <c r="K5" s="32">
+        <f>J6</f>
+        <v>-12</v>
+      </c>
+      <c r="L5" s="32" t="str">
+        <f>"("&amp;J5&amp;"-"&amp;K5&amp;")"</f>
+        <v>(-13--12)</v>
+      </c>
+      <c r="M5" s="32">
+        <v>1</v>
+      </c>
+      <c r="N5" s="34">
+        <f>SUM(M5:$M$5)/SUM($M$5:$M$26)</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
+        <v>43832</v>
+      </c>
+      <c r="B6" s="32">
+        <v>6041.5</v>
+      </c>
+      <c r="C6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0612128411873427</v>
+      </c>
+      <c r="E6" s="32">
+        <v>-5.752287558169602</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="32">
+        <f>MAX(_xlfn.ANCHORARRAY(E3))</f>
+        <v>8.3894768439446317</v>
+      </c>
+      <c r="I6" s="32">
+        <v>9</v>
+      </c>
+      <c r="J6" s="32">
+        <v>-12</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" ref="K6:K27" si="1">J7</f>
+        <v>-11</v>
+      </c>
+      <c r="L6" s="32" t="str">
+        <f t="shared" ref="L6:L26" si="2">"("&amp;J6&amp;"-"&amp;K6&amp;")"</f>
+        <v>(-12--11)</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34">
+        <f>SUM(M$5:$M6)/SUM($M$5:$M$27)</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>43833</v>
+      </c>
+      <c r="B7" s="32">
+        <v>6044.1601559999999</v>
+      </c>
+      <c r="C7" s="33">
+        <f t="shared" si="0"/>
+        <v>4.4031382934700249E-2</v>
+      </c>
+      <c r="E7" s="32">
+        <v>-4.7061164057365295</v>
+      </c>
+      <c r="J7" s="32">
+        <v>-11</v>
+      </c>
+      <c r="K7" s="32">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="L7" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-11--10)</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34">
+        <f>SUM(M$5:$M7)/SUM($M$5:$M$27)</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>43836</v>
+      </c>
+      <c r="B8" s="32">
+        <v>6013.5898440000001</v>
+      </c>
+      <c r="C8" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.50578262671701169</v>
+      </c>
+      <c r="E8" s="32">
+        <v>-4.2965132428841795</v>
+      </c>
+      <c r="J8" s="32">
+        <v>-10</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="L8" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-10--9)</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34">
+        <f>SUM(M$5:$M8)/SUM($M$5:$M$27)</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>43837</v>
+      </c>
+      <c r="B9" s="32">
+        <v>6012.3500979999999</v>
+      </c>
+      <c r="C9" s="33">
+        <f t="shared" si="0"/>
+        <v>-2.0615739220012485E-2</v>
+      </c>
+      <c r="E9" s="32">
+        <v>-4.2419631014996071</v>
+      </c>
+      <c r="J9" s="32">
+        <v>-9</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="L9" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-9--8)</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1</v>
+      </c>
+      <c r="N9" s="34">
+        <f>SUM(M$5:$M9)/SUM($M$5:$M$27)</f>
+        <v>4.0816326530612249E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
+        <v>43838</v>
+      </c>
+      <c r="B10" s="32">
+        <v>6031</v>
+      </c>
+      <c r="C10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.31019321390156529</v>
+      </c>
+      <c r="E10" s="32">
+        <v>-4.2277200071832892</v>
+      </c>
+      <c r="J10" s="32">
+        <v>-8</v>
+      </c>
+      <c r="K10" s="32">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="L10" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-8--7)</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
+        <f>SUM(M$5:$M10)/SUM($M$5:$M$27)</f>
+        <v>4.0816326530612249E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
+        <v>43839</v>
+      </c>
+      <c r="B11" s="32">
+        <v>6042.5498049999997</v>
+      </c>
+      <c r="C11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.19150729563919169</v>
+      </c>
+      <c r="E11" s="32">
+        <v>-4.1407590036010591</v>
+      </c>
+      <c r="J11" s="32">
+        <v>-7</v>
+      </c>
+      <c r="K11" s="32">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="L11" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-7--6)</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
+        <f>SUM(M$5:$M11)/SUM($M$5:$M$27)</f>
+        <v>4.0816326530612249E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
+        <v>43840</v>
+      </c>
+      <c r="B12" s="32">
+        <v>6037.1098629999997</v>
+      </c>
+      <c r="C12" s="33">
+        <f t="shared" si="0"/>
+        <v>-9.0027259609819207E-2</v>
+      </c>
+      <c r="E12" s="32">
+        <v>-3.944629095862616</v>
+      </c>
+      <c r="J12" s="32">
+        <v>-6</v>
+      </c>
+      <c r="K12" s="32">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L12" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-6--5)</v>
+      </c>
+      <c r="M12" s="32">
+        <v>2</v>
+      </c>
+      <c r="N12" s="34">
+        <f>SUM(M$5:$M12)/SUM($M$5:$M$27)</f>
+        <v>8.1632653061224497E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="32">
+        <v>43843</v>
+      </c>
+      <c r="B13" s="32">
+        <v>6036.1401370000003</v>
+      </c>
+      <c r="C13" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.6062752244125508E-2</v>
+      </c>
+      <c r="E13" s="32">
+        <v>-3.7727149560937718</v>
+      </c>
+      <c r="J13" s="32">
+        <v>-5</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="L13" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-5--4)</v>
+      </c>
+      <c r="M13" s="32">
+        <v>5</v>
+      </c>
+      <c r="N13" s="34">
+        <f>SUM(M$5:$M13)/SUM($M$5:$M$27)</f>
+        <v>1.8367346938775512E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
+        <v>43844</v>
+      </c>
+      <c r="B14" s="32">
+        <v>6040.8901370000003</v>
+      </c>
+      <c r="C14" s="33">
+        <f t="shared" si="0"/>
+        <v>7.8692672671459546E-2</v>
+      </c>
+      <c r="E14" s="32">
+        <v>-3.7620097466851559</v>
+      </c>
+      <c r="J14" s="32">
+        <v>-4</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="L14" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-4--3)</v>
+      </c>
+      <c r="M14" s="32">
+        <v>8</v>
+      </c>
+      <c r="N14" s="34">
+        <f>SUM(M$5:$M14)/SUM($M$5:$M$27)</f>
+        <v>3.4693877551020408E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
+        <v>43845</v>
+      </c>
+      <c r="B15" s="32">
+        <v>6032.6098629999997</v>
+      </c>
+      <c r="C15" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.13707042856622381</v>
+      </c>
+      <c r="E15" s="32">
+        <v>-3.7391201286242763</v>
+      </c>
+      <c r="J15" s="32">
+        <v>-3</v>
+      </c>
+      <c r="K15" s="32">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="L15" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-3--2)</v>
+      </c>
+      <c r="M15" s="32">
+        <v>13</v>
+      </c>
+      <c r="N15" s="34">
+        <f>SUM(M$5:$M15)/SUM($M$5:$M$27)</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>43846</v>
+      </c>
+      <c r="B16" s="32">
+        <v>6039.0297849999997</v>
+      </c>
+      <c r="C16" s="33">
+        <f t="shared" si="0"/>
+        <v>0.10642030805564863</v>
+      </c>
+      <c r="E16" s="32">
+        <v>-3.3790703961079918</v>
+      </c>
+      <c r="J16" s="32">
+        <v>-2</v>
+      </c>
+      <c r="K16" s="32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L16" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-2--1)</v>
+      </c>
+      <c r="M16" s="32">
+        <v>40</v>
+      </c>
+      <c r="N16" s="34">
+        <f>SUM(M$5:$M16)/SUM($M$5:$M$27)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="32">
+        <v>43847</v>
+      </c>
+      <c r="B17" s="32">
+        <v>6100.7202150000003</v>
+      </c>
+      <c r="C17" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0215288249319434</v>
+      </c>
+      <c r="E17" s="32">
+        <v>-3.3724688254693458</v>
+      </c>
+      <c r="J17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(-1-0)</v>
+      </c>
+      <c r="M17" s="32">
+        <v>148</v>
+      </c>
+      <c r="N17" s="34">
+        <f>SUM(M$5:$M17)/SUM($M$5:$M$27)</f>
+        <v>0.44489795918367347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>43850</v>
+      </c>
+      <c r="B18" s="32">
+        <v>6078.5400390000004</v>
+      </c>
+      <c r="C18" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.36356651703949427</v>
+      </c>
+      <c r="E18" s="32">
+        <v>-3.3239168180706926</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(0-1)</v>
+      </c>
+      <c r="M18" s="32">
+        <v>189</v>
+      </c>
+      <c r="N18" s="34">
+        <f>SUM(M$5:$M18)/SUM($M$5:$M$27)</f>
+        <v>0.83061224489795915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
+        <v>43851</v>
+      </c>
+      <c r="B19" s="32">
+        <v>6045.9902339999999</v>
+      </c>
+      <c r="C19" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.53548721882492412</v>
+      </c>
+      <c r="E19" s="32">
+        <v>-3.3217246683549435</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(1-2)</v>
+      </c>
+      <c r="M19" s="32">
+        <v>53</v>
+      </c>
+      <c r="N19" s="34">
+        <f>SUM(M$5:$M19)/SUM($M$5:$M$27)</f>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="32">
+        <v>43852</v>
+      </c>
+      <c r="B20" s="32">
+        <v>6010.9799800000001</v>
+      </c>
+      <c r="C20" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.57906567237104478</v>
+      </c>
+      <c r="E20" s="32">
+        <v>-2.9160948459780864</v>
+      </c>
+      <c r="J20" s="32">
+        <v>2</v>
+      </c>
+      <c r="K20" s="32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(2-3)</v>
+      </c>
+      <c r="M20" s="32">
+        <v>21</v>
+      </c>
+      <c r="N20" s="34">
+        <f>SUM(M$5:$M20)/SUM($M$5:$M$27)</f>
+        <v>0.98163265306122449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
+        <v>43853</v>
+      </c>
+      <c r="B21" s="32">
+        <v>5971.7900390000004</v>
+      </c>
+      <c r="C21" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.65197257569305089</v>
+      </c>
+      <c r="E21" s="32">
+        <v>-2.8518681945220714</v>
+      </c>
+      <c r="J21" s="32">
+        <v>3</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L21" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(3-4)</v>
+      </c>
+      <c r="M21" s="32">
+        <v>3</v>
+      </c>
+      <c r="N21" s="34">
+        <f>SUM(M$5:$M21)/SUM($M$5:$M$27)</f>
+        <v>0.98775510204081629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="32">
+        <v>43854</v>
+      </c>
+      <c r="B22" s="32">
+        <v>6024.2597660000001</v>
+      </c>
+      <c r="C22" s="33">
+        <f t="shared" si="0"/>
+        <v>0.87862645299542308</v>
+      </c>
+      <c r="E22" s="32">
+        <v>-2.6765071936308695</v>
+      </c>
+      <c r="J22" s="32">
+        <v>4</v>
+      </c>
+      <c r="K22" s="32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L22" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(4-5)</v>
+      </c>
+      <c r="M22" s="32">
+        <v>2</v>
+      </c>
+      <c r="N22" s="34">
+        <f>SUM(M$5:$M22)/SUM($M$5:$M$27)</f>
+        <v>0.99183673469387756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="32">
+        <v>43857</v>
+      </c>
+      <c r="B23" s="32">
+        <v>5863.0200199999999</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" si="0"/>
+        <v>-2.6765071936308695</v>
+      </c>
+      <c r="E23" s="32">
+        <v>-2.5403688656876069</v>
+      </c>
+      <c r="H23" s="32">
+        <f>J23-J22</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="32">
+        <v>5</v>
+      </c>
+      <c r="K23" s="32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(5-6)</v>
+      </c>
+      <c r="M23" s="32">
+        <v>2</v>
+      </c>
+      <c r="N23" s="34">
+        <f>SUM(M$5:$M23)/SUM($M$5:$M$27)</f>
+        <v>0.99591836734693873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="32">
+        <v>43858</v>
+      </c>
+      <c r="B24" s="32">
+        <v>5925.8198240000002</v>
+      </c>
+      <c r="C24" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0711169974821309</v>
+      </c>
+      <c r="E24" s="32">
+        <v>-2.4331385097198197</v>
+      </c>
+      <c r="J24" s="32">
+        <v>6</v>
+      </c>
+      <c r="K24" s="32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L24" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(6-7)</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34">
+        <f>SUM(M$5:$M24)/SUM($M$5:$M$27)</f>
+        <v>0.99591836734693873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="32">
+        <v>43859</v>
+      </c>
+      <c r="B25" s="32">
+        <v>5954.8901370000003</v>
+      </c>
+      <c r="C25" s="33">
+        <f t="shared" si="0"/>
+        <v>0.49057031538932877</v>
+      </c>
+      <c r="E25" s="32">
+        <v>-2.4256582141671421</v>
+      </c>
+      <c r="J25" s="32">
+        <v>7</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L25" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(7-8)</v>
+      </c>
+      <c r="M25" s="32">
+        <v>1</v>
+      </c>
+      <c r="N25" s="34">
+        <f>SUM(M$5:$M25)/SUM($M$5:$M$27)</f>
+        <v>0.99795918367346936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="32">
+        <v>43860</v>
+      </c>
+      <c r="B26" s="32">
+        <v>5871.7700199999999</v>
+      </c>
+      <c r="C26" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.3958295633960305</v>
+      </c>
+      <c r="E26" s="32">
+        <v>-2.1712841192076979</v>
+      </c>
+      <c r="J26" s="32">
+        <v>8</v>
+      </c>
+      <c r="K26" s="32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L26" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>(8-9)</v>
+      </c>
+      <c r="M26" s="32">
+        <v>1</v>
+      </c>
+      <c r="N26" s="34">
+        <f>SUM(M$5:$M26)/SUM($M$5:$M$27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>43861</v>
+      </c>
+      <c r="B27" s="32">
+        <v>5806.3398440000001</v>
+      </c>
+      <c r="C27" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.1143177572884546</v>
+      </c>
+      <c r="E27" s="32">
+        <v>-2.1336123290865703</v>
+      </c>
+      <c r="J27" s="32">
+        <v>9</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34"/>
+      <c r="P27" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="Q27" s="32" cm="1">
+        <f t="array" ref="Q27">_fInterp(P27,$N$5:$N$26,$K$5:$K$26)</f>
+        <v>-4.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
+        <v>43864</v>
+      </c>
+      <c r="B28" s="32">
+        <v>5832.5097660000001</v>
+      </c>
+      <c r="C28" s="33">
+        <f t="shared" si="0"/>
+        <v>0.45071288803466808</v>
+      </c>
+      <c r="E28" s="32">
+        <v>-2.1179053779836101</v>
+      </c>
+      <c r="P28" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="Q28" s="32" cm="1">
+        <f t="array" ref="Q28">_fInterp(P28,$N$5:$N$26,$K$5:$K$26)</f>
+        <v>-2.4230769230769229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="32">
+        <v>43865</v>
+      </c>
+      <c r="B29" s="32">
+        <v>5935.0498049999997</v>
+      </c>
+      <c r="C29" s="33">
+        <f t="shared" si="0"/>
+        <v>1.7580774505984689</v>
+      </c>
+      <c r="E29" s="32">
+        <v>-2.1094172951864127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
+        <v>43866</v>
+      </c>
+      <c r="B30" s="32">
+        <v>5985.3999020000001</v>
+      </c>
+      <c r="C30" s="33">
+        <f t="shared" si="0"/>
+        <v>0.84835171825488098</v>
+      </c>
+      <c r="E30" s="32">
+        <v>-2.0896705925320385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>43867</v>
+      </c>
+      <c r="B31" s="32">
+        <v>6038.1801759999998</v>
+      </c>
+      <c r="C31" s="33">
+        <f t="shared" si="0"/>
+        <v>0.88181700244228289</v>
+      </c>
+      <c r="E31" s="32">
+        <v>-2.0199556229903757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="32">
+        <v>43868</v>
+      </c>
+      <c r="B32" s="32">
+        <v>6029.75</v>
+      </c>
+      <c r="C32" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.13961451553743512</v>
+      </c>
+      <c r="E32" s="32">
+        <v>-2.0066766142794954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="32">
+        <v>43871</v>
+      </c>
+      <c r="B33" s="32">
+        <v>6015.669922</v>
+      </c>
+      <c r="C33" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.23351014552842086</v>
+      </c>
+      <c r="E33" s="32">
+        <v>-1.9370244624565454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="32">
+        <v>43872</v>
+      </c>
+      <c r="B34" s="32">
+        <v>6054.7597660000001</v>
+      </c>
+      <c r="C34" s="33">
+        <f t="shared" si="0"/>
+        <v>0.64980034654235275</v>
+      </c>
+      <c r="E34" s="32">
+        <v>-1.9048243331566181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="32">
+        <v>43873</v>
+      </c>
+      <c r="B35" s="32">
+        <v>6104.7299800000001</v>
+      </c>
+      <c r="C35" s="33">
+        <f t="shared" si="0"/>
+        <v>0.82530465173207235</v>
+      </c>
+      <c r="E35" s="32">
+        <v>-1.8992154718224015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="32">
+        <v>43874</v>
+      </c>
+      <c r="B36" s="32">
+        <v>6093.1401370000003</v>
+      </c>
+      <c r="C36" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.1898502151277745</v>
+      </c>
+      <c r="E36" s="32">
+        <v>-1.8571919569897599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="32">
+        <v>43875</v>
+      </c>
+      <c r="B37" s="32">
+        <v>6069.3500979999999</v>
+      </c>
+      <c r="C37" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.39043971523874427</v>
+      </c>
+      <c r="E37" s="32">
+        <v>-1.7744565941854906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="32">
+        <v>43878</v>
+      </c>
+      <c r="B38" s="32">
+        <v>6085.9501950000003</v>
+      </c>
+      <c r="C38" s="33">
+        <f t="shared" si="0"/>
+        <v>0.27350699386200511</v>
+      </c>
+      <c r="E38" s="32">
+        <v>-1.7408915575824335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="32">
+        <v>43879</v>
+      </c>
+      <c r="B39" s="32">
+        <v>6056.8198240000002</v>
+      </c>
+      <c r="C39" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.47864951349639157</v>
+      </c>
+      <c r="E39" s="32">
+        <v>-1.6529605352588106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="32">
+        <v>43880</v>
+      </c>
+      <c r="B40" s="32">
+        <v>6111.2402339999999</v>
+      </c>
+      <c r="C40" s="33">
+        <f t="shared" si="0"/>
+        <v>0.89849808284473276</v>
+      </c>
+      <c r="E40" s="32">
+        <v>-1.5917833968562081</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="32">
+        <v>43881</v>
+      </c>
+      <c r="B41" s="32">
+        <v>6062.2998049999997</v>
+      </c>
+      <c r="C41" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.80082646281386916</v>
+      </c>
+      <c r="E41" s="32">
+        <v>-1.5869536022583384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="32">
+        <v>43882</v>
+      </c>
+      <c r="B42" s="32">
+        <v>6029.7202150000003</v>
+      </c>
+      <c r="C42" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.53741304534508039</v>
+      </c>
+      <c r="E42" s="32">
+        <v>-1.5756390601957304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="32">
+        <v>43885</v>
+      </c>
+      <c r="B43" s="32">
+        <v>5791.8701170000004</v>
+      </c>
+      <c r="C43" s="33">
+        <f t="shared" si="0"/>
+        <v>-3.944629095862616</v>
+      </c>
+      <c r="E43" s="32">
+        <v>-1.5726252703963901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="32">
+        <v>43886</v>
+      </c>
+      <c r="B44" s="32">
+        <v>5679.6801759999998</v>
+      </c>
+      <c r="C44" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.9370244624565454</v>
+      </c>
+      <c r="E44" s="32">
+        <v>-1.5686458442076845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="32">
+        <v>43887</v>
+      </c>
+      <c r="B45" s="32">
+        <v>5684.5498049999997</v>
+      </c>
+      <c r="C45" s="33">
+        <f t="shared" si="0"/>
+        <v>8.5737732567704436E-2</v>
+      </c>
+      <c r="E45" s="32">
+        <v>-1.5536633360371053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="32">
+        <v>43888</v>
+      </c>
+      <c r="B46" s="32">
+        <v>5495.6000979999999</v>
+      </c>
+      <c r="C46" s="33">
+        <f t="shared" si="0"/>
+        <v>-3.3239168180706926</v>
+      </c>
+      <c r="E46" s="32">
+        <v>-1.536219319052825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="32">
+        <v>43889</v>
+      </c>
+      <c r="B47" s="32">
+        <v>5309.8999020000001</v>
+      </c>
+      <c r="C47" s="33">
+        <f t="shared" si="0"/>
+        <v>-3.3790703961079918</v>
+      </c>
+      <c r="E47" s="32">
+        <v>-1.5282068230176424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="32">
+        <v>43892</v>
+      </c>
+      <c r="B48" s="32">
+        <v>5333.5200199999999</v>
+      </c>
+      <c r="C48" s="33">
+        <f t="shared" si="0"/>
+        <v>0.4448316999554584</v>
+      </c>
+      <c r="E48" s="32">
+        <v>-1.5176666757001001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
+        <v>43893</v>
+      </c>
+      <c r="B49" s="32">
+        <v>5393.169922</v>
+      </c>
+      <c r="C49" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1183965144280101</v>
+      </c>
+      <c r="E49" s="32">
+        <v>-1.5144786250674627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="32">
+        <v>43894</v>
+      </c>
+      <c r="B50" s="32">
+        <v>5464.8901370000003</v>
+      </c>
+      <c r="C50" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3298341427633638</v>
+      </c>
+      <c r="E50" s="32">
+        <v>-1.4565830526922825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="32">
+        <v>43895</v>
+      </c>
+      <c r="B51" s="32">
+        <v>5361.1000979999999</v>
+      </c>
+      <c r="C51" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.8992154718224015</v>
+      </c>
+      <c r="E51" s="32">
+        <v>-1.4341336285741095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="32">
+        <v>43896</v>
+      </c>
+      <c r="B52" s="32">
+        <v>5139.1098629999997</v>
+      </c>
+      <c r="C52" s="33">
+        <f t="shared" si="0"/>
+        <v>-4.1407590036010591</v>
+      </c>
+      <c r="E52" s="32">
+        <v>-1.4269700602503295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="32">
+        <v>43899</v>
+      </c>
+      <c r="B53" s="32">
+        <v>4707.9101559999999</v>
+      </c>
+      <c r="C53" s="33">
+        <f t="shared" si="0"/>
+        <v>-8.3905524204591178</v>
+      </c>
+      <c r="E53" s="32">
+        <v>-1.4224331567852024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="32">
+        <v>43900</v>
+      </c>
+      <c r="B54" s="32">
+        <v>4636.6098629999997</v>
+      </c>
+      <c r="C54" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.5144786250674627</v>
+      </c>
+      <c r="E54" s="32">
+        <v>-1.3958295633960305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="32">
+        <v>43901</v>
+      </c>
+      <c r="B55" s="32">
+        <v>4610.25</v>
+      </c>
+      <c r="C55" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.56851587213214883</v>
+      </c>
+      <c r="E55" s="32">
+        <v>-1.3947346870222899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="32">
+        <v>43902</v>
+      </c>
+      <c r="B56" s="32">
+        <v>4044.26001</v>
+      </c>
+      <c r="C56" s="33">
+        <f t="shared" si="0"/>
+        <v>-12.276774361477145</v>
+      </c>
+      <c r="E56" s="32">
+        <v>-1.3258327677275663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="32">
+        <v>43903</v>
+      </c>
+      <c r="B57" s="32">
+        <v>4118.3598629999997</v>
+      </c>
+      <c r="C57" s="33">
+        <f t="shared" si="0"/>
+        <v>1.8322227754095295</v>
+      </c>
+      <c r="E57" s="32">
+        <v>-1.315752090968096</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="32">
+        <v>43906</v>
+      </c>
+      <c r="B58" s="32">
+        <v>3881.459961</v>
+      </c>
+      <c r="C58" s="33">
+        <f t="shared" si="0"/>
+        <v>-5.752287558169602</v>
+      </c>
+      <c r="E58" s="32">
+        <v>-1.3060356470123176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="32">
+        <v>43907</v>
+      </c>
+      <c r="B59" s="32">
+        <v>3991.780029</v>
+      </c>
+      <c r="C59" s="33">
+        <f t="shared" si="0"/>
+        <v>2.8422312508301046</v>
+      </c>
+      <c r="E59" s="32">
+        <v>-1.2958925185351573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="32">
+        <v>43908</v>
+      </c>
+      <c r="B60" s="32">
+        <v>3754.8400879999999</v>
+      </c>
+      <c r="C60" s="33">
+        <f t="shared" si="0"/>
+        <v>-5.935696337940672</v>
+      </c>
+      <c r="E60" s="32">
+        <v>-1.2645396898970187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="32">
+        <v>43909</v>
+      </c>
+      <c r="B61" s="32">
+        <v>3855.5</v>
+      </c>
+      <c r="C61" s="33">
+        <f t="shared" si="0"/>
+        <v>2.6808042324278092</v>
+      </c>
+      <c r="E61" s="32">
+        <v>-1.2411468744010847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="32">
+        <v>43910</v>
+      </c>
+      <c r="B62" s="32">
+        <v>4048.8000489999999</v>
+      </c>
+      <c r="C62" s="33">
+        <f t="shared" si="0"/>
+        <v>5.0136181818181802</v>
+      </c>
+      <c r="E62" s="32">
+        <v>-1.2224693340635453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="32">
+        <v>43913</v>
+      </c>
+      <c r="B63" s="32">
+        <v>3914.3100589999999</v>
+      </c>
+      <c r="C63" s="33">
+        <f t="shared" si="0"/>
+        <v>-3.3217246683549435</v>
+      </c>
+      <c r="E63" s="32">
+        <v>-1.2167838872904089</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="32">
+        <v>43914</v>
+      </c>
+      <c r="B64" s="32">
+        <v>4242.7001950000003</v>
+      </c>
+      <c r="C64" s="33">
+        <f t="shared" si="0"/>
+        <v>8.3894768439446317</v>
+      </c>
+      <c r="E64" s="32">
+        <v>-1.2069574255668829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="32">
+        <v>43915</v>
+      </c>
+      <c r="B65" s="32">
+        <v>4432.2998049999997</v>
+      </c>
+      <c r="C65" s="33">
+        <f t="shared" si="0"/>
+        <v>4.4688429840845565</v>
+      </c>
+      <c r="E65" s="32">
+        <v>-1.1568692205084021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="32">
+        <v>43916</v>
+      </c>
+      <c r="B66" s="32">
+        <v>4543.580078</v>
+      </c>
+      <c r="C66" s="33">
+        <f t="shared" si="0"/>
+        <v>2.5106666492746492</v>
+      </c>
+      <c r="E66" s="32">
+        <v>-1.1458753481041675</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="32">
+        <v>43917</v>
+      </c>
+      <c r="B67" s="32">
+        <v>4351.4902339999999</v>
+      </c>
+      <c r="C67" s="33">
+        <f t="shared" ref="C67:C130" si="3">IFERROR(100*(B67-B66)/B66,"")</f>
+        <v>-4.2277200071832892</v>
+      </c>
+      <c r="E67" s="32">
+        <v>-1.1143177572884546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="32">
+        <v>43920</v>
+      </c>
+      <c r="B68" s="32">
+        <v>4378.5097660000001</v>
+      </c>
+      <c r="C68" s="33">
+        <f t="shared" si="3"/>
+        <v>0.62092594828515146</v>
+      </c>
+      <c r="E68" s="32">
+        <v>-1.1137396542254305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="32">
+        <v>43921</v>
+      </c>
+      <c r="B69" s="32">
+        <v>4396.1201170000004</v>
+      </c>
+      <c r="C69" s="33">
+        <f t="shared" si="3"/>
+        <v>0.40219965104904287</v>
+      </c>
+      <c r="E69" s="32">
+        <v>-1.1097157855865762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="32">
+        <v>43922</v>
+      </c>
+      <c r="B70" s="32">
+        <v>4207.2402339999999</v>
+      </c>
+      <c r="C70" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.2965132428841795</v>
+      </c>
+      <c r="E70" s="32">
+        <v>-1.0807182993109621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="32">
+        <v>43923</v>
+      </c>
+      <c r="B71" s="32">
+        <v>4220.9599609999996</v>
+      </c>
+      <c r="C71" s="33">
+        <f t="shared" si="3"/>
+        <v>0.32609801762985552</v>
+      </c>
+      <c r="E71" s="32">
+        <v>-1.0693109539167542</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="32">
+        <v>43924</v>
+      </c>
+      <c r="B72" s="32">
+        <v>4154.580078</v>
+      </c>
+      <c r="C72" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.5726252703963901</v>
+      </c>
+      <c r="E72" s="32">
+        <v>-1.042393032868852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="32">
+        <v>43927</v>
+      </c>
+      <c r="B73" s="32">
+        <v>4346.1401370000003</v>
+      </c>
+      <c r="C73" s="33">
+        <f t="shared" si="3"/>
+        <v>4.6108163858576221</v>
+      </c>
+      <c r="E73" s="32">
+        <v>-0.99140368749511698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="32">
+        <v>43928</v>
+      </c>
+      <c r="B74" s="32">
+        <v>4438.2700199999999</v>
+      </c>
+      <c r="C74" s="33">
+        <f t="shared" si="3"/>
+        <v>2.1198093042529891</v>
+      </c>
+      <c r="E74" s="32">
+        <v>-0.97918418834062815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="32">
+        <v>43929</v>
+      </c>
+      <c r="B75" s="32">
+        <v>4442.75</v>
+      </c>
+      <c r="C75" s="33">
+        <f t="shared" si="3"/>
+        <v>0.10093978013532554</v>
+      </c>
+      <c r="E75" s="32">
+        <v>-0.97722764951281704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="32">
+        <v>43930</v>
+      </c>
+      <c r="B76" s="32">
+        <v>4506.8500979999999</v>
+      </c>
+      <c r="C76" s="33">
+        <f t="shared" si="3"/>
+        <v>1.4428022733667185</v>
+      </c>
+      <c r="E76" s="32">
+        <v>-0.96455302058868175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="32">
+        <v>43935</v>
+      </c>
+      <c r="B77" s="32">
+        <v>4523.9101559999999</v>
+      </c>
+      <c r="C77" s="33">
+        <f t="shared" si="3"/>
+        <v>0.37853617557794411</v>
+      </c>
+      <c r="E77" s="32">
+        <v>-0.94777989772509741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="32">
+        <v>43936</v>
+      </c>
+      <c r="B78" s="32">
+        <v>4353.7202150000003</v>
+      </c>
+      <c r="C78" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.7620097466851559</v>
+      </c>
+      <c r="E78" s="32">
+        <v>-0.91449855871979346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="32">
+        <v>43937</v>
+      </c>
+      <c r="B79" s="32">
+        <v>4350.1601559999999</v>
+      </c>
+      <c r="C79" s="33">
+        <f t="shared" si="3"/>
+        <v>-8.1770504860068607E-2</v>
+      </c>
+      <c r="E79" s="32">
+        <v>-0.914016123421309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="32">
+        <v>43938</v>
+      </c>
+      <c r="B80" s="32">
+        <v>4499.0097660000001</v>
+      </c>
+      <c r="C80" s="33">
+        <f t="shared" si="3"/>
+        <v>3.421704136448815</v>
+      </c>
+      <c r="E80" s="32">
+        <v>-0.91380415623453748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="32">
+        <v>43941</v>
+      </c>
+      <c r="B81" s="32">
+        <v>4528.2998049999997</v>
+      </c>
+      <c r="C81" s="33">
+        <f t="shared" si="3"/>
+        <v>0.6510330166729299</v>
+      </c>
+      <c r="E81" s="32">
+        <v>-0.90751018895948576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="32">
+        <v>43942</v>
+      </c>
+      <c r="B82" s="32">
+        <v>4357.4599609999996</v>
+      </c>
+      <c r="C82" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.7727149560937718</v>
+      </c>
+      <c r="E82" s="32">
+        <v>-0.89321148231147673</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="32">
+        <v>43943</v>
+      </c>
+      <c r="B83" s="32">
+        <v>4411.7998049999997</v>
+      </c>
+      <c r="C83" s="33">
+        <f t="shared" si="3"/>
+        <v>1.2470532026995278</v>
+      </c>
+      <c r="E83" s="32">
+        <v>-0.89015207711519118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="32">
+        <v>43944</v>
+      </c>
+      <c r="B84" s="32">
+        <v>4451</v>
+      </c>
+      <c r="C84" s="33">
+        <f t="shared" si="3"/>
+        <v>0.88853068436092264</v>
+      </c>
+      <c r="E84" s="32">
+        <v>-0.88731446970042804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="32">
+        <v>43945</v>
+      </c>
+      <c r="B85" s="32">
+        <v>4393.3198240000002</v>
+      </c>
+      <c r="C85" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.2958925185351573</v>
+      </c>
+      <c r="E85" s="32">
+        <v>-0.85723314889812119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="32">
+        <v>43948</v>
+      </c>
+      <c r="B86" s="32">
+        <v>4505.2597660000001</v>
+      </c>
+      <c r="C86" s="33">
+        <f t="shared" si="3"/>
+        <v>2.5479579562701096</v>
+      </c>
+      <c r="E86" s="32">
+        <v>-0.85012033024056555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="32">
+        <v>43949</v>
+      </c>
+      <c r="B87" s="32">
+        <v>4569.7900390000004</v>
+      </c>
+      <c r="C87" s="33">
+        <f t="shared" si="3"/>
+        <v>1.4323319042997953</v>
+      </c>
+      <c r="E87" s="32">
+        <v>-0.84982242083039561</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="32">
+        <v>43950</v>
+      </c>
+      <c r="B88" s="32">
+        <v>4671.1098629999997</v>
+      </c>
+      <c r="C88" s="33">
+        <f t="shared" si="3"/>
+        <v>2.2171658464678803</v>
+      </c>
+      <c r="E88" s="32">
+        <v>-0.83653333634512139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="32">
+        <v>43951</v>
+      </c>
+      <c r="B89" s="32">
+        <v>4572.1801759999998</v>
+      </c>
+      <c r="C89" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.1179053779836101</v>
+      </c>
+      <c r="E89" s="32">
+        <v>-0.83047689218906084</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="32">
+        <v>43955</v>
+      </c>
+      <c r="B90" s="32">
+        <v>4378.2299800000001</v>
+      </c>
+      <c r="C90" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.2419631014996071</v>
+      </c>
+      <c r="E90" s="32">
+        <v>-0.82543741762260459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="32">
+        <v>43956</v>
+      </c>
+      <c r="B91" s="32">
+        <v>4483.1298829999996</v>
+      </c>
+      <c r="C91" s="33">
+        <f t="shared" si="3"/>
+        <v>2.3959431888956995</v>
+      </c>
+      <c r="E91" s="32">
+        <v>-0.82323584517628612</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="32">
+        <v>43957</v>
+      </c>
+      <c r="B92" s="32">
+        <v>4433.3798829999996</v>
+      </c>
+      <c r="C92" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.1097157855865762</v>
+      </c>
+      <c r="E92" s="32">
+        <v>-0.8182343878931122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="32">
+        <v>43958</v>
+      </c>
+      <c r="B93" s="32">
+        <v>4501.4399409999996</v>
+      </c>
+      <c r="C93" s="33">
+        <f t="shared" si="3"/>
+        <v>1.5351731589927466</v>
+      </c>
+      <c r="E93" s="32">
+        <v>-0.80891505098783845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="32">
+        <v>43959</v>
+      </c>
+      <c r="B94" s="32">
+        <v>4549.6401370000003</v>
+      </c>
+      <c r="C94" s="33">
+        <f t="shared" si="3"/>
+        <v>1.0707728333990159</v>
+      </c>
+      <c r="E94" s="32">
+        <v>-0.80082646281386916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="32">
+        <v>43962</v>
+      </c>
+      <c r="B95" s="32">
+        <v>4490.2202150000003</v>
+      </c>
+      <c r="C95" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.3060356470123176</v>
+      </c>
+      <c r="E95" s="32">
+        <v>-0.79122977919996418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="32">
+        <v>43963</v>
+      </c>
+      <c r="B96" s="32">
+        <v>4472.5</v>
+      </c>
+      <c r="C96" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.39464022144847699</v>
+      </c>
+      <c r="E96" s="32">
+        <v>-0.77887931604113925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="32">
+        <v>43964</v>
+      </c>
+      <c r="B97" s="32">
+        <v>4344.9501950000003</v>
+      </c>
+      <c r="C97" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.8518681945220714</v>
+      </c>
+      <c r="E97" s="32">
+        <v>-0.75860815985578289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="32">
+        <v>43965</v>
+      </c>
+      <c r="B98" s="32">
+        <v>4273.1298829999996</v>
+      </c>
+      <c r="C98" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.6529605352588106</v>
+      </c>
+      <c r="E98" s="32">
+        <v>-0.74500474178668175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="32">
+        <v>43966</v>
+      </c>
+      <c r="B99" s="32">
+        <v>4277.6298829999996</v>
+      </c>
+      <c r="C99" s="33">
+        <f t="shared" si="3"/>
+        <v>0.10530922586515727</v>
+      </c>
+      <c r="E99" s="32">
+        <v>-0.74347561531381412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="32">
+        <v>43969</v>
+      </c>
+      <c r="B100" s="32">
+        <v>4498.3398440000001</v>
+      </c>
+      <c r="C100" s="33">
+        <f t="shared" si="3"/>
+        <v>5.1596320167188363</v>
+      </c>
+      <c r="E100" s="32">
+        <v>-0.72919573094890422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="32">
+        <v>43970</v>
+      </c>
+      <c r="B101" s="32">
+        <v>4458.1601559999999</v>
+      </c>
+      <c r="C101" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.89321148231147673</v>
+      </c>
+      <c r="E101" s="32">
+        <v>-0.7095761302498288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="32">
+        <v>43971</v>
+      </c>
+      <c r="B102" s="32">
+        <v>4496.9799800000001</v>
+      </c>
+      <c r="C102" s="33">
+        <f t="shared" si="3"/>
+        <v>0.87075884763257383</v>
+      </c>
+      <c r="E102" s="32">
+        <v>-0.69205521730257435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="32">
+        <v>43972</v>
+      </c>
+      <c r="B103" s="32">
+        <v>4445.4501950000003</v>
+      </c>
+      <c r="C103" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.1458753481041675</v>
+      </c>
+      <c r="E103" s="32">
+        <v>-0.68815593775764861</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="32">
+        <v>43973</v>
+      </c>
+      <c r="B104" s="32">
+        <v>4444.5600590000004</v>
+      </c>
+      <c r="C104" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.0023528798076749E-2</v>
+      </c>
+      <c r="E104" s="32">
+        <v>-0.68142178711002399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="32">
+        <v>43976</v>
+      </c>
+      <c r="B105" s="32">
+        <v>4539.9101559999999</v>
+      </c>
+      <c r="C105" s="33">
+        <f t="shared" si="3"/>
+        <v>2.1453213756650813</v>
+      </c>
+      <c r="E105" s="32">
+        <v>-0.66892251484715992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="32">
+        <v>43977</v>
+      </c>
+      <c r="B106" s="32">
+        <v>4606.2402339999999</v>
+      </c>
+      <c r="C106" s="33">
+        <f t="shared" si="3"/>
+        <v>1.4610438471417178</v>
+      </c>
+      <c r="E106" s="32">
+        <v>-0.66752012080915546</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="32">
+        <v>43978</v>
+      </c>
+      <c r="B107" s="32">
+        <v>4688.7402339999999</v>
+      </c>
+      <c r="C107" s="33">
+        <f t="shared" si="3"/>
+        <v>1.7910485734340014</v>
+      </c>
+      <c r="E107" s="32">
+        <v>-0.65197257569305089</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="32">
+        <v>43979</v>
+      </c>
+      <c r="B108" s="32">
+        <v>4771.3901370000003</v>
+      </c>
+      <c r="C108" s="33">
+        <f t="shared" si="3"/>
+        <v>1.7627315414206939</v>
+      </c>
+      <c r="E108" s="32">
+        <v>-0.65055164581155034</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="32">
+        <v>43980</v>
+      </c>
+      <c r="B109" s="32">
+        <v>4695.4399409999996</v>
+      </c>
+      <c r="C109" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.5917833968562081</v>
+      </c>
+      <c r="E109" s="32">
+        <v>-0.64297137661352033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="32">
+        <v>43983</v>
+      </c>
+      <c r="B110" s="32">
+        <v>4762.7797849999997</v>
+      </c>
+      <c r="C110" s="33">
+        <f t="shared" si="3"/>
+        <v>1.4341540909084347</v>
+      </c>
+      <c r="E110" s="32">
+        <v>-0.63770838050247747</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="32">
+        <v>43984</v>
+      </c>
+      <c r="B111" s="32">
+        <v>4858.9702150000003</v>
+      </c>
+      <c r="C111" s="33">
+        <f t="shared" si="3"/>
+        <v>2.0196279135756972</v>
+      </c>
+      <c r="E111" s="32">
+        <v>-0.63623881621411116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="32">
+        <v>43985</v>
+      </c>
+      <c r="B112" s="32">
+        <v>5022.3798829999996</v>
+      </c>
+      <c r="C112" s="33">
+        <f t="shared" si="3"/>
+        <v>3.3630514444303774</v>
+      </c>
+      <c r="E112" s="32">
+        <v>-0.62172357353311325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="32">
+        <v>43986</v>
+      </c>
+      <c r="B113" s="32">
+        <v>5011.9799800000001</v>
+      </c>
+      <c r="C113" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.20707121409118509</v>
+      </c>
+      <c r="E113" s="32">
+        <v>-0.61753805733164879</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="32">
+        <v>43987</v>
+      </c>
+      <c r="B114" s="32">
+        <v>5197.7900390000004</v>
+      </c>
+      <c r="C114" s="33">
+        <f t="shared" si="3"/>
+        <v>3.7073184597996014</v>
+      </c>
+      <c r="E114" s="32">
+        <v>-0.61417136074837597</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="32">
+        <v>43990</v>
+      </c>
+      <c r="B115" s="32">
+        <v>5175.5200199999999</v>
+      </c>
+      <c r="C115" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.42845168490655344</v>
+      </c>
+      <c r="E115" s="32">
+        <v>-0.60966461028990215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="32">
+        <v>43991</v>
+      </c>
+      <c r="B116" s="32">
+        <v>5095.1098629999997</v>
+      </c>
+      <c r="C116" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.5536633360371053</v>
+      </c>
+      <c r="E116" s="32">
+        <v>-0.60906894133881662</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="32">
+        <v>43992</v>
+      </c>
+      <c r="B117" s="32">
+        <v>5053.419922</v>
+      </c>
+      <c r="C117" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.8182343878931122</v>
+      </c>
+      <c r="E117" s="32">
+        <v>-0.59249729500598614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="32">
+        <v>43993</v>
+      </c>
+      <c r="B118" s="32">
+        <v>4815.6000979999999</v>
+      </c>
+      <c r="C118" s="33">
+        <f t="shared" si="3"/>
+        <v>-4.7061164057365295</v>
+      </c>
+      <c r="E118" s="32">
+        <v>-0.57906567237104478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="32">
+        <v>43994</v>
+      </c>
+      <c r="B119" s="32">
+        <v>4839.2597660000001</v>
+      </c>
+      <c r="C119" s="33">
+        <f t="shared" si="3"/>
+        <v>0.49131297280740771</v>
+      </c>
+      <c r="E119" s="32">
+        <v>-0.56969949276751852</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="32">
+        <v>43997</v>
+      </c>
+      <c r="B120" s="32">
+        <v>4815.7202150000003</v>
+      </c>
+      <c r="C120" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.48642875436002886</v>
+      </c>
+      <c r="E120" s="32">
+        <v>-0.56851587213214883</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="32">
+        <v>43998</v>
+      </c>
+      <c r="B121" s="32">
+        <v>4952.4599609999996</v>
+      </c>
+      <c r="C121" s="33">
+        <f t="shared" si="3"/>
+        <v>2.839445397473102</v>
+      </c>
+      <c r="E121" s="32">
+        <v>-0.55842224054589074</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="32">
+        <v>43999</v>
+      </c>
+      <c r="B122" s="32">
+        <v>4995.9702150000003</v>
+      </c>
+      <c r="C122" s="33">
+        <f t="shared" si="3"/>
+        <v>0.87855842031310705</v>
+      </c>
+      <c r="E122" s="32">
+        <v>-0.53741304534508039</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="32">
+        <v>44000</v>
+      </c>
+      <c r="B123" s="32">
+        <v>4958.75</v>
+      </c>
+      <c r="C123" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.74500474178668175</v>
+      </c>
+      <c r="E123" s="32">
+        <v>-0.53548721882492412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="32">
+        <v>44001</v>
+      </c>
+      <c r="B124" s="32">
+        <v>4979.4501950000003</v>
+      </c>
+      <c r="C124" s="33">
+        <f t="shared" si="3"/>
+        <v>0.4174478447189382</v>
+      </c>
+      <c r="E124" s="32">
+        <v>-0.52502145829459812</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="32">
+        <v>44004</v>
+      </c>
+      <c r="B125" s="32">
+        <v>4948.7001950000003</v>
+      </c>
+      <c r="C125" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.61753805733164879</v>
+      </c>
+      <c r="E125" s="32">
+        <v>-0.51252026227026504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="32">
+        <v>44005</v>
+      </c>
+      <c r="B126" s="32">
+        <v>5017.6801759999998</v>
+      </c>
+      <c r="C126" s="33">
+        <f t="shared" si="3"/>
+        <v>1.3939009897931287</v>
+      </c>
+      <c r="E126" s="32">
+        <v>-0.50578262671701169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="32">
+        <v>44006</v>
+      </c>
+      <c r="B127" s="32">
+        <v>4871.3598629999997</v>
+      </c>
+      <c r="C127" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.9160948459780864</v>
+      </c>
+      <c r="E127" s="32">
+        <v>-0.49150012990557707</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="32">
+        <v>44007</v>
+      </c>
+      <c r="B128" s="32">
+        <v>4918.580078</v>
+      </c>
+      <c r="C128" s="33">
+        <f t="shared" si="3"/>
+        <v>0.96934359866651232</v>
+      </c>
+      <c r="E128" s="32">
+        <v>-0.48642875436002886</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="32">
+        <v>44008</v>
+      </c>
+      <c r="B129" s="32">
+        <v>4909.6401370000003</v>
+      </c>
+      <c r="C129" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.18175857377999236</v>
+      </c>
+      <c r="E129" s="32">
+        <v>-0.47864951349639157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="32">
+        <v>44011</v>
+      </c>
+      <c r="B130" s="32">
+        <v>4945.4599609999996</v>
+      </c>
+      <c r="C130" s="33">
+        <f t="shared" si="3"/>
+        <v>0.72958145608379932</v>
+      </c>
+      <c r="E130" s="32">
+        <v>-0.46389289237340775</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="32">
+        <v>44012</v>
+      </c>
+      <c r="B131" s="32">
+        <v>4935.9902339999999</v>
+      </c>
+      <c r="C131" s="33">
+        <f t="shared" ref="C131:C194" si="4">IFERROR(100*(B131-B130)/B130,"")</f>
+        <v>-0.1914832406829326</v>
+      </c>
+      <c r="E131" s="32">
+        <v>-0.46369173924830498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="32">
+        <v>44013</v>
+      </c>
+      <c r="B132" s="32">
+        <v>4926.9399409999996</v>
+      </c>
+      <c r="C132" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.18335313829553737</v>
+      </c>
+      <c r="E132" s="32">
+        <v>-0.44160097633529671</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="32">
+        <v>44014</v>
+      </c>
+      <c r="B133" s="32">
+        <v>5049.3798829999996</v>
+      </c>
+      <c r="C133" s="33">
+        <f t="shared" si="4"/>
+        <v>2.4851113158718325</v>
+      </c>
+      <c r="E133" s="32">
+        <v>-0.43585681718931318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="32">
+        <v>44015</v>
+      </c>
+      <c r="B134" s="32">
+        <v>5007.1401370000003</v>
+      </c>
+      <c r="C134" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.83653333634512139</v>
+      </c>
+      <c r="E134" s="32">
+        <v>-0.42845168490655344</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="32">
+        <v>44018</v>
+      </c>
+      <c r="B135" s="32">
+        <v>5081.5097660000001</v>
+      </c>
+      <c r="C135" s="33">
+        <f t="shared" si="4"/>
+        <v>1.4852715714994538</v>
+      </c>
+      <c r="E135" s="32">
+        <v>-0.41571022437953731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="32">
+        <v>44019</v>
+      </c>
+      <c r="B136" s="32">
+        <v>5043.7299800000001</v>
+      </c>
+      <c r="C136" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.74347561531381412</v>
+      </c>
+      <c r="E136" s="32">
+        <v>-0.40066850117569203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="32">
+        <v>44020</v>
+      </c>
+      <c r="B137" s="32">
+        <v>4981.1298829999996</v>
+      </c>
+      <c r="C137" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.2411468744010847</v>
+      </c>
+      <c r="E137" s="32">
+        <v>-0.39464022144847699</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="32">
+        <v>44021</v>
+      </c>
+      <c r="B138" s="32">
+        <v>4921.0097660000001</v>
+      </c>
+      <c r="C138" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.2069574255668829</v>
+      </c>
+      <c r="E138" s="32">
+        <v>-0.39043971523874427</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="32">
+        <v>44022</v>
+      </c>
+      <c r="B139" s="32">
+        <v>4970.4799800000001</v>
+      </c>
+      <c r="C139" s="33">
+        <f t="shared" si="4"/>
+        <v>1.0052858326312848</v>
+      </c>
+      <c r="E139" s="32">
+        <v>-0.38958956640717141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="32">
+        <v>44025</v>
+      </c>
+      <c r="B140" s="32">
+        <v>5056.2299800000001</v>
+      </c>
+      <c r="C140" s="33">
+        <f t="shared" si="4"/>
+        <v>1.725185502105171</v>
+      </c>
+      <c r="E140" s="32">
+        <v>-0.38837652262679478</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="32">
+        <v>44026</v>
+      </c>
+      <c r="B141" s="32">
+        <v>5007.4599609999996</v>
+      </c>
+      <c r="C141" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.96455302058868175</v>
+      </c>
+      <c r="E141" s="32">
+        <v>-0.37774895152370247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="32">
+        <v>44027</v>
+      </c>
+      <c r="B142" s="32">
+        <v>5108.9799800000001</v>
+      </c>
+      <c r="C142" s="33">
+        <f t="shared" si="4"/>
+        <v>2.0273755514907155</v>
+      </c>
+      <c r="E142" s="32">
+        <v>-0.36440460504332722</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="32">
+        <v>44028</v>
+      </c>
+      <c r="B143" s="32">
+        <v>5085.2797849999997</v>
+      </c>
+      <c r="C143" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.46389289237340775</v>
+      </c>
+      <c r="E143" s="32">
+        <v>-0.36356651703949427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="32">
+        <v>44029</v>
+      </c>
+      <c r="B144" s="32">
+        <v>5069.419922</v>
+      </c>
+      <c r="C144" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.31187788421752843</v>
+      </c>
+      <c r="E144" s="32">
+        <v>-0.358846960630543</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="32">
+        <v>44032</v>
+      </c>
+      <c r="B145" s="32">
+        <v>5093.1801759999998</v>
+      </c>
+      <c r="C145" s="33">
+        <f t="shared" si="4"/>
+        <v>0.46869768860311439</v>
+      </c>
+      <c r="E145" s="32">
+        <v>-0.35755352117313322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="32">
+        <v>44033</v>
+      </c>
+      <c r="B146" s="32">
+        <v>5104.2797849999997</v>
+      </c>
+      <c r="C146" s="33">
+        <f t="shared" si="4"/>
+        <v>0.21793081368499917</v>
+      </c>
+      <c r="E146" s="32">
+        <v>-0.3418186947965367</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="32">
+        <v>44034</v>
+      </c>
+      <c r="B147" s="32">
+        <v>5037.1201170000004</v>
+      </c>
+      <c r="C147" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.315752090968096</v>
+      </c>
+      <c r="E147" s="32">
+        <v>-0.34137492301796407</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="32">
+        <v>44035</v>
+      </c>
+      <c r="B148" s="32">
+        <v>5033.7597660000001</v>
+      </c>
+      <c r="C148" s="33">
+        <f t="shared" si="4"/>
+        <v>-6.6711750403951386E-2</v>
+      </c>
+      <c r="E148" s="32">
+        <v>-0.33915657848660985</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="32">
+        <v>44036</v>
+      </c>
+      <c r="B149" s="32">
+        <v>4956.4301759999998</v>
+      </c>
+      <c r="C149" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.536219319052825</v>
+      </c>
+      <c r="E149" s="32">
+        <v>-0.33219262975719038</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="32">
+        <v>44039</v>
+      </c>
+      <c r="B150" s="32">
+        <v>4939.6201170000004</v>
+      </c>
+      <c r="C150" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.33915657848660985</v>
+      </c>
+      <c r="E150" s="32">
+        <v>-0.31671664734617683</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="32">
+        <v>44040</v>
+      </c>
+      <c r="B151" s="32">
+        <v>4928.9399409999996</v>
+      </c>
+      <c r="C151" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.21621452150225656</v>
+      </c>
+      <c r="E151" s="32">
+        <v>-0.31340421627504644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="32">
+        <v>44041</v>
+      </c>
+      <c r="B152" s="32">
+        <v>4958.7402339999999</v>
+      </c>
+      <c r="C152" s="33">
+        <f t="shared" si="4"/>
+        <v>0.60459841987756613</v>
+      </c>
+      <c r="E152" s="32">
+        <v>-0.31187788421752843</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="32">
+        <v>44042</v>
+      </c>
+      <c r="B153" s="32">
+        <v>4852.9399409999996</v>
+      </c>
+      <c r="C153" s="33">
+        <f t="shared" si="4"/>
+        <v>-2.1336123290865703</v>
+      </c>
+      <c r="E153" s="32">
+        <v>-0.30918893181035534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="32">
+        <v>44043</v>
+      </c>
+      <c r="B154" s="32">
+        <v>4783.6899409999996</v>
+      </c>
+      <c r="C154" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.4269700602503295</v>
+      </c>
+      <c r="E154" s="32">
+        <v>-0.3035924794877366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="32">
+        <v>44046</v>
+      </c>
+      <c r="B155" s="32">
+        <v>4875.9301759999998</v>
+      </c>
+      <c r="C155" s="33">
+        <f t="shared" si="4"/>
+        <v>1.9282235290675629</v>
+      </c>
+      <c r="E155" s="32">
+        <v>-0.28990563717798024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="32">
+        <v>44047</v>
+      </c>
+      <c r="B156" s="32">
+        <v>4889.5200199999999</v>
+      </c>
+      <c r="C156" s="33">
+        <f t="shared" si="4"/>
+        <v>0.27871285087081782</v>
+      </c>
+      <c r="E156" s="32">
+        <v>-0.28431367349728165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="32">
+        <v>44048</v>
+      </c>
+      <c r="B157" s="32">
+        <v>4933.3398440000001</v>
+      </c>
+      <c r="C157" s="33">
+        <f t="shared" si="4"/>
+        <v>0.89619888702286477</v>
+      </c>
+      <c r="E157" s="32">
+        <v>-0.281157527561538</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="32">
+        <v>44049</v>
+      </c>
+      <c r="B158" s="32">
+        <v>4885.1298829999996</v>
+      </c>
+      <c r="C158" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.97722764951281704</v>
+      </c>
+      <c r="E158" s="32">
+        <v>-0.27861626555245694</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="32">
+        <v>44050</v>
+      </c>
+      <c r="B159" s="32">
+        <v>4889.5200199999999</v>
+      </c>
+      <c r="C159" s="33">
+        <f t="shared" si="4"/>
+        <v>8.9867354710010339E-2</v>
+      </c>
+      <c r="E159" s="32">
+        <v>-0.27680673490464658</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="32">
+        <v>44053</v>
+      </c>
+      <c r="B160" s="32">
+        <v>4909.5097660000001</v>
+      </c>
+      <c r="C160" s="33">
+        <f t="shared" si="4"/>
+        <v>0.40882839048075309</v>
+      </c>
+      <c r="E160" s="32">
+        <v>-0.27494783140357026</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="32">
+        <v>44054</v>
+      </c>
+      <c r="B161" s="32">
+        <v>5027.9902339999999</v>
+      </c>
+      <c r="C161" s="33">
+        <f t="shared" si="4"/>
+        <v>2.4132851068046892</v>
+      </c>
+      <c r="E161" s="32">
+        <v>-0.26990405259180211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="32">
+        <v>44055</v>
+      </c>
+      <c r="B162" s="32">
+        <v>5073.3100590000004</v>
+      </c>
+      <c r="C162" s="33">
+        <f t="shared" si="4"/>
+        <v>0.90135069661713452</v>
+      </c>
+      <c r="E162" s="32">
+        <v>-0.25977574509980705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="32">
+        <v>44056</v>
+      </c>
+      <c r="B163" s="32">
+        <v>5042.3798829999996</v>
+      </c>
+      <c r="C163" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.60966461028990215</v>
+      </c>
+      <c r="E163" s="32">
+        <v>-0.25847373025876541</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="32">
+        <v>44057</v>
+      </c>
+      <c r="B164" s="32">
+        <v>4962.9301759999998</v>
+      </c>
+      <c r="C164" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.5756390601957304</v>
+      </c>
+      <c r="E164" s="32">
+        <v>-0.2584000867854605</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="32">
+        <v>44060</v>
+      </c>
+      <c r="B165" s="32">
+        <v>4971.9399409999996</v>
+      </c>
+      <c r="C165" s="33">
+        <f t="shared" si="4"/>
+        <v>0.18154124036581629</v>
+      </c>
+      <c r="E165" s="32">
+        <v>-0.24907247137982325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="32">
+        <v>44061</v>
+      </c>
+      <c r="B166" s="32">
+        <v>4938.0600590000004</v>
+      </c>
+      <c r="C166" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.68142178711002399</v>
+      </c>
+      <c r="E166" s="32">
+        <v>-0.24301296397370012</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="32">
+        <v>44062</v>
+      </c>
+      <c r="B167" s="32">
+        <v>4977.2299800000001</v>
+      </c>
+      <c r="C167" s="33">
+        <f t="shared" si="4"/>
+        <v>0.79322488045906736</v>
+      </c>
+      <c r="E167" s="32">
+        <v>-0.23351014552842086</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="32">
+        <v>44063</v>
+      </c>
+      <c r="B168" s="32">
+        <v>4911.2402339999999</v>
+      </c>
+      <c r="C168" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.3258327677275663</v>
+      </c>
+      <c r="E168" s="32">
+        <v>-0.23125276835173808</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="32">
+        <v>44064</v>
+      </c>
+      <c r="B169" s="32">
+        <v>4896.330078</v>
+      </c>
+      <c r="C169" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.3035924794877366</v>
+      </c>
+      <c r="E169" s="32">
+        <v>-0.22804763477127524</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="32">
+        <v>44067</v>
+      </c>
+      <c r="B170" s="32">
+        <v>5007.8901370000003</v>
+      </c>
+      <c r="C170" s="33">
+        <f t="shared" si="4"/>
+        <v>2.2784423685253103</v>
+      </c>
+      <c r="E170" s="32">
+        <v>-0.22060488567755765</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="32">
+        <v>44068</v>
+      </c>
+      <c r="B171" s="32">
+        <v>5008.2700199999999</v>
+      </c>
+      <c r="C171" s="33">
+        <f t="shared" si="4"/>
+        <v>7.5856895739965131E-3</v>
+      </c>
+      <c r="E171" s="32">
+        <v>-0.21621452150225656</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="32">
+        <v>44069</v>
+      </c>
+      <c r="B172" s="32">
+        <v>5048.4301759999998</v>
+      </c>
+      <c r="C172" s="33">
+        <f t="shared" si="4"/>
+        <v>0.80187681254454235</v>
+      </c>
+      <c r="E172" s="32">
+        <v>-0.21484881134927422</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="32">
+        <v>44070</v>
+      </c>
+      <c r="B173" s="32">
+        <v>5015.9702150000003</v>
+      </c>
+      <c r="C173" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.64297137661352033</v>
+      </c>
+      <c r="E173" s="32">
+        <v>-0.20854184236637349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="32">
+        <v>44071</v>
+      </c>
+      <c r="B174" s="32">
+        <v>5002.9399409999996</v>
+      </c>
+      <c r="C174" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.25977574509980705</v>
+      </c>
+      <c r="E174" s="32">
+        <v>-0.20777461867135255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="32">
+        <v>44074</v>
+      </c>
+      <c r="B175" s="32">
+        <v>4947.2202150000003</v>
+      </c>
+      <c r="C175" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.1137396542254305</v>
+      </c>
+      <c r="E175" s="32">
+        <v>-0.20707121409118509</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="32">
+        <v>44075</v>
+      </c>
+      <c r="B176" s="32">
+        <v>4938.1000979999999</v>
+      </c>
+      <c r="C176" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.18434831286361872</v>
+      </c>
+      <c r="E176" s="32">
+        <v>-0.20238591282895083</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="32">
+        <v>44076</v>
+      </c>
+      <c r="B177" s="32">
+        <v>5031.7402339999999</v>
+      </c>
+      <c r="C177" s="33">
+        <f t="shared" si="4"/>
+        <v>1.8962786120501194</v>
+      </c>
+      <c r="E177" s="32">
+        <v>-0.19197114094581497</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="32">
+        <v>44077</v>
+      </c>
+      <c r="B178" s="32">
+        <v>5009.5200199999999</v>
+      </c>
+      <c r="C178" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.44160097633529671</v>
+      </c>
+      <c r="E178" s="32">
+        <v>-0.1914832406829326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="32">
+        <v>44078</v>
+      </c>
+      <c r="B179" s="32">
+        <v>4965.0698240000002</v>
+      </c>
+      <c r="C179" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.88731446970042804</v>
+      </c>
+      <c r="E179" s="32">
+        <v>-0.1898502151277745</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="32">
+        <v>44081</v>
+      </c>
+      <c r="B180" s="32">
+        <v>5053.7202150000003</v>
+      </c>
+      <c r="C180" s="33">
+        <f t="shared" si="4"/>
+        <v>1.7854812548956436</v>
+      </c>
+      <c r="E180" s="32">
+        <v>-0.18434831286361872</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="32">
+        <v>44082</v>
+      </c>
+      <c r="B181" s="32">
+        <v>4973.5200199999999</v>
+      </c>
+      <c r="C181" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.5869536022583384</v>
+      </c>
+      <c r="E181" s="32">
+        <v>-0.18335313829553737</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="32">
+        <v>44083</v>
+      </c>
+      <c r="B182" s="32">
+        <v>5042.9799800000001</v>
+      </c>
+      <c r="C182" s="33">
+        <f t="shared" si="4"/>
+        <v>1.3965955645233361</v>
+      </c>
+      <c r="E182" s="32">
+        <v>-0.18175857377999236</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="32">
+        <v>44084</v>
+      </c>
+      <c r="B183" s="32">
+        <v>5023.9301759999998</v>
+      </c>
+      <c r="C183" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.37774895152370247</v>
+      </c>
+      <c r="E183" s="32">
+        <v>-0.17496903757000265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="32">
+        <v>44085</v>
+      </c>
+      <c r="B184" s="32">
+        <v>5034.1401370000003</v>
+      </c>
+      <c r="C184" s="33">
+        <f t="shared" si="4"/>
+        <v>0.20322657048011641</v>
+      </c>
+      <c r="E184" s="32">
+        <v>-0.15652252431378291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="32">
+        <v>44088</v>
+      </c>
+      <c r="B185" s="32">
+        <v>5051.8798829999996</v>
+      </c>
+      <c r="C185" s="33">
+        <f t="shared" si="4"/>
+        <v>0.35238879962072228</v>
+      </c>
+      <c r="E185" s="32">
+        <v>-0.15493261453127913</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="32">
+        <v>44089</v>
+      </c>
+      <c r="B186" s="32">
+        <v>5067.9301759999998</v>
+      </c>
+      <c r="C186" s="33">
+        <f t="shared" si="4"/>
+        <v>0.31770931557598636</v>
+      </c>
+      <c r="E186" s="32">
+        <v>-0.14902548346978076</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="32">
+        <v>44090</v>
+      </c>
+      <c r="B187" s="32">
+        <v>5074.419922</v>
+      </c>
+      <c r="C187" s="33">
+        <f t="shared" si="4"/>
+        <v>0.12805515811432119</v>
+      </c>
+      <c r="E187" s="32">
+        <v>-0.13961451553743512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="32">
+        <v>44091</v>
+      </c>
+      <c r="B188" s="32">
+        <v>5039.5</v>
+      </c>
+      <c r="C188" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.68815593775764861</v>
+      </c>
+      <c r="E188" s="32">
+        <v>-0.13707042856622381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="32">
+        <v>44092</v>
+      </c>
+      <c r="B189" s="32">
+        <v>4978.1801759999998</v>
+      </c>
+      <c r="C189" s="33">
+        <f t="shared" si="4"/>
+        <v>-1.2167838872904089</v>
+      </c>
+      <c r="E189" s="32">
+        <v>-0.12529528438763876</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="32">
+        <v>44095</v>
+      </c>
+      <c r="B190" s="32">
+        <v>4792.0400390000004</v>
+      </c>
+      <c r="C190" s="33">
+        <f t="shared" si="4"/>
+        <v>-3.7391201286242763</v>
+      </c>
+      <c r="E190" s="32">
+        <v>-0.12486197902874251</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="32">
+        <v>44096</v>
+      </c>
+      <c r="B191" s="32">
+        <v>4772.8398440000001</v>
+      </c>
+      <c r="C191" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.40066850117569203</v>
+      </c>
+      <c r="E191" s="32">
+        <v>-0.12025416645103333</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="32">
+        <v>44097</v>
+      </c>
+      <c r="B192" s="32">
+        <v>4802.2597660000001</v>
+      </c>
+      <c r="C192" s="33">
+        <f t="shared" si="4"/>
+        <v>0.61640287463205401</v>
+      </c>
+      <c r="E192" s="32">
+        <v>-0.10646492915835115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="32">
+        <v>44098</v>
+      </c>
+      <c r="B193" s="32">
+        <v>4762.6201170000004</v>
+      </c>
+      <c r="C193" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.82543741762260459</v>
+      </c>
+      <c r="E193" s="32">
+        <v>-0.10582508519643777</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="32">
+        <v>44099</v>
+      </c>
+      <c r="B194" s="32">
+        <v>4729.6601559999999</v>
+      </c>
+      <c r="C194" s="33">
+        <f t="shared" si="4"/>
+        <v>-0.69205521730257435</v>
+      </c>
+      <c r="E194" s="32">
+        <v>-0.10249918043310598</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="32">
+        <v>44102</v>
+      </c>
+      <c r="B195" s="32">
+        <v>4843.2700199999999</v>
+      </c>
+      <c r="C195" s="33">
+        <f t="shared" ref="C195:C258" si="5">IFERROR(100*(B195-B194)/B194,"")</f>
+        <v>2.4020724587553226</v>
+      </c>
+      <c r="E195" s="32">
+        <v>-0.10094956676383889</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="32">
+        <v>44103</v>
+      </c>
+      <c r="B196" s="32">
+        <v>4832.0698240000002</v>
+      </c>
+      <c r="C196" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.23125276835173808</v>
+      </c>
+      <c r="E196" s="32">
+        <v>-9.0027259609819207E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="32">
+        <v>44104</v>
+      </c>
+      <c r="B197" s="32">
+        <v>4803.4399409999996</v>
+      </c>
+      <c r="C197" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.59249729500598614</v>
+      </c>
+      <c r="E197" s="32">
+        <v>-8.1770504860068607E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="32">
+        <v>44105</v>
+      </c>
+      <c r="B198" s="32">
+        <v>4824.0400390000004</v>
+      </c>
+      <c r="C198" s="33">
+        <f t="shared" si="5"/>
+        <v>0.42886136296131533</v>
+      </c>
+      <c r="E198" s="32">
+        <v>-8.0771239129523262E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="32">
+        <v>44106</v>
+      </c>
+      <c r="B199" s="32">
+        <v>4824.8798829999996</v>
+      </c>
+      <c r="C199" s="33">
+        <f t="shared" si="5"/>
+        <v>1.7409556993918954E-2</v>
+      </c>
+      <c r="E199" s="32">
+        <v>-6.9925003947767655E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="32">
+        <v>44109</v>
+      </c>
+      <c r="B200" s="32">
+        <v>4871.8701170000004</v>
+      </c>
+      <c r="C200" s="33">
+        <f t="shared" si="5"/>
+        <v>0.9739151054426527</v>
+      </c>
+      <c r="E200" s="32">
+        <v>-6.9542006988786778E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="32">
+        <v>44110</v>
+      </c>
+      <c r="B201" s="32">
+        <v>4895.4599609999996</v>
+      </c>
+      <c r="C201" s="33">
+        <f t="shared" si="5"/>
+        <v>0.48420510878736905</v>
+      </c>
+      <c r="E201" s="32">
+        <v>-6.8055126772273239E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="32">
+        <v>44111</v>
+      </c>
+      <c r="B202" s="32">
+        <v>4882</v>
+      </c>
+      <c r="C202" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.27494783140357026</v>
+      </c>
+      <c r="E202" s="32">
+        <v>-6.6711750403951386E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="32">
+        <v>44112</v>
+      </c>
+      <c r="B203" s="32">
+        <v>4911.9399409999996</v>
+      </c>
+      <c r="C203" s="33">
+        <f t="shared" si="5"/>
+        <v>0.61327204014747305</v>
+      </c>
+      <c r="E203" s="32">
+        <v>-5.9737097685237231E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="32">
+        <v>44113</v>
+      </c>
+      <c r="B204" s="32">
+        <v>4946.8100590000004</v>
+      </c>
+      <c r="C204" s="33">
+        <f t="shared" si="5"/>
+        <v>0.70990521909560811</v>
+      </c>
+      <c r="E204" s="32">
+        <v>-5.5446783047340242E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="32">
+        <v>44116</v>
+      </c>
+      <c r="B205" s="32">
+        <v>4979.2900390000004</v>
+      </c>
+      <c r="C205" s="33">
+        <f t="shared" si="5"/>
+        <v>0.65658433642317593</v>
+      </c>
+      <c r="E205" s="32">
+        <v>-5.2952994916354718E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="32">
+        <v>44117</v>
+      </c>
+      <c r="B206" s="32">
+        <v>4947.6098629999997</v>
+      </c>
+      <c r="C206" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.63623881621411116</v>
+      </c>
+      <c r="E206" s="32">
+        <v>-4.8703000888208767E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="32">
+        <v>44118</v>
+      </c>
+      <c r="B207" s="32">
+        <v>4941.6601559999999</v>
+      </c>
+      <c r="C207" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.12025416645103333</v>
+      </c>
+      <c r="E207" s="32">
+        <v>-3.5580084743089199E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="32">
+        <v>44119</v>
+      </c>
+      <c r="B208" s="32">
+        <v>4837.419922</v>
+      </c>
+      <c r="C208" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.1094172951864127</v>
+      </c>
+      <c r="E208" s="32">
+        <v>-3.3928543488561863E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="32">
+        <v>44120</v>
+      </c>
+      <c r="B209" s="32">
+        <v>4935.8598629999997</v>
+      </c>
+      <c r="C209" s="33">
+        <f t="shared" si="5"/>
+        <v>2.0349678669058004</v>
+      </c>
+      <c r="E209" s="32">
+        <v>-3.1725156261089536E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="32">
+        <v>44123</v>
+      </c>
+      <c r="B210" s="32">
+        <v>4942.6201170000004</v>
+      </c>
+      <c r="C210" s="33">
+        <f t="shared" si="5"/>
+        <v>0.13696203270835677</v>
+      </c>
+      <c r="E210" s="32">
+        <v>-2.8049532060927189E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="32">
+        <v>44124</v>
+      </c>
+      <c r="B211" s="32">
+        <v>4929.2797849999997</v>
+      </c>
+      <c r="C211" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.26990405259180211</v>
+      </c>
+      <c r="E211" s="32">
+        <v>-2.0615739220012485E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="32">
+        <v>44125</v>
+      </c>
+      <c r="B212" s="32">
+        <v>4853.9501950000003</v>
+      </c>
+      <c r="C212" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.5282068230176424</v>
+      </c>
+      <c r="E212" s="32">
+        <v>-2.0023528798076749E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="32">
+        <v>44126</v>
+      </c>
+      <c r="B213" s="32">
+        <v>4851.3798829999996</v>
+      </c>
+      <c r="C213" s="33">
+        <f t="shared" si="5"/>
+        <v>-5.2952994916354718E-2</v>
+      </c>
+      <c r="E213" s="32">
+        <v>-1.7281177853174061E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="32">
+        <v>44127</v>
+      </c>
+      <c r="B214" s="32">
+        <v>4909.6401370000003</v>
+      </c>
+      <c r="C214" s="33">
+        <f t="shared" si="5"/>
+        <v>1.2009006799107576</v>
+      </c>
+      <c r="E214" s="32">
+        <v>-1.6062752244125508E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="32">
+        <v>44130</v>
+      </c>
+      <c r="B215" s="32">
+        <v>4816.1201170000004</v>
+      </c>
+      <c r="C215" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.9048243331566181</v>
+      </c>
+      <c r="E215" s="32">
+        <v>-1.4647351098745676E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="32">
+        <v>44131</v>
+      </c>
+      <c r="B216" s="32">
+        <v>4730.6601559999999</v>
+      </c>
+      <c r="C216" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.7744565941854906</v>
+      </c>
+      <c r="E216" s="32">
+        <v>-1.1888325646982806E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="32">
+        <v>44132</v>
+      </c>
+      <c r="B217" s="32">
+        <v>4571.1201170000004</v>
+      </c>
+      <c r="C217" s="33">
+        <f t="shared" si="5"/>
+        <v>-3.3724688254693458</v>
+      </c>
+      <c r="E217" s="32">
+        <v>-1.1085472625780116E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="32">
+        <v>44133</v>
+      </c>
+      <c r="B218" s="32">
+        <v>4569.669922</v>
+      </c>
+      <c r="C218" s="33">
+        <f t="shared" si="5"/>
+        <v>-3.1725156261089536E-2</v>
+      </c>
+      <c r="E218" s="32">
+        <v>-1.0079416032551299E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="32">
+        <v>44134</v>
+      </c>
+      <c r="B219" s="32">
+        <v>4594.2402339999999</v>
+      </c>
+      <c r="C219" s="33">
+        <f t="shared" si="5"/>
+        <v>0.53768242388163967</v>
+      </c>
+      <c r="E219" s="32">
+        <v>-1.3773333878085096E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="32">
+        <v>44137</v>
+      </c>
+      <c r="B220" s="32">
+        <v>4691.1401370000003</v>
+      </c>
+      <c r="C220" s="33">
+        <f t="shared" si="5"/>
+        <v>2.1091605589730782</v>
+      </c>
+      <c r="E220" s="32">
+        <v>-1.0795760191519765E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="32">
+        <v>44138</v>
+      </c>
+      <c r="B221" s="32">
+        <v>4805.6098629999997</v>
+      </c>
+      <c r="C221" s="33">
+        <f t="shared" si="5"/>
+        <v>2.4401259109092215</v>
+      </c>
+      <c r="E221" s="32">
+        <v>4.8353424065624498E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="32">
+        <v>44139</v>
+      </c>
+      <c r="B222" s="32">
+        <v>4922.8500979999999</v>
+      </c>
+      <c r="C222" s="33">
+        <f t="shared" si="5"/>
+        <v>2.4396536202963968</v>
+      </c>
+      <c r="E222" s="32">
+        <v>7.5243483700866689E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="32">
+        <v>44140</v>
+      </c>
+      <c r="B223" s="32">
+        <v>4983.9902339999999</v>
+      </c>
+      <c r="C223" s="33">
+        <f t="shared" si="5"/>
+        <v>1.2419662346582381</v>
+      </c>
+      <c r="E223" s="32">
+        <v>7.5856895739965131E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="32">
+        <v>44141</v>
+      </c>
+      <c r="B224" s="32">
+        <v>4960.8798829999996</v>
+      </c>
+      <c r="C224" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.46369173924830498</v>
+      </c>
+      <c r="E224" s="32">
+        <v>1.0117271417970929E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="32">
+        <v>44144</v>
+      </c>
+      <c r="B225" s="32">
+        <v>5336.3198240000002</v>
+      </c>
+      <c r="C225" s="33">
+        <f t="shared" si="5"/>
+        <v>7.5680111160635528</v>
+      </c>
+      <c r="E225" s="32">
+        <v>1.7409556993918954E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="32">
+        <v>44145</v>
+      </c>
+      <c r="B226" s="32">
+        <v>5418.9702150000003</v>
+      </c>
+      <c r="C226" s="33">
+        <f t="shared" si="5"/>
+        <v>1.548827538939505</v>
+      </c>
+      <c r="E226" s="32">
+        <v>2.0814112640579117E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="32">
+        <v>44146</v>
+      </c>
+      <c r="B227" s="32">
+        <v>5445.2099609999996</v>
+      </c>
+      <c r="C227" s="33">
+        <f t="shared" si="5"/>
+        <v>0.4842201554709834</v>
+      </c>
+      <c r="E227" s="32">
+        <v>2.4538110060530482E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="32">
+        <v>44147</v>
+      </c>
+      <c r="B228" s="32">
+        <v>5362.5698240000002</v>
+      </c>
+      <c r="C228" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.5176666757001001</v>
+      </c>
+      <c r="E228" s="32">
+        <v>2.6836057607230342E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="32">
+        <v>44148</v>
+      </c>
+      <c r="B229" s="32">
+        <v>5380.1601559999999</v>
+      </c>
+      <c r="C229" s="33">
+        <f t="shared" si="5"/>
+        <v>0.32802056807306873</v>
+      </c>
+      <c r="E229" s="32">
+        <v>3.2081607870967505E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="32">
+        <v>44151</v>
+      </c>
+      <c r="B230" s="32">
+        <v>5471.4799800000001</v>
+      </c>
+      <c r="C230" s="33">
+        <f t="shared" si="5"/>
+        <v>1.6973439702935147</v>
+      </c>
+      <c r="E230" s="32">
+        <v>3.3475755054892184E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="32">
+        <v>44152</v>
+      </c>
+      <c r="B231" s="32">
+        <v>5483</v>
+      </c>
+      <c r="C231" s="33">
+        <f t="shared" si="5"/>
+        <v>0.21054669014799046</v>
+      </c>
+      <c r="E231" s="32">
+        <v>4.4031382934700249E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="32">
+        <v>44153</v>
+      </c>
+      <c r="B232" s="32">
+        <v>5511.4501950000003</v>
+      </c>
+      <c r="C232" s="33">
+        <f t="shared" si="5"/>
+        <v>0.51888008389568396</v>
+      </c>
+      <c r="E232" s="32">
+        <v>4.468680478652956E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="32">
+        <v>44154</v>
+      </c>
+      <c r="B233" s="32">
+        <v>5474.6601559999999</v>
+      </c>
+      <c r="C233" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.66752012080915546</v>
+      </c>
+      <c r="E233" s="32">
+        <v>5.1021632030569405E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="32">
+        <v>44155</v>
+      </c>
+      <c r="B234" s="32">
+        <v>5495.8901370000003</v>
+      </c>
+      <c r="C234" s="33">
+        <f t="shared" si="5"/>
+        <v>0.38778628070151955</v>
+      </c>
+      <c r="E234" s="32">
+        <v>5.9418951734605978E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="32">
+        <v>44158</v>
+      </c>
+      <c r="B235" s="32">
+        <v>5492.1499020000001</v>
+      </c>
+      <c r="C235" s="33">
+        <f t="shared" si="5"/>
+        <v>-6.8055126772273239E-2</v>
+      </c>
+      <c r="E235" s="32">
+        <v>5.984606617443855E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="32">
+        <v>44159</v>
+      </c>
+      <c r="B236" s="32">
+        <v>5558.419922</v>
+      </c>
+      <c r="C236" s="33">
+        <f t="shared" si="5"/>
+        <v>1.2066316685177747</v>
+      </c>
+      <c r="E236" s="32">
+        <v>6.4955443115811418E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="32">
+        <v>44160</v>
+      </c>
+      <c r="B237" s="32">
+        <v>5571.2900390000004</v>
+      </c>
+      <c r="C237" s="33">
+        <f t="shared" si="5"/>
+        <v>0.23154272582143337</v>
+      </c>
+      <c r="E237" s="32">
+        <v>7.8692672671459546E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="32">
+        <v>44161</v>
+      </c>
+      <c r="B238" s="32">
+        <v>5566.7900390000004</v>
+      </c>
+      <c r="C238" s="33">
+        <f t="shared" si="5"/>
+        <v>-8.0771239129523262E-2</v>
+      </c>
+      <c r="E238" s="32">
+        <v>8.0514029841730395E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="32">
+        <v>44162</v>
+      </c>
+      <c r="B239" s="32">
+        <v>5598.1801759999998</v>
+      </c>
+      <c r="C239" s="33">
+        <f t="shared" si="5"/>
+        <v>0.56388217949815533</v>
+      </c>
+      <c r="E239" s="32">
+        <v>8.5737732567704436E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="32">
+        <v>44165</v>
+      </c>
+      <c r="B240" s="32">
+        <v>5518.5498049999997</v>
+      </c>
+      <c r="C240" s="33">
+        <f t="shared" si="5"/>
+        <v>-1.4224331567852024</v>
+      </c>
+      <c r="E240" s="32">
+        <v>8.6091597457392505E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="32">
+        <v>44166</v>
+      </c>
+      <c r="B241" s="32">
+        <v>5581.6401370000003</v>
+      </c>
+      <c r="C241" s="33">
+        <f t="shared" si="5"/>
+        <v>1.1432411453972675</v>
+      </c>
+      <c r="E241" s="32">
+        <v>8.9867354710010339E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="32">
+        <v>44167</v>
+      </c>
+      <c r="B242" s="32">
+        <v>5583.0097660000001</v>
+      </c>
+      <c r="C242" s="33">
+        <f t="shared" si="5"/>
+        <v>2.4538110060530482E-2</v>
+      </c>
+      <c r="E242" s="32">
+        <v>9.5016908087629942E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="32">
+        <v>44168</v>
+      </c>
+      <c r="B243" s="32">
+        <v>5574.3598629999997</v>
+      </c>
+      <c r="C243" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.15493261453127913</v>
+      </c>
+      <c r="E243" s="32">
+        <v>9.6908637632131464E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="32">
+        <v>44169</v>
+      </c>
+      <c r="B244" s="32">
+        <v>5609.1499020000001</v>
+      </c>
+      <c r="C244" s="33">
+        <f t="shared" si="5"/>
+        <v>0.62410823583386643</v>
+      </c>
+      <c r="E244" s="32">
+        <v>9.943669480438061E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="32">
+        <v>44172</v>
+      </c>
+      <c r="B245" s="32">
+        <v>5573.3798829999996</v>
+      </c>
+      <c r="C245" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.63770838050247747</v>
+      </c>
+      <c r="E245" s="32">
+        <v>0.10093978013532554</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="32">
+        <v>44173</v>
+      </c>
+      <c r="B246" s="32">
+        <v>5560.669922</v>
+      </c>
+      <c r="C246" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.22804763477127524</v>
+      </c>
+      <c r="E246" s="32">
+        <v>0.10317920293320186</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="32">
+        <v>44174</v>
+      </c>
+      <c r="B247" s="32">
+        <v>5546.8198240000002</v>
+      </c>
+      <c r="C247" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.24907247137982325</v>
+      </c>
+      <c r="E247" s="32">
+        <v>0.10530922586515727</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="32">
+        <v>44175</v>
+      </c>
+      <c r="B248" s="32">
+        <v>5549.6499020000001</v>
+      </c>
+      <c r="C248" s="33">
+        <f t="shared" si="5"/>
+        <v>5.1021632030569405E-2</v>
+      </c>
+      <c r="E248" s="32">
+        <v>0.10642030805564863</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="32">
+        <v>44176</v>
+      </c>
+      <c r="B249" s="32">
+        <v>5507.5498049999997</v>
+      </c>
+      <c r="C249" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.75860815985578289</v>
+      </c>
+      <c r="E249" s="32">
+        <v>0.11384791967720154</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="32">
+        <v>44179</v>
+      </c>
+      <c r="B250" s="32">
+        <v>5527.8398440000001</v>
+      </c>
+      <c r="C250" s="33">
+        <f t="shared" si="5"/>
+        <v>0.36840409471341012</v>
+      </c>
+      <c r="E250" s="32">
+        <v>0.11893560604263184</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="32">
+        <v>44180</v>
+      </c>
+      <c r="B251" s="32">
+        <v>5530.3100590000004</v>
+      </c>
+      <c r="C251" s="33">
+        <f t="shared" si="5"/>
+        <v>4.468680478652956E-2</v>
+      </c>
+      <c r="E251" s="32">
+        <v>0.12805515811432119</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="32">
+        <v>44181</v>
+      </c>
+      <c r="B252" s="32">
+        <v>5547.6801759999998</v>
+      </c>
+      <c r="C252" s="33">
+        <f t="shared" si="5"/>
+        <v>0.31408938765976485</v>
+      </c>
+      <c r="E252" s="32">
+        <v>0.13163422251489743</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="32">
+        <v>44182</v>
+      </c>
+      <c r="B253" s="32">
+        <v>5549.4599609999996</v>
+      </c>
+      <c r="C253" s="33">
+        <f t="shared" si="5"/>
+        <v>3.2081607870967505E-2</v>
+      </c>
+      <c r="E253" s="32">
+        <v>0.13570475827597728</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="32">
+        <v>44183</v>
+      </c>
+      <c r="B254" s="32">
+        <v>5527.8398440000001</v>
+      </c>
+      <c r="C254" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.38958956640717141</v>
+      </c>
+      <c r="E254" s="32">
+        <v>0.13696203270835677</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="32">
+        <v>44186</v>
+      </c>
+      <c r="B255" s="32">
+        <v>5393.3398440000001</v>
+      </c>
+      <c r="C255" s="33">
+        <f t="shared" si="5"/>
+        <v>-2.4331385097198197</v>
+      </c>
+      <c r="E255" s="32">
+        <v>0.14300811166525387</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="32">
+        <v>44187</v>
+      </c>
+      <c r="B256" s="32">
+        <v>5466.8598629999997</v>
+      </c>
+      <c r="C256" s="33">
+        <f t="shared" si="5"/>
+        <v>1.3631631072124888</v>
+      </c>
+      <c r="E256" s="32">
+        <v>0.143490809288501</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="32">
+        <v>44188</v>
+      </c>
+      <c r="B257" s="32">
+        <v>5527.5898440000001</v>
+      </c>
+      <c r="C257" s="33">
+        <f t="shared" si="5"/>
+        <v>1.1108750273813341</v>
+      </c>
+      <c r="E257" s="32">
+        <v>0.14888936311308598</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="32">
+        <v>44189</v>
+      </c>
+      <c r="B258" s="32">
+        <v>5522.0097660000001</v>
+      </c>
+      <c r="C258" s="33">
+        <f t="shared" si="5"/>
+        <v>-0.10094956676383889</v>
+      </c>
+      <c r="E258" s="32">
+        <v>0.15301431778721536</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="32">
+        <v>44193</v>
+      </c>
+      <c r="B259" s="32">
+        <v>5588.3798829999996</v>
+      </c>
+      <c r="C259" s="33">
+        <f t="shared" ref="C259:C322" si="6">IFERROR(100*(B259-B258)/B258,"")</f>
+        <v>1.2019195874779531</v>
+      </c>
+      <c r="E259" s="32">
+        <v>0.16082043758726366</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="32">
+        <v>44194</v>
+      </c>
+      <c r="B260" s="32">
+        <v>5611.7900390000004</v>
+      </c>
+      <c r="C260" s="33">
+        <f t="shared" si="6"/>
+        <v>0.41890774231750322</v>
+      </c>
+      <c r="E260" s="32">
+        <v>0.18154124036581629</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="32">
+        <v>44195</v>
+      </c>
+      <c r="B261" s="32">
+        <v>5599.4101559999999</v>
+      </c>
+      <c r="C261" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.22060488567755765</v>
+      </c>
+      <c r="E261" s="32">
+        <v>0.1826133672091757</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="32">
+        <v>44196</v>
+      </c>
+      <c r="B262" s="32">
+        <v>5551.4101559999999</v>
+      </c>
+      <c r="C262" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.85723314889812119</v>
+      </c>
+      <c r="E262" s="32">
+        <v>0.18754643506390728</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="32">
+        <v>44200</v>
+      </c>
+      <c r="B263" s="32">
+        <v>5588.9599609999996</v>
+      </c>
+      <c r="C263" s="33">
+        <f t="shared" si="6"/>
+        <v>0.67640120158326944</v>
+      </c>
+      <c r="E263" s="32">
+        <v>0.18990093808998026</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="32">
+        <v>44201</v>
+      </c>
+      <c r="B264" s="32">
+        <v>5564.6000979999999</v>
+      </c>
+      <c r="C264" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.43585681718931318</v>
+      </c>
+      <c r="E264" s="32">
+        <v>0.19082841084669444</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="32">
+        <v>44202</v>
+      </c>
+      <c r="B265" s="32">
+        <v>5630.6000979999999</v>
+      </c>
+      <c r="C265" s="33">
+        <f t="shared" si="6"/>
+        <v>1.1860690586502591</v>
+      </c>
+      <c r="E265" s="32">
+        <v>0.19150729563919169</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="32">
+        <v>44203</v>
+      </c>
+      <c r="B266" s="32">
+        <v>5669.8500979999999</v>
+      </c>
+      <c r="C266" s="33">
+        <f t="shared" si="6"/>
+        <v>0.6970837800031594</v>
+      </c>
+      <c r="E266" s="32">
+        <v>0.19716502325611812</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="32">
+        <v>44204</v>
+      </c>
+      <c r="B267" s="32">
+        <v>5706.8798829999996</v>
+      </c>
+      <c r="C267" s="33">
+        <f t="shared" si="6"/>
+        <v>0.65309989435279281</v>
+      </c>
+      <c r="E267" s="32">
+        <v>0.1974881480078437</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="32">
+        <v>44207</v>
+      </c>
+      <c r="B268" s="32">
+        <v>5662.4301759999998</v>
+      </c>
+      <c r="C268" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.77887931604113925</v>
+      </c>
+      <c r="E268" s="32">
+        <v>0.19775348158375128</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="32">
+        <v>44208</v>
+      </c>
+      <c r="B269" s="32">
+        <v>5650.9702150000003</v>
+      </c>
+      <c r="C269" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.20238591282895083</v>
+      </c>
+      <c r="E269" s="32">
+        <v>0.20322657048011641</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="32">
+        <v>44209</v>
+      </c>
+      <c r="B270" s="32">
+        <v>5662.669922</v>
+      </c>
+      <c r="C270" s="33">
+        <f t="shared" si="6"/>
+        <v>0.20703890756571192</v>
+      </c>
+      <c r="E270" s="32">
+        <v>0.20424871374634135</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="32">
+        <v>44210</v>
+      </c>
+      <c r="B271" s="32">
+        <v>5681.1401370000003</v>
+      </c>
+      <c r="C271" s="33">
+        <f t="shared" si="6"/>
+        <v>0.32617502440397905</v>
+      </c>
+      <c r="E271" s="32">
+        <v>0.20457808843823955</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="32">
+        <v>44211</v>
+      </c>
+      <c r="B272" s="32">
+        <v>5611.6899409999996</v>
+      </c>
+      <c r="C272" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.2224693340635453</v>
+      </c>
+      <c r="E272" s="32">
+        <v>0.20703890756571192</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="32">
+        <v>44214</v>
+      </c>
+      <c r="B273" s="32">
+        <v>5617.2700199999999</v>
+      </c>
+      <c r="C273" s="33">
+        <f t="shared" si="6"/>
+        <v>9.943669480438061E-2</v>
+      </c>
+      <c r="E273" s="32">
+        <v>0.21054669014799046</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="32">
+        <v>44215</v>
+      </c>
+      <c r="B274" s="32">
+        <v>5598.6098629999997</v>
+      </c>
+      <c r="C274" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.33219262975719038</v>
+      </c>
+      <c r="E274" s="32">
+        <v>0.21197461443643967</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="32">
+        <v>44216</v>
+      </c>
+      <c r="B275" s="32">
+        <v>5628.4399409999996</v>
+      </c>
+      <c r="C275" s="33">
+        <f t="shared" si="6"/>
+        <v>0.53281222892740721</v>
+      </c>
+      <c r="E275" s="32">
+        <v>0.21499838969888721</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="32">
+        <v>44217</v>
+      </c>
+      <c r="B276" s="32">
+        <v>5590.7900390000004</v>
+      </c>
+      <c r="C276" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.66892251484715992</v>
+      </c>
+      <c r="E276" s="32">
+        <v>0.21793081368499917</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="32">
+        <v>44218</v>
+      </c>
+      <c r="B277" s="32">
+        <v>5559.5698240000002</v>
+      </c>
+      <c r="C277" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.55842224054589074</v>
+      </c>
+      <c r="E277" s="32">
+        <v>0.22402700968611813</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="32">
+        <v>44221</v>
+      </c>
+      <c r="B278" s="32">
+        <v>5472.3598629999997</v>
+      </c>
+      <c r="C278" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.5686458442076845</v>
+      </c>
+      <c r="E278" s="32">
+        <v>0.23154272582143337</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="32">
+        <v>44222</v>
+      </c>
+      <c r="B279" s="32">
+        <v>5523.5200199999999</v>
+      </c>
+      <c r="C279" s="33">
+        <f t="shared" si="6"/>
+        <v>0.93488290757168457</v>
+      </c>
+      <c r="E279" s="32">
+        <v>0.23737200155948462</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="32">
+        <v>44223</v>
+      </c>
+      <c r="B280" s="32">
+        <v>5459.6201170000004</v>
+      </c>
+      <c r="C280" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.1568692205084021</v>
+      </c>
+      <c r="E280" s="32">
+        <v>0.2377026180591621</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="32">
+        <v>44224</v>
+      </c>
+      <c r="B281" s="32">
+        <v>5510.5200199999999</v>
+      </c>
+      <c r="C281" s="33">
+        <f t="shared" si="6"/>
+        <v>0.93229752087528872</v>
+      </c>
+      <c r="E281" s="32">
+        <v>0.23837482748361771</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="32">
+        <v>44225</v>
+      </c>
+      <c r="B282" s="32">
+        <v>5399.2099609999996</v>
+      </c>
+      <c r="C282" s="33">
+        <f t="shared" si="6"/>
+        <v>-2.0199556229903757</v>
+      </c>
+      <c r="E282" s="32">
+        <v>0.26467502495073109</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="32">
+        <v>44228</v>
+      </c>
+      <c r="B283" s="32">
+        <v>5461.6801759999998</v>
+      </c>
+      <c r="C283" s="33">
+        <f t="shared" si="6"/>
+        <v>1.1570251101779718</v>
+      </c>
+      <c r="E283" s="32">
+        <v>0.27350699386200511</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="32">
+        <v>44229</v>
+      </c>
+      <c r="B284" s="32">
+        <v>5563.1098629999997</v>
+      </c>
+      <c r="C284" s="33">
+        <f t="shared" si="6"/>
+        <v>1.8571150951992292</v>
+      </c>
+      <c r="E284" s="32">
+        <v>0.27793535425577837</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="32">
+        <v>44230</v>
+      </c>
+      <c r="B285" s="32">
+        <v>5563.0498049999997</v>
+      </c>
+      <c r="C285" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.0795760191519765E-3</v>
+      </c>
+      <c r="E285" s="32">
+        <v>0.27871285087081782</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="32">
+        <v>44231</v>
+      </c>
+      <c r="B286" s="32">
+        <v>5608.5400390000004</v>
+      </c>
+      <c r="C286" s="33">
+        <f t="shared" si="6"/>
+        <v>0.81772113489105791</v>
+      </c>
+      <c r="E286" s="32">
+        <v>0.28092438031917344</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="32">
+        <v>44232</v>
+      </c>
+      <c r="B287" s="32">
+        <v>5659.2597660000001</v>
+      </c>
+      <c r="C287" s="33">
+        <f t="shared" si="6"/>
+        <v>0.90433030070768639</v>
+      </c>
+      <c r="E287" s="32">
+        <v>0.2924314688768514</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="32">
+        <v>44235</v>
+      </c>
+      <c r="B288" s="32">
+        <v>5686.0297849999997</v>
+      </c>
+      <c r="C288" s="33">
+        <f t="shared" si="6"/>
+        <v>0.47303039808898556</v>
+      </c>
+      <c r="E288" s="32">
+        <v>0.30608631964294131</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="32">
+        <v>44236</v>
+      </c>
+      <c r="B289" s="32">
+        <v>5691.5400390000004</v>
+      </c>
+      <c r="C289" s="33">
+        <f t="shared" si="6"/>
+        <v>9.6908637632131464E-2</v>
+      </c>
+      <c r="E289" s="32">
+        <v>0.31019321390156529</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="32">
+        <v>44237</v>
+      </c>
+      <c r="B290" s="32">
+        <v>5670.7998049999997</v>
+      </c>
+      <c r="C290" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.36440460504332722</v>
+      </c>
+      <c r="E290" s="32">
+        <v>0.31103030761840639</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="32">
+        <v>44238</v>
+      </c>
+      <c r="B291" s="32">
+        <v>5669.8198240000002</v>
+      </c>
+      <c r="C291" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.7281177853174061E-2</v>
+      </c>
+      <c r="E291" s="32">
+        <v>0.3138518798030554</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="32">
+        <v>44239</v>
+      </c>
+      <c r="B292" s="32">
+        <v>5703.669922</v>
+      </c>
+      <c r="C292" s="33">
+        <f t="shared" si="6"/>
+        <v>0.59702246368948964</v>
+      </c>
+      <c r="E292" s="32">
+        <v>0.31408938765976485</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="32">
+        <v>44242</v>
+      </c>
+      <c r="B293" s="32">
+        <v>5786.25</v>
+      </c>
+      <c r="C293" s="33">
+        <f t="shared" si="6"/>
+        <v>1.4478411115880832</v>
+      </c>
+      <c r="E293" s="32">
+        <v>0.31770931557598636</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="32">
+        <v>44243</v>
+      </c>
+      <c r="B294" s="32">
+        <v>5786.5297849999997</v>
+      </c>
+      <c r="C294" s="33">
+        <f t="shared" si="6"/>
+        <v>4.8353424065624498E-3</v>
+      </c>
+      <c r="E294" s="32">
+        <v>0.32239988447324647</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="32">
+        <v>44244</v>
+      </c>
+      <c r="B295" s="32">
+        <v>5765.8398440000001</v>
+      </c>
+      <c r="C295" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.35755352117313322</v>
+      </c>
+      <c r="E295" s="32">
+        <v>0.32609801762985552</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="32">
+        <v>44245</v>
+      </c>
+      <c r="B296" s="32">
+        <v>5728.330078</v>
+      </c>
+      <c r="C296" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.65055164581155034</v>
+      </c>
+      <c r="E296" s="32">
+        <v>0.32617502440397905</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="32">
+        <v>44246</v>
+      </c>
+      <c r="B297" s="32">
+        <v>5773.5498049999997</v>
+      </c>
+      <c r="C297" s="33">
+        <f t="shared" si="6"/>
+        <v>0.78940505145939133</v>
+      </c>
+      <c r="E297" s="32">
+        <v>0.32802056807306873</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="32">
+        <v>44249</v>
+      </c>
+      <c r="B298" s="32">
+        <v>5767.4399409999996</v>
+      </c>
+      <c r="C298" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.10582508519643777</v>
+      </c>
+      <c r="E298" s="32">
+        <v>0.33344072487577242</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="32">
+        <v>44250</v>
+      </c>
+      <c r="B299" s="32">
+        <v>5779.8398440000001</v>
+      </c>
+      <c r="C299" s="33">
+        <f t="shared" si="6"/>
+        <v>0.21499838969888721</v>
+      </c>
+      <c r="E299" s="32">
+        <v>0.33625276376268676</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="32">
+        <v>44251</v>
+      </c>
+      <c r="B300" s="32">
+        <v>5797.9799800000001</v>
+      </c>
+      <c r="C300" s="33">
+        <f t="shared" si="6"/>
+        <v>0.3138518798030554</v>
+      </c>
+      <c r="E300" s="32">
+        <v>0.34098477606012478</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="32">
+        <v>44252</v>
+      </c>
+      <c r="B301" s="32">
+        <v>5783.8901370000003</v>
+      </c>
+      <c r="C301" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.24301296397370012</v>
+      </c>
+      <c r="E301" s="32">
+        <v>0.34573535774641467</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="32">
+        <v>44253</v>
+      </c>
+      <c r="B302" s="32">
+        <v>5703.2202150000003</v>
+      </c>
+      <c r="C302" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.3947346870222899</v>
+      </c>
+      <c r="E302" s="32">
+        <v>0.34993156428933203</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="32">
+        <v>44256</v>
+      </c>
+      <c r="B303" s="32">
+        <v>5792.7900390000004</v>
+      </c>
+      <c r="C303" s="33">
+        <f t="shared" si="6"/>
+        <v>1.5705131596430939</v>
+      </c>
+      <c r="E303" s="32">
+        <v>0.35019189820387348</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="32">
+        <v>44257</v>
+      </c>
+      <c r="B304" s="32">
+        <v>5809.7299800000001</v>
+      </c>
+      <c r="C304" s="33">
+        <f t="shared" si="6"/>
+        <v>0.2924314688768514</v>
+      </c>
+      <c r="E304" s="32">
+        <v>0.35238879962072228</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="32">
+        <v>44258</v>
+      </c>
+      <c r="B305" s="32">
+        <v>5830.0600590000004</v>
+      </c>
+      <c r="C305" s="33">
+        <f t="shared" si="6"/>
+        <v>0.34993156428933203</v>
+      </c>
+      <c r="E305" s="32">
+        <v>0.3569556118443491</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="32">
+        <v>44259</v>
+      </c>
+      <c r="B306" s="32">
+        <v>5830.6499020000001</v>
+      </c>
+      <c r="C306" s="33">
+        <f t="shared" si="6"/>
+        <v>1.0117271417970929E-2</v>
+      </c>
+      <c r="E306" s="32">
+        <v>0.36386052764190147</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="32">
+        <v>44260</v>
+      </c>
+      <c r="B307" s="32">
+        <v>5782.6499020000001</v>
+      </c>
+      <c r="C307" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.82323584517628612</v>
+      </c>
+      <c r="E307" s="32">
+        <v>0.36840409471341012</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="32">
+        <v>44263</v>
+      </c>
+      <c r="B308" s="32">
+        <v>5902.9902339999999</v>
+      </c>
+      <c r="C308" s="33">
+        <f t="shared" si="6"/>
+        <v>2.0810585810906272</v>
+      </c>
+      <c r="E308" s="32">
+        <v>0.37008342446715836</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="32">
+        <v>44264</v>
+      </c>
+      <c r="B309" s="32">
+        <v>5924.9702150000003</v>
+      </c>
+      <c r="C309" s="33">
+        <f t="shared" si="6"/>
+        <v>0.37235333498267154</v>
+      </c>
+      <c r="E309" s="32">
+        <v>0.37235333498267154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="32">
+        <v>44265</v>
+      </c>
+      <c r="B310" s="32">
+        <v>5990.5498049999997</v>
+      </c>
+      <c r="C310" s="33">
+        <f t="shared" si="6"/>
+        <v>1.1068340872663673</v>
+      </c>
+      <c r="E310" s="32">
+        <v>0.37853617557794411</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="32">
+        <v>44266</v>
+      </c>
+      <c r="B311" s="32">
+        <v>6033.7597660000001</v>
+      </c>
+      <c r="C311" s="33">
+        <f t="shared" si="6"/>
+        <v>0.72130209090216346</v>
+      </c>
+      <c r="E311" s="32">
+        <v>0.38387395138121355</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="32">
+        <v>44267</v>
+      </c>
+      <c r="B312" s="32">
+        <v>6046.5498049999997</v>
+      </c>
+      <c r="C312" s="33">
+        <f t="shared" si="6"/>
+        <v>0.21197461443643967</v>
+      </c>
+      <c r="E312" s="32">
+        <v>0.38778628070151955</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="32">
+        <v>44270</v>
+      </c>
+      <c r="B313" s="32">
+        <v>6035.9702150000003</v>
+      </c>
+      <c r="C313" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.17496903757000265</v>
+      </c>
+      <c r="E313" s="32">
+        <v>0.39585355366283836</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="32">
+        <v>44271</v>
+      </c>
+      <c r="B314" s="32">
+        <v>6055.4301759999998</v>
+      </c>
+      <c r="C314" s="33">
+        <f t="shared" si="6"/>
+        <v>0.32239988447324647</v>
+      </c>
+      <c r="E314" s="32">
+        <v>0.40219965104904287</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="32">
+        <v>44272</v>
+      </c>
+      <c r="B315" s="32">
+        <v>6054.8198240000002</v>
+      </c>
+      <c r="C315" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.0079416032551299E-2</v>
+      </c>
+      <c r="E315" s="32">
+        <v>0.40882839048075309</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="32">
+        <v>44273</v>
+      </c>
+      <c r="B316" s="32">
+        <v>6062.7900390000004</v>
+      </c>
+      <c r="C316" s="33">
+        <f t="shared" si="6"/>
+        <v>0.13163422251489743</v>
+      </c>
+      <c r="E316" s="32">
+        <v>0.41168928609895855</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="32">
+        <v>44274</v>
+      </c>
+      <c r="B317" s="32">
+        <v>5997.9599609999996</v>
+      </c>
+      <c r="C317" s="33">
+        <f t="shared" si="6"/>
+        <v>-1.0693109539167542</v>
+      </c>
+      <c r="E317" s="32">
+        <v>0.4174478447189382</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="32">
+        <v>44277</v>
+      </c>
+      <c r="B318" s="32">
+        <v>5968.4799800000001</v>
+      </c>
+      <c r="C318" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.49150012990557707</v>
+      </c>
+      <c r="E318" s="32">
+        <v>0.41890774231750322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="32">
+        <v>44278</v>
+      </c>
+      <c r="B319" s="32">
+        <v>5945.2998049999997</v>
+      </c>
+      <c r="C319" s="33">
+        <f t="shared" si="6"/>
+        <v>-0.38837652262679478</v>
+      </c>
+      <c r="E319" s="32">
+        <v>0.42819763971742131</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="32">
+        <v>44279</v>
+      </c>
+      <c r="B320" s="32">
+        <v>5947.2900390000004</v>
+      </c>
+      <c r="C320" s="33">
+        <f t="shared" si="6"/>
+        <v>3.3475755054892184E-2</v>
+      </c>
+      <c r="E320" s="32">
+        <v>0.42886136296131533</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="32">
+        <v>44280</v>
+      </c>
+      <c r="B321" s="32">
+        <v>5952.4101559999999</v>
+      </c>
+      <c r="C321" s="33">
+        <f t="shared" si="6"/>
+        <v>8.6091597457392505E-2</v>
+      </c>
+      <c r="E321" s="32">
+        <v>0.4448316999554584</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="32">
+        <v>44281</v>
+      </c>
+      <c r="B322" s="32">
+        <v>5988.8100590000004</v>
+      </c>
+      <c r="C322" s="33">
+        <f t="shared" si="6"/>
+        <v>0.61151537017840629</v>
+      </c>
+      <c r="E322" s="32">
+        <v>0.44582657885226079</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="32">
+        <v>44284</v>
+      </c>
+      <c r="B323" s="32">
+        <v>6015.5097660000001</v>
+      </c>
+      <c r="C323" s="33">
+        <f t="shared" ref="C323:C386" si="7">IFERROR(100*(B323-B322)/B322,"")</f>
+        <v>0.44582657885226079</v>
+      </c>
+      <c r="E323" s="32">
+        <v>0.44705868089663015</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="32">
+        <v>44285</v>
+      </c>
+      <c r="B324" s="32">
+        <v>6088.0400390000004</v>
+      </c>
+      <c r="C324" s="33">
+        <f t="shared" si="7"/>
+        <v>1.2057211412064444</v>
+      </c>
+      <c r="E324" s="32">
+        <v>0.45071288803466808</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="32">
+        <v>44286</v>
+      </c>
+      <c r="B325" s="32">
+        <v>6067.2299800000001</v>
+      </c>
+      <c r="C325" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.3418186947965367</v>
+      </c>
+      <c r="E325" s="32">
+        <v>0.45116328774169562</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="32">
+        <v>44287</v>
+      </c>
+      <c r="B326" s="32">
+        <v>6102.9599609999996</v>
+      </c>
+      <c r="C326" s="33">
+        <f t="shared" si="7"/>
+        <v>0.58890104904181495</v>
+      </c>
+      <c r="E326" s="32">
+        <v>0.45685647969265281</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="32">
+        <v>44292</v>
+      </c>
+      <c r="B327" s="32">
+        <v>6131.3398440000001</v>
+      </c>
+      <c r="C327" s="33">
+        <f t="shared" si="7"/>
+        <v>0.46501833833676892</v>
+      </c>
+      <c r="E327" s="32">
+        <v>0.46501833833676892</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="32">
+        <v>44293</v>
+      </c>
+      <c r="B328" s="32">
+        <v>6130.6601559999999</v>
+      </c>
+      <c r="C328" s="33">
+        <f t="shared" si="7"/>
+        <v>-1.1085472625780116E-2</v>
+      </c>
+      <c r="E328" s="32">
+        <v>0.46869768860311439</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="32">
+        <v>44294</v>
+      </c>
+      <c r="B329" s="32">
+        <v>6165.7202150000003</v>
+      </c>
+      <c r="C329" s="33">
+        <f t="shared" si="7"/>
+        <v>0.57188064756268586</v>
+      </c>
+      <c r="E329" s="32">
+        <v>0.47303039808898556</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="32">
+        <v>44295</v>
+      </c>
+      <c r="B330" s="32">
+        <v>6169.4101559999999</v>
+      </c>
+      <c r="C330" s="33">
+        <f t="shared" si="7"/>
+        <v>5.984606617443855E-2</v>
+      </c>
+      <c r="E330" s="32">
+        <v>0.48420510878736905</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="32">
+        <v>44298</v>
+      </c>
+      <c r="B331" s="32">
+        <v>6161.6801759999998</v>
+      </c>
+      <c r="C331" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.12529528438763876</v>
+      </c>
+      <c r="E331" s="32">
+        <v>0.4842201554709834</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="32">
+        <v>44299</v>
+      </c>
+      <c r="B332" s="32">
+        <v>6184.1000979999999</v>
+      </c>
+      <c r="C332" s="33">
+        <f t="shared" si="7"/>
+        <v>0.36386052764190147</v>
+      </c>
+      <c r="E332" s="32">
+        <v>0.48945780330017657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="32">
+        <v>44300</v>
+      </c>
+      <c r="B333" s="32">
+        <v>6208.580078</v>
+      </c>
+      <c r="C333" s="33">
+        <f t="shared" si="7"/>
+        <v>0.39585355366283836</v>
+      </c>
+      <c r="E333" s="32">
+        <v>0.49057031538932877</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="32">
+        <v>44301</v>
+      </c>
+      <c r="B334" s="32">
+        <v>6234.1401370000003</v>
+      </c>
+      <c r="C334" s="33">
+        <f t="shared" si="7"/>
+        <v>0.41168928609895855</v>
+      </c>
+      <c r="E334" s="32">
+        <v>0.49131297280740771</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="32">
+        <v>44302</v>
+      </c>
+      <c r="B335" s="32">
+        <v>6287.0698240000002</v>
+      </c>
+      <c r="C335" s="33">
+        <f t="shared" si="7"/>
+        <v>0.84902947057379929</v>
+      </c>
+      <c r="E335" s="32">
+        <v>0.49496283916946715</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="32">
+        <v>44305</v>
+      </c>
+      <c r="B336" s="32">
+        <v>6296.6899409999996</v>
+      </c>
+      <c r="C336" s="33">
+        <f t="shared" si="7"/>
+        <v>0.15301431778721536</v>
+      </c>
+      <c r="E336" s="32">
+        <v>0.50813014460475148</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="32">
+        <v>44306</v>
+      </c>
+      <c r="B337" s="32">
+        <v>6165.1098629999997</v>
+      </c>
+      <c r="C337" s="33">
+        <f t="shared" si="7"/>
+        <v>-2.0896705925320385</v>
+      </c>
+      <c r="E337" s="32">
+        <v>0.51821478223604178</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="32">
+        <v>44307</v>
+      </c>
+      <c r="B338" s="32">
+        <v>6210.5498049999997</v>
+      </c>
+      <c r="C338" s="33">
+        <f t="shared" si="7"/>
+        <v>0.73704999602210619</v>
+      </c>
+      <c r="E338" s="32">
+        <v>0.51888008389568396</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="32">
+        <v>44308</v>
+      </c>
+      <c r="B339" s="32">
+        <v>6267.2797849999997</v>
+      </c>
+      <c r="C339" s="33">
+        <f t="shared" si="7"/>
+        <v>0.91344537571098461</v>
+      </c>
+      <c r="E339" s="32">
+        <v>0.5250018545632924</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="32">
+        <v>44309</v>
+      </c>
+      <c r="B340" s="32">
+        <v>6257.9399409999996</v>
+      </c>
+      <c r="C340" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.14902548346978076</v>
+      </c>
+      <c r="E340" s="32">
+        <v>0.52748883767035504</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="32">
+        <v>44312</v>
+      </c>
+      <c r="B341" s="32">
+        <v>6275.5200199999999</v>
+      </c>
+      <c r="C341" s="33">
+        <f t="shared" si="7"/>
+        <v>0.28092438031917344</v>
+      </c>
+      <c r="E341" s="32">
+        <v>0.52951045687202591</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="32">
+        <v>44313</v>
+      </c>
+      <c r="B342" s="32">
+        <v>6273.7597660000001</v>
+      </c>
+      <c r="C342" s="33">
+        <f t="shared" si="7"/>
+        <v>-2.8049532060927189E-2</v>
+      </c>
+      <c r="E342" s="32">
+        <v>0.53281222892740721</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="32">
+        <v>44314</v>
+      </c>
+      <c r="B343" s="32">
+        <v>6306.9799800000001</v>
+      </c>
+      <c r="C343" s="33">
+        <f t="shared" si="7"/>
+        <v>0.52951045687202591</v>
+      </c>
+      <c r="E343" s="32">
+        <v>0.53434049367546932</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="32">
+        <v>44315</v>
+      </c>
+      <c r="B344" s="32">
+        <v>6302.5698240000002</v>
+      </c>
+      <c r="C344" s="33">
+        <f t="shared" si="7"/>
+        <v>-6.9925003947767655E-2</v>
+      </c>
+      <c r="E344" s="32">
+        <v>0.53614046004905869</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="32">
+        <v>44316</v>
+      </c>
+      <c r="B345" s="32">
+        <v>6269.4799800000001</v>
+      </c>
+      <c r="C345" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.52502145829459812</v>
+      </c>
+      <c r="E345" s="32">
+        <v>0.53768242388163967</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="32">
+        <v>44319</v>
+      </c>
+      <c r="B346" s="32">
+        <v>6307.8999020000001</v>
+      </c>
+      <c r="C346" s="33">
+        <f t="shared" si="7"/>
+        <v>0.61280875164386506</v>
+      </c>
+      <c r="E346" s="32">
+        <v>0.55394589339681932</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="32">
+        <v>44320</v>
+      </c>
+      <c r="B347" s="32">
+        <v>6251.75</v>
+      </c>
+      <c r="C347" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.89015207711519118</v>
+      </c>
+      <c r="E347" s="32">
+        <v>0.56388217949815533</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="32">
+        <v>44321</v>
+      </c>
+      <c r="B348" s="32">
+        <v>6339.4702150000003</v>
+      </c>
+      <c r="C348" s="33">
+        <f t="shared" si="7"/>
+        <v>1.4031305634422406</v>
+      </c>
+      <c r="E348" s="32">
+        <v>0.57188064756268586</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="32">
+        <v>44322</v>
+      </c>
+      <c r="B349" s="32">
+        <v>6357.0898440000001</v>
+      </c>
+      <c r="C349" s="33">
+        <f t="shared" si="7"/>
+        <v>0.27793535425577837</v>
+      </c>
+      <c r="E349" s="32">
+        <v>0.58890104904181495</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="32">
+        <v>44323</v>
+      </c>
+      <c r="B350" s="32">
+        <v>6385.5097660000001</v>
+      </c>
+      <c r="C350" s="33">
+        <f t="shared" si="7"/>
+        <v>0.44705868089663015</v>
+      </c>
+      <c r="E350" s="32">
+        <v>0.59191943501377586</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="32">
+        <v>44326</v>
+      </c>
+      <c r="B351" s="32">
+        <v>6385.9902339999999</v>
+      </c>
+      <c r="C351" s="33">
+        <f t="shared" si="7"/>
+        <v>7.5243483700866689E-3</v>
+      </c>
+      <c r="E351" s="32">
+        <v>0.59702246368948964</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="32">
+        <v>44327</v>
+      </c>
+      <c r="B352" s="32">
+        <v>6267.3901370000003</v>
+      </c>
+      <c r="C352" s="33">
+        <f t="shared" si="7"/>
+        <v>-1.8571919569897599</v>
+      </c>
+      <c r="E352" s="32">
+        <v>0.60459841987756613</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="32">
+        <v>44328</v>
+      </c>
+      <c r="B353" s="32">
+        <v>6279.3500979999999</v>
+      </c>
+      <c r="C353" s="33">
+        <f t="shared" si="7"/>
+        <v>0.19082841084669444</v>
+      </c>
+      <c r="E353" s="32">
+        <v>0.61151537017840629</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="32">
+        <v>44329</v>
+      </c>
+      <c r="B354" s="32">
+        <v>6288.330078</v>
+      </c>
+      <c r="C354" s="33">
+        <f t="shared" si="7"/>
+        <v>0.14300811166525387</v>
+      </c>
+      <c r="E354" s="32">
+        <v>0.61280875164386506</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="32">
+        <v>44330</v>
+      </c>
+      <c r="B355" s="32">
+        <v>6385.1401370000003</v>
+      </c>
+      <c r="C355" s="33">
+        <f t="shared" si="7"/>
+        <v>1.539519360453018</v>
+      </c>
+      <c r="E355" s="32">
+        <v>0.61327204014747305</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="32">
+        <v>44333</v>
+      </c>
+      <c r="B356" s="32">
+        <v>6367.3500979999999</v>
+      </c>
+      <c r="C356" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.27861626555245694</v>
+      </c>
+      <c r="E356" s="32">
+        <v>0.61640287463205401</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="32">
+        <v>44334</v>
+      </c>
+      <c r="B357" s="32">
+        <v>6353.669922</v>
+      </c>
+      <c r="C357" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.21484881134927422</v>
+      </c>
+      <c r="E357" s="32">
+        <v>0.62092594828515146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="32">
+        <v>44335</v>
+      </c>
+      <c r="B358" s="32">
+        <v>6262.5498049999997</v>
+      </c>
+      <c r="C358" s="33">
+        <f t="shared" si="7"/>
+        <v>-1.4341336285741095</v>
+      </c>
+      <c r="E358" s="32">
+        <v>0.62410823583386643</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="32">
+        <v>44336</v>
+      </c>
+      <c r="B359" s="32">
+        <v>6343.580078</v>
+      </c>
+      <c r="C359" s="33">
+        <f t="shared" si="7"/>
+        <v>1.2938862847095602</v>
+      </c>
+      <c r="E359" s="32">
+        <v>0.63289050376618927</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="32">
+        <v>44337</v>
+      </c>
+      <c r="B360" s="32">
+        <v>6386.4101559999999</v>
+      </c>
+      <c r="C360" s="33">
+        <f t="shared" si="7"/>
+        <v>0.67517202389448516</v>
+      </c>
+      <c r="E360" s="32">
+        <v>0.64980034654235275</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="32">
+        <v>44340</v>
+      </c>
+      <c r="B361" s="32">
+        <v>6408.4902339999999</v>
+      </c>
+      <c r="C361" s="33">
+        <f t="shared" si="7"/>
+        <v>0.34573535774641467</v>
+      </c>
+      <c r="E361" s="32">
+        <v>0.6510330166729299</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="32">
+        <v>44341</v>
+      </c>
+      <c r="B362" s="32">
+        <v>6390.2700199999999</v>
+      </c>
+      <c r="C362" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.28431367349728165</v>
+      </c>
+      <c r="E362" s="32">
+        <v>0.65309989435279281</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="32">
+        <v>44342</v>
+      </c>
+      <c r="B363" s="32">
+        <v>6391.6000979999999</v>
+      </c>
+      <c r="C363" s="33">
+        <f t="shared" si="7"/>
+        <v>2.0814112640579117E-2</v>
+      </c>
+      <c r="E363" s="32">
+        <v>0.65501577453227344</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="32">
+        <v>44343</v>
+      </c>
+      <c r="B364" s="32">
+        <v>6435.7099609999996</v>
+      </c>
+      <c r="C364" s="33">
+        <f t="shared" si="7"/>
+        <v>0.69012238443706964</v>
+      </c>
+      <c r="E364" s="32">
+        <v>0.65658433642317593</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="32">
+        <v>44344</v>
+      </c>
+      <c r="B365" s="32">
+        <v>6484.1098629999997</v>
+      </c>
+      <c r="C365" s="33">
+        <f t="shared" si="7"/>
+        <v>0.75205225675644949</v>
+      </c>
+      <c r="E365" s="32">
+        <v>0.67517202389448516</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="32">
+        <v>44347</v>
+      </c>
+      <c r="B366" s="32">
+        <v>6447.169922</v>
+      </c>
+      <c r="C366" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.56969949276751852</v>
+      </c>
+      <c r="E366" s="32">
+        <v>0.67640120158326944</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="32">
+        <v>44348</v>
+      </c>
+      <c r="B367" s="32">
+        <v>6489.3999020000001</v>
+      </c>
+      <c r="C367" s="33">
+        <f t="shared" si="7"/>
+        <v>0.65501577453227344</v>
+      </c>
+      <c r="E367" s="32">
+        <v>0.69012238443706964</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="32">
+        <v>44349</v>
+      </c>
+      <c r="B368" s="32">
+        <v>6521.5200199999999</v>
+      </c>
+      <c r="C368" s="33">
+        <f t="shared" si="7"/>
+        <v>0.49496283916946715</v>
+      </c>
+      <c r="E368" s="32">
+        <v>0.6970837800031594</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="32">
+        <v>44350</v>
+      </c>
+      <c r="B369" s="32">
+        <v>6507.919922</v>
+      </c>
+      <c r="C369" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.20854184236637349</v>
+      </c>
+      <c r="E369" s="32">
+        <v>0.7066832638342927</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="32">
+        <v>44351</v>
+      </c>
+      <c r="B370" s="32">
+        <v>6515.6601559999999</v>
+      </c>
+      <c r="C370" s="33">
+        <f t="shared" si="7"/>
+        <v>0.11893560604263184</v>
+      </c>
+      <c r="E370" s="32">
+        <v>0.70990521909560811</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="32">
+        <v>44354</v>
+      </c>
+      <c r="B371" s="32">
+        <v>6543.5600590000004</v>
+      </c>
+      <c r="C371" s="33">
+        <f t="shared" si="7"/>
+        <v>0.42819763971742131</v>
+      </c>
+      <c r="E371" s="32">
+        <v>0.71072107879940283</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="32">
+        <v>44355</v>
+      </c>
+      <c r="B372" s="32">
+        <v>6551.0097660000001</v>
+      </c>
+      <c r="C372" s="33">
+        <f t="shared" si="7"/>
+        <v>0.11384791967720154</v>
+      </c>
+      <c r="E372" s="32">
+        <v>0.7176584086535972</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="32">
+        <v>44356</v>
+      </c>
+      <c r="B373" s="32">
+        <v>6563.4501950000003</v>
+      </c>
+      <c r="C373" s="33">
+        <f t="shared" si="7"/>
+        <v>0.18990093808998026</v>
+      </c>
+      <c r="E373" s="32">
+        <v>0.72130209090216346</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="32">
+        <v>44357</v>
+      </c>
+      <c r="B374" s="32">
+        <v>6546.4902339999999</v>
+      </c>
+      <c r="C374" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.2584000867854605</v>
+      </c>
+      <c r="E374" s="32">
+        <v>0.72958145608379932</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="32">
+        <v>44358</v>
+      </c>
+      <c r="B375" s="32">
+        <v>6600.6601559999999</v>
+      </c>
+      <c r="C375" s="33">
+        <f t="shared" si="7"/>
+        <v>0.82746510059179357</v>
+      </c>
+      <c r="E375" s="32">
+        <v>0.73704999602210619</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="32">
+        <v>44361</v>
+      </c>
+      <c r="B376" s="32">
+        <v>6616.3500979999999</v>
+      </c>
+      <c r="C376" s="33">
+        <f t="shared" si="7"/>
+        <v>0.2377026180591621</v>
+      </c>
+      <c r="E376" s="32">
+        <v>0.7507225098890038</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="32">
+        <v>44362</v>
+      </c>
+      <c r="B377" s="32">
+        <v>6639.5200199999999</v>
+      </c>
+      <c r="C377" s="33">
+        <f t="shared" si="7"/>
+        <v>0.35019189820387348</v>
+      </c>
+      <c r="E377" s="32">
+        <v>0.75205225675644949</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="32">
+        <v>44363</v>
+      </c>
+      <c r="B378" s="32">
+        <v>6652.6499020000001</v>
+      </c>
+      <c r="C378" s="33">
+        <f t="shared" si="7"/>
+        <v>0.19775348158375128</v>
+      </c>
+      <c r="E378" s="32">
+        <v>0.75243117526783521</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="32">
+        <v>44364</v>
+      </c>
+      <c r="B379" s="32">
+        <v>6666.2597660000001</v>
+      </c>
+      <c r="C379" s="33">
+        <f t="shared" si="7"/>
+        <v>0.20457808843823955</v>
+      </c>
+      <c r="E379" s="32">
+        <v>0.75846583403620205</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="32">
+        <v>44365</v>
+      </c>
+      <c r="B380" s="32">
+        <v>6569.1601559999999</v>
+      </c>
+      <c r="C380" s="33">
+        <f t="shared" si="7"/>
+        <v>-1.4565830526922825</v>
+      </c>
+      <c r="E380" s="32">
+        <v>0.78940505145939133</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="32">
+        <v>44368</v>
+      </c>
+      <c r="B381" s="32">
+        <v>6602.5400390000004</v>
+      </c>
+      <c r="C381" s="33">
+        <f t="shared" si="7"/>
+        <v>0.50813014460475148</v>
+      </c>
+      <c r="E381" s="32">
+        <v>0.79322488045906736</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="32">
+        <v>44369</v>
+      </c>
+      <c r="B382" s="32">
+        <v>6611.5</v>
+      </c>
+      <c r="C382" s="33">
+        <f t="shared" si="7"/>
+        <v>0.13570475827597728</v>
+      </c>
+      <c r="E382" s="32">
+        <v>0.79905685742615618</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="32">
+        <v>44370</v>
+      </c>
+      <c r="B383" s="32">
+        <v>6551.0698240000002</v>
+      </c>
+      <c r="C383" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.914016123421309</v>
+      </c>
+      <c r="E383" s="32">
+        <v>0.79984819302204269</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="32">
+        <v>44371</v>
+      </c>
+      <c r="B384" s="32">
+        <v>6631.1499020000001</v>
+      </c>
+      <c r="C384" s="33">
+        <f t="shared" si="7"/>
+        <v>1.2223969542596644</v>
+      </c>
+      <c r="E384" s="32">
+        <v>0.80187681254454235</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="32">
+        <v>44372</v>
+      </c>
+      <c r="B385" s="32">
+        <v>6622.8701170000004</v>
+      </c>
+      <c r="C385" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.12486197902874251</v>
+      </c>
+      <c r="E385" s="32">
+        <v>0.80813411217828646</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="32">
+        <v>44375</v>
+      </c>
+      <c r="B386" s="32">
+        <v>6558.0200199999999</v>
+      </c>
+      <c r="C386" s="33">
+        <f t="shared" si="7"/>
+        <v>-0.97918418834062815</v>
+      </c>
+      <c r="E386" s="32">
+        <v>0.81772113489105791</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="32">
+        <v>44376</v>
+      </c>
+      <c r="B387" s="32">
+        <v>6567.4301759999998</v>
+      </c>
+      <c r="C387" s="33">
+        <f t="shared" ref="C387:C450" si="8">IFERROR(100*(B387-B386)/B386,"")</f>
+        <v>0.143490809288501</v>
+      </c>
+      <c r="E387" s="32">
+        <v>0.82530465173207235</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="32">
+        <v>44377</v>
+      </c>
+      <c r="B388" s="32">
+        <v>6507.830078</v>
+      </c>
+      <c r="C388" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.90751018895948576</v>
+      </c>
+      <c r="E388" s="32">
+        <v>0.82746510059179357</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="32">
+        <v>44378</v>
+      </c>
+      <c r="B389" s="32">
+        <v>6553.8198240000002</v>
+      </c>
+      <c r="C389" s="33">
+        <f t="shared" si="8"/>
+        <v>0.7066832638342927</v>
+      </c>
+      <c r="E389" s="32">
+        <v>0.83454706831629377</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="32">
+        <v>44379</v>
+      </c>
+      <c r="B390" s="32">
+        <v>6552.8598629999997</v>
+      </c>
+      <c r="C390" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.4647351098745676E-2</v>
+      </c>
+      <c r="E390" s="32">
+        <v>0.84835171825488098</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="32">
+        <v>44382</v>
+      </c>
+      <c r="B391" s="32">
+        <v>6567.5400390000004</v>
+      </c>
+      <c r="C391" s="33">
+        <f t="shared" si="8"/>
+        <v>0.22402700968611813</v>
+      </c>
+      <c r="E391" s="32">
+        <v>0.84902947057379929</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="32">
+        <v>44383</v>
+      </c>
+      <c r="B392" s="32">
+        <v>6507.4799800000001</v>
+      </c>
+      <c r="C392" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.91449855871979346</v>
+      </c>
+      <c r="E392" s="32">
+        <v>0.86008587509591394</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="32">
+        <v>44384</v>
+      </c>
+      <c r="B393" s="32">
+        <v>6527.7202150000003</v>
+      </c>
+      <c r="C393" s="33">
+        <f t="shared" si="8"/>
+        <v>0.31103030761840639</v>
+      </c>
+      <c r="E393" s="32">
+        <v>0.87075884763257383</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="32">
+        <v>44385</v>
+      </c>
+      <c r="B394" s="32">
+        <v>6396.7299800000001</v>
+      </c>
+      <c r="C394" s="33">
+        <f t="shared" si="8"/>
+        <v>-2.0066766142794954</v>
+      </c>
+      <c r="E394" s="32">
+        <v>0.87855842031310705</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="32">
+        <v>44386</v>
+      </c>
+      <c r="B395" s="32">
+        <v>6529.419922</v>
+      </c>
+      <c r="C395" s="33">
+        <f t="shared" si="8"/>
+        <v>2.0743402084325586</v>
+      </c>
+      <c r="E395" s="32">
+        <v>0.87862645299542308</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="32">
+        <v>44389</v>
+      </c>
+      <c r="B396" s="32">
+        <v>6559.25</v>
+      </c>
+      <c r="C396" s="33">
+        <f t="shared" si="8"/>
+        <v>0.45685647969265281</v>
+      </c>
+      <c r="E396" s="32">
+        <v>0.88181700244228289</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="32">
+        <v>44390</v>
+      </c>
+      <c r="B397" s="32">
+        <v>6558.4702150000003</v>
+      </c>
+      <c r="C397" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.1888325646982806E-2</v>
+      </c>
+      <c r="E397" s="32">
+        <v>0.88853068436092264</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="32">
+        <v>44391</v>
+      </c>
+      <c r="B398" s="32">
+        <v>6558.3798829999996</v>
+      </c>
+      <c r="C398" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.3773333878085096E-3</v>
+      </c>
+      <c r="E398" s="32">
+        <v>0.89619888702286477</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="32">
+        <v>44392</v>
+      </c>
+      <c r="B399" s="32">
+        <v>6493.3598629999997</v>
+      </c>
+      <c r="C399" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.99140368749511698</v>
+      </c>
+      <c r="E399" s="32">
+        <v>0.89849808284473276</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="32">
+        <v>44393</v>
+      </c>
+      <c r="B400" s="32">
+        <v>6460.080078</v>
+      </c>
+      <c r="C400" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.51252026227026504</v>
+      </c>
+      <c r="E400" s="32">
+        <v>0.90135069661713452</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="32">
+        <v>44396</v>
+      </c>
+      <c r="B401" s="32">
+        <v>6295.9702150000003</v>
+      </c>
+      <c r="C401" s="33">
+        <f t="shared" si="8"/>
+        <v>-2.5403688656876069</v>
+      </c>
+      <c r="E401" s="32">
+        <v>0.90433030070768639</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="32">
+        <v>44397</v>
+      </c>
+      <c r="B402" s="32">
+        <v>6346.8500979999999</v>
+      </c>
+      <c r="C402" s="33">
+        <f t="shared" si="8"/>
+        <v>0.80813411217828646</v>
+      </c>
+      <c r="E402" s="32">
+        <v>0.91344537571098461</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="32">
+        <v>44398</v>
+      </c>
+      <c r="B403" s="32">
+        <v>6464.4799800000001</v>
+      </c>
+      <c r="C403" s="33">
+        <f t="shared" si="8"/>
+        <v>1.8533584405446624</v>
+      </c>
+      <c r="E403" s="32">
+        <v>0.92162610408467327</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="32">
+        <v>44399</v>
+      </c>
+      <c r="B404" s="32">
+        <v>6481.5898440000001</v>
+      </c>
+      <c r="C404" s="33">
+        <f t="shared" si="8"/>
+        <v>0.26467502495073109</v>
+      </c>
+      <c r="E404" s="32">
+        <v>0.93229752087528872</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="32">
+        <v>44400</v>
+      </c>
+      <c r="B405" s="32">
+        <v>6568.8198240000002</v>
+      </c>
+      <c r="C405" s="33">
+        <f t="shared" si="8"/>
+        <v>1.3458114768053204</v>
+      </c>
+      <c r="E405" s="32">
+        <v>0.93488290757168457</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="32">
+        <v>44403</v>
+      </c>
+      <c r="B406" s="32">
+        <v>6578.6000979999999</v>
+      </c>
+      <c r="C406" s="33">
+        <f t="shared" si="8"/>
+        <v>0.14888936311308598</v>
+      </c>
+      <c r="E406" s="32">
+        <v>0.9548227704360247</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="32">
+        <v>44404</v>
+      </c>
+      <c r="B407" s="32">
+        <v>6531.919922</v>
+      </c>
+      <c r="C407" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.7095761302498288</v>
+      </c>
+      <c r="E407" s="32">
+        <v>0.96934359866651232</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="32">
+        <v>44405</v>
+      </c>
+      <c r="B408" s="32">
+        <v>6609.3100590000004</v>
+      </c>
+      <c r="C408" s="33">
+        <f t="shared" si="8"/>
+        <v>1.1847992309174595</v>
+      </c>
+      <c r="E408" s="32">
+        <v>0.9739151054426527</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="32">
+        <v>44406</v>
+      </c>
+      <c r="B409" s="32">
+        <v>6633.7700199999999</v>
+      </c>
+      <c r="C409" s="33">
+        <f t="shared" si="8"/>
+        <v>0.37008342446715836</v>
+      </c>
+      <c r="E409" s="32">
+        <v>0.97905650143137068</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="32">
+        <v>44407</v>
+      </c>
+      <c r="B410" s="32">
+        <v>6612.7597660000001</v>
+      </c>
+      <c r="C410" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.31671664734617683</v>
+      </c>
+      <c r="E410" s="32">
+        <v>1.0052858326312848</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="32">
+        <v>44410</v>
+      </c>
+      <c r="B411" s="32">
+        <v>6675.8999020000001</v>
+      </c>
+      <c r="C411" s="33">
+        <f t="shared" si="8"/>
+        <v>0.9548227704360247</v>
+      </c>
+      <c r="E411" s="32">
+        <v>1.0215288249319434</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="32">
+        <v>44411</v>
+      </c>
+      <c r="B412" s="32">
+        <v>6723.8100590000004</v>
+      </c>
+      <c r="C412" s="33">
+        <f t="shared" si="8"/>
+        <v>0.7176584086535972</v>
+      </c>
+      <c r="E412" s="32">
+        <v>1.0612128411873427</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="32">
+        <v>44412</v>
+      </c>
+      <c r="B413" s="32">
+        <v>6746.2299800000001</v>
+      </c>
+      <c r="C413" s="33">
+        <f t="shared" si="8"/>
+        <v>0.33344072487577242</v>
+      </c>
+      <c r="E413" s="32">
+        <v>1.0707728333990159</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="32">
+        <v>44413</v>
+      </c>
+      <c r="B414" s="32">
+        <v>6781.1899409999996</v>
+      </c>
+      <c r="C414" s="33">
+        <f t="shared" si="8"/>
+        <v>0.51821478223604178</v>
+      </c>
+      <c r="E414" s="32">
+        <v>1.0711169974821309</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="32">
+        <v>44414</v>
+      </c>
+      <c r="B415" s="32">
+        <v>6816.9599609999996</v>
+      </c>
+      <c r="C415" s="33">
+        <f t="shared" si="8"/>
+        <v>0.52748883767035504</v>
+      </c>
+      <c r="E415" s="32">
+        <v>1.1068340872663673</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="32">
+        <v>44417</v>
+      </c>
+      <c r="B416" s="32">
+        <v>6813.1801759999998</v>
+      </c>
+      <c r="C416" s="33">
+        <f t="shared" si="8"/>
+        <v>-5.5446783047340242E-2</v>
+      </c>
+      <c r="E416" s="32">
+        <v>1.1108750273813341</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="32">
+        <v>44418</v>
+      </c>
+      <c r="B417" s="32">
+        <v>6820.2099609999996</v>
+      </c>
+      <c r="C417" s="33">
+        <f t="shared" si="8"/>
+        <v>0.10317920293320186</v>
+      </c>
+      <c r="E417" s="32">
+        <v>1.1183965144280101</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="32">
+        <v>44419</v>
+      </c>
+      <c r="B418" s="32">
+        <v>6857.9902339999999</v>
+      </c>
+      <c r="C418" s="33">
+        <f t="shared" si="8"/>
+        <v>0.55394589339681932</v>
+      </c>
+      <c r="E418" s="32">
+        <v>1.1432411453972675</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="32">
+        <v>44420</v>
+      </c>
+      <c r="B419" s="32">
+        <v>6882.4702150000003</v>
+      </c>
+      <c r="C419" s="33">
+        <f t="shared" si="8"/>
+        <v>0.3569556118443491</v>
+      </c>
+      <c r="E419" s="32">
+        <v>1.1570251101779718</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="32">
+        <v>44421</v>
+      </c>
+      <c r="B420" s="32">
+        <v>6896.0400390000004</v>
+      </c>
+      <c r="C420" s="33">
+        <f t="shared" si="8"/>
+        <v>0.19716502325611812</v>
+      </c>
+      <c r="E420" s="32">
+        <v>1.1752641834731223</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="32">
+        <v>44424</v>
+      </c>
+      <c r="B421" s="32">
+        <v>6838.7700199999999</v>
+      </c>
+      <c r="C421" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.83047689218906084</v>
+      </c>
+      <c r="E421" s="32">
+        <v>1.1847992309174595</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="32">
+        <v>44425</v>
+      </c>
+      <c r="B422" s="32">
+        <v>6819.8398440000001</v>
+      </c>
+      <c r="C422" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.27680673490464658</v>
+      </c>
+      <c r="E422" s="32">
+        <v>1.1860690586502591</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="32">
+        <v>44426</v>
+      </c>
+      <c r="B423" s="32">
+        <v>6770.1098629999997</v>
+      </c>
+      <c r="C423" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.72919573094890422</v>
+      </c>
+      <c r="E423" s="32">
+        <v>1.2009006799107576</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="32">
+        <v>44427</v>
+      </c>
+      <c r="B424" s="32">
+        <v>6605.8901370000003</v>
+      </c>
+      <c r="C424" s="33">
+        <f t="shared" si="8"/>
+        <v>-2.4256582141671421</v>
+      </c>
+      <c r="E424" s="32">
+        <v>1.2019195874779531</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="32">
+        <v>44428</v>
+      </c>
+      <c r="B425" s="32">
+        <v>6626.1098629999997</v>
+      </c>
+      <c r="C425" s="33">
+        <f t="shared" si="8"/>
+        <v>0.30608631964294131</v>
+      </c>
+      <c r="E425" s="32">
+        <v>1.2057211412064444</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="32">
+        <v>44431</v>
+      </c>
+      <c r="B426" s="32">
+        <v>6683.1000979999999</v>
+      </c>
+      <c r="C426" s="33">
+        <f t="shared" si="8"/>
+        <v>0.86008587509591394</v>
+      </c>
+      <c r="E426" s="32">
+        <v>1.2066316685177747</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="32">
+        <v>44432</v>
+      </c>
+      <c r="B427" s="32">
+        <v>6664.3100590000004</v>
+      </c>
+      <c r="C427" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.281157527561538</v>
+      </c>
+      <c r="E427" s="32">
+        <v>1.2223969542596644</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="32">
+        <v>44433</v>
+      </c>
+      <c r="B428" s="32">
+        <v>6676.4799800000001</v>
+      </c>
+      <c r="C428" s="33">
+        <f t="shared" si="8"/>
+        <v>0.1826133672091757</v>
+      </c>
+      <c r="E428" s="32">
+        <v>1.2419662346582381</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="32">
+        <v>44434</v>
+      </c>
+      <c r="B429" s="32">
+        <v>6666.0297849999997</v>
+      </c>
+      <c r="C429" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.15652252431378291</v>
+      </c>
+      <c r="E429" s="32">
+        <v>1.2470532026995278</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="32">
+        <v>44435</v>
+      </c>
+      <c r="B430" s="32">
+        <v>6681.919922</v>
+      </c>
+      <c r="C430" s="33">
+        <f t="shared" si="8"/>
+        <v>0.23837482748361771</v>
+      </c>
+      <c r="E430" s="32">
+        <v>1.2860291856555324</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="32">
+        <v>44438</v>
+      </c>
+      <c r="B431" s="32">
+        <v>6687.2998049999997</v>
+      </c>
+      <c r="C431" s="33">
+        <f t="shared" si="8"/>
+        <v>8.0514029841730395E-2</v>
+      </c>
+      <c r="E431" s="32">
+        <v>1.2938862847095602</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="32">
+        <v>44439</v>
+      </c>
+      <c r="B432" s="32">
+        <v>6680.1801759999998</v>
+      </c>
+      <c r="C432" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.10646492915835115</v>
+      </c>
+      <c r="E432" s="32">
+        <v>1.3298341427633638</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="32">
+        <v>44440</v>
+      </c>
+      <c r="B433" s="32">
+        <v>6758.6899409999996</v>
+      </c>
+      <c r="C433" s="33">
+        <f t="shared" si="8"/>
+        <v>1.1752641834731223</v>
+      </c>
+      <c r="E433" s="32">
+        <v>1.3312872618767762</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="32">
+        <v>44441</v>
+      </c>
+      <c r="B434" s="32">
+        <v>6763.080078</v>
+      </c>
+      <c r="C434" s="33">
+        <f t="shared" si="8"/>
+        <v>6.4955443115811418E-2</v>
+      </c>
+      <c r="E434" s="32">
+        <v>1.3458114768053204</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="32">
+        <v>44442</v>
+      </c>
+      <c r="B435" s="32">
+        <v>6689.9902339999999</v>
+      </c>
+      <c r="C435" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.0807182993109621</v>
+      </c>
+      <c r="E435" s="32">
+        <v>1.3631631072124888</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="32">
+        <v>44445</v>
+      </c>
+      <c r="B436" s="32">
+        <v>6743.5</v>
+      </c>
+      <c r="C436" s="33">
+        <f t="shared" si="8"/>
+        <v>0.79984819302204269</v>
+      </c>
+      <c r="E436" s="32">
+        <v>1.3939009897931287</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="32">
+        <v>44446</v>
+      </c>
+      <c r="B437" s="32">
+        <v>6726.0698240000002</v>
+      </c>
+      <c r="C437" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.25847373025876541</v>
+      </c>
+      <c r="E437" s="32">
+        <v>1.3965955645233361</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="32">
+        <v>44447</v>
+      </c>
+      <c r="B438" s="32">
+        <v>6668.8901370000003</v>
+      </c>
+      <c r="C438" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.85012033024056555</v>
+      </c>
+      <c r="E438" s="32">
+        <v>1.4031305634422406</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="32">
+        <v>44448</v>
+      </c>
+      <c r="B439" s="32">
+        <v>6684.7202150000003</v>
+      </c>
+      <c r="C439" s="33">
+        <f t="shared" si="8"/>
+        <v>0.23737200155948462</v>
+      </c>
+      <c r="E439" s="32">
+        <v>1.4323319042997953</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="32">
+        <v>44449</v>
+      </c>
+      <c r="B440" s="32">
+        <v>6663.7700199999999</v>
+      </c>
+      <c r="C440" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.31340421627504644</v>
+      </c>
+      <c r="E440" s="32">
+        <v>1.4341540909084347</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="32">
+        <v>44452</v>
+      </c>
+      <c r="B441" s="32">
+        <v>6676.9301759999998</v>
+      </c>
+      <c r="C441" s="33">
+        <f t="shared" si="8"/>
+        <v>0.1974881480078437</v>
+      </c>
+      <c r="E441" s="32">
+        <v>1.4428022733667185</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="32">
+        <v>44453</v>
+      </c>
+      <c r="B442" s="32">
+        <v>6652.9702150000003</v>
+      </c>
+      <c r="C442" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.358846960630543</v>
+      </c>
+      <c r="E442" s="32">
+        <v>1.4478411115880832</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="32">
+        <v>44454</v>
+      </c>
+      <c r="B443" s="32">
+        <v>6583.6201170000004</v>
+      </c>
+      <c r="C443" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.042393032868852</v>
+      </c>
+      <c r="E443" s="32">
+        <v>1.4610438471417178</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="32">
+        <v>44455</v>
+      </c>
+      <c r="B444" s="32">
+        <v>6622.5898440000001</v>
+      </c>
+      <c r="C444" s="33">
+        <f t="shared" si="8"/>
+        <v>0.59191943501377586</v>
+      </c>
+      <c r="E444" s="32">
+        <v>1.4852715714994538</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="32">
+        <v>44456</v>
+      </c>
+      <c r="B445" s="32">
+        <v>6570.1899409999996</v>
+      </c>
+      <c r="C445" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.79122977919996418</v>
+      </c>
+      <c r="E445" s="32">
+        <v>1.5012821026988596</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="32">
+        <v>44459</v>
+      </c>
+      <c r="B446" s="32">
+        <v>6455.8100590000004</v>
+      </c>
+      <c r="C446" s="33">
+        <f t="shared" si="8"/>
+        <v>-1.7408915575824335</v>
+      </c>
+      <c r="E446" s="32">
+        <v>1.5224575946401318</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="32">
+        <v>44460</v>
+      </c>
+      <c r="B447" s="32">
+        <v>6552.7299800000001</v>
+      </c>
+      <c r="C447" s="33">
+        <f t="shared" si="8"/>
+        <v>1.5012821026988596</v>
+      </c>
+      <c r="E447" s="32">
+        <v>1.5351731589927466</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="32">
+        <v>44461</v>
+      </c>
+      <c r="B448" s="32">
+        <v>6637</v>
+      </c>
+      <c r="C448" s="33">
+        <f t="shared" si="8"/>
+        <v>1.2860291856555324</v>
+      </c>
+      <c r="E448" s="32">
+        <v>1.539519360453018</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="32">
+        <v>44462</v>
+      </c>
+      <c r="B449" s="32">
+        <v>6701.9799800000001</v>
+      </c>
+      <c r="C449" s="33">
+        <f t="shared" si="8"/>
+        <v>0.97905650143137068</v>
+      </c>
+      <c r="E449" s="32">
+        <v>1.548827538939505</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="32">
+        <v>44463</v>
+      </c>
+      <c r="B450" s="32">
+        <v>6638.4599609999996</v>
+      </c>
+      <c r="C450" s="33">
+        <f t="shared" si="8"/>
+        <v>-0.94777989772509741</v>
+      </c>
+      <c r="E450" s="32">
+        <v>1.5705131596430939</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="32">
+        <v>44466</v>
+      </c>
+      <c r="B451" s="32">
+        <v>6650.9101559999999</v>
+      </c>
+      <c r="C451" s="33">
+        <f t="shared" ref="C451:C514" si="9">IFERROR(100*(B451-B450)/B450,"")</f>
+        <v>0.18754643506390728</v>
+      </c>
+      <c r="E451" s="32">
+        <v>1.6489734067859574</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="32">
+        <v>44467</v>
+      </c>
+      <c r="B452" s="32">
+        <v>6506.5</v>
+      </c>
+      <c r="C452" s="33">
+        <f t="shared" si="9"/>
+        <v>-2.1712841192076979</v>
+      </c>
+      <c r="E452" s="32">
+        <v>1.6973439702935147</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="32">
+        <v>44468</v>
+      </c>
+      <c r="B453" s="32">
+        <v>6560.7998049999997</v>
+      </c>
+      <c r="C453" s="33">
+        <f t="shared" si="9"/>
+        <v>0.83454706831629377</v>
+      </c>
+      <c r="E453" s="32">
+        <v>1.725185502105171</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="32">
+        <v>44469</v>
+      </c>
+      <c r="B454" s="32">
+        <v>6520.0097660000001</v>
+      </c>
+      <c r="C454" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.62172357353311325</v>
+      </c>
+      <c r="E454" s="32">
+        <v>1.7580774505984689</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="32">
+        <v>44470</v>
+      </c>
+      <c r="B455" s="32">
+        <v>6517.6899409999996</v>
+      </c>
+      <c r="C455" s="33">
+        <f t="shared" si="9"/>
+        <v>-3.5580084743089199E-2</v>
+      </c>
+      <c r="E455" s="32">
+        <v>1.7627315414206939</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="32">
+        <v>44473</v>
+      </c>
+      <c r="B456" s="32">
+        <v>6477.6601559999999</v>
+      </c>
+      <c r="C456" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.61417136074837597</v>
+      </c>
+      <c r="E456" s="32">
+        <v>1.7854812548956436</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="32">
+        <v>44474</v>
+      </c>
+      <c r="B457" s="32">
+        <v>6576.2797849999997</v>
+      </c>
+      <c r="C457" s="33">
+        <f t="shared" si="9"/>
+        <v>1.5224575946401318</v>
+      </c>
+      <c r="E457" s="32">
+        <v>1.7910485734340014</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="32">
+        <v>44475</v>
+      </c>
+      <c r="B458" s="32">
+        <v>6493.1201170000004</v>
+      </c>
+      <c r="C458" s="33">
+        <f t="shared" si="9"/>
+        <v>-1.2645396898970187</v>
+      </c>
+      <c r="E458" s="32">
+        <v>1.8322227754095295</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="32">
+        <v>44476</v>
+      </c>
+      <c r="B459" s="32">
+        <v>6600.1899409999996</v>
+      </c>
+      <c r="C459" s="33">
+        <f t="shared" si="9"/>
+        <v>1.6489734067859574</v>
+      </c>
+      <c r="E459" s="32">
+        <v>1.8533584405446624</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="32">
+        <v>44477</v>
+      </c>
+      <c r="B460" s="32">
+        <v>6559.9902339999999</v>
+      </c>
+      <c r="C460" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.60906894133881662</v>
+      </c>
+      <c r="E460" s="32">
+        <v>1.8571150951992292</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="32">
+        <v>44480</v>
+      </c>
+      <c r="B461" s="32">
+        <v>6570.5400390000004</v>
+      </c>
+      <c r="C461" s="33">
+        <f t="shared" si="9"/>
+        <v>0.16082043758726366</v>
+      </c>
+      <c r="E461" s="32">
+        <v>1.8962786120501194</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="32">
+        <v>44481</v>
+      </c>
+      <c r="B462" s="32">
+        <v>6548.1098629999997</v>
+      </c>
+      <c r="C462" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.34137492301796407</v>
+      </c>
+      <c r="E462" s="32">
+        <v>1.9282235290675629</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="32">
+        <v>44482</v>
+      </c>
+      <c r="B463" s="32">
+        <v>6597.3798829999996</v>
+      </c>
+      <c r="C463" s="33">
+        <f t="shared" si="9"/>
+        <v>0.75243117526783521</v>
+      </c>
+      <c r="E463" s="32">
+        <v>2.0196279135756972</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="32">
+        <v>44483</v>
+      </c>
+      <c r="B464" s="32">
+        <v>6685.2099609999996</v>
+      </c>
+      <c r="C464" s="33">
+        <f t="shared" si="9"/>
+        <v>1.3312872618767762</v>
+      </c>
+      <c r="E464" s="32">
+        <v>2.0273755514907155</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="32">
+        <v>44484</v>
+      </c>
+      <c r="B465" s="32">
+        <v>6727.5200199999999</v>
+      </c>
+      <c r="C465" s="33">
+        <f t="shared" si="9"/>
+        <v>0.63289050376618927</v>
+      </c>
+      <c r="E465" s="32">
+        <v>2.0349678669058004</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="32">
+        <v>44487</v>
+      </c>
+      <c r="B466" s="32">
+        <v>6673.1000979999999</v>
+      </c>
+      <c r="C466" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.80891505098783845</v>
+      </c>
+      <c r="E466" s="32">
+        <v>2.0743402084325586</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="32">
+        <v>44488</v>
+      </c>
+      <c r="B467" s="32">
+        <v>6669.8500979999999</v>
+      </c>
+      <c r="C467" s="33">
+        <f t="shared" si="9"/>
+        <v>-4.8703000888208767E-2</v>
+      </c>
+      <c r="E467" s="32">
+        <v>2.0810585810906272</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="32">
+        <v>44489</v>
+      </c>
+      <c r="B468" s="32">
+        <v>6705.6098629999997</v>
+      </c>
+      <c r="C468" s="33">
+        <f t="shared" si="9"/>
+        <v>0.53614046004905869</v>
+      </c>
+      <c r="E468" s="32">
+        <v>2.1091605589730782</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="32">
+        <v>44490</v>
+      </c>
+      <c r="B469" s="32">
+        <v>6686.169922</v>
+      </c>
+      <c r="C469" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.28990563717798024</v>
+      </c>
+      <c r="E469" s="32">
+        <v>2.1198093042529891</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="32">
+        <v>44491</v>
+      </c>
+      <c r="B470" s="32">
+        <v>6733.6899409999996</v>
+      </c>
+      <c r="C470" s="33">
+        <f t="shared" si="9"/>
+        <v>0.71072107879940283</v>
+      </c>
+      <c r="E470" s="32">
+        <v>2.1453213756650813</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="32">
+        <v>44494</v>
+      </c>
+      <c r="B471" s="32">
+        <v>6712.8701170000004</v>
+      </c>
+      <c r="C471" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.30918893181035534</v>
+      </c>
+      <c r="E471" s="32">
+        <v>2.2171658464678803</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="32">
+        <v>44495</v>
+      </c>
+      <c r="B472" s="32">
+        <v>6766.5097660000001</v>
+      </c>
+      <c r="C472" s="33">
+        <f t="shared" si="9"/>
+        <v>0.79905685742615618</v>
+      </c>
+      <c r="E472" s="32">
+        <v>2.2784423685253103</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="32">
+        <v>44496</v>
+      </c>
+      <c r="B473" s="32">
+        <v>6753.5200199999999</v>
+      </c>
+      <c r="C473" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.19197114094581497</v>
+      </c>
+      <c r="E473" s="32">
+        <v>2.3959431888956995</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="32">
+        <v>44497</v>
+      </c>
+      <c r="B474" s="32">
+        <v>6804.2202150000003</v>
+      </c>
+      <c r="C474" s="33">
+        <f t="shared" si="9"/>
+        <v>0.7507225098890038</v>
+      </c>
+      <c r="E474" s="32">
+        <v>2.4020724587553226</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="32">
+        <v>44498</v>
+      </c>
+      <c r="B475" s="32">
+        <v>6830.3398440000001</v>
+      </c>
+      <c r="C475" s="33">
+        <f t="shared" si="9"/>
+        <v>0.38387395138121355</v>
+      </c>
+      <c r="E475" s="32">
+        <v>2.4132851068046892</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="32">
+        <v>44501</v>
+      </c>
+      <c r="B476" s="32">
+        <v>6893.2900390000004</v>
+      </c>
+      <c r="C476" s="33">
+        <f t="shared" si="9"/>
+        <v>0.92162610408467327</v>
+      </c>
+      <c r="E476" s="32">
+        <v>2.4396536202963968</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="32">
+        <v>44502</v>
+      </c>
+      <c r="B477" s="32">
+        <v>6927.0297849999997</v>
+      </c>
+      <c r="C477" s="33">
+        <f t="shared" si="9"/>
+        <v>0.48945780330017657</v>
+      </c>
+      <c r="E477" s="32">
+        <v>2.4401259109092215</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="32">
+        <v>44503</v>
+      </c>
+      <c r="B478" s="32">
+        <v>6950.6499020000001</v>
+      </c>
+      <c r="C478" s="33">
+        <f t="shared" si="9"/>
+        <v>0.34098477606012478</v>
+      </c>
+      <c r="E478" s="32">
+        <v>2.4851113158718325</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="32">
+        <v>44504</v>
+      </c>
+      <c r="B479" s="32">
+        <v>6987.7900390000004</v>
+      </c>
+      <c r="C479" s="33">
+        <f t="shared" si="9"/>
+        <v>0.53434049367546932</v>
+      </c>
+      <c r="E479" s="32">
+        <v>2.5106666492746492</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="32">
+        <v>44505</v>
+      </c>
+      <c r="B480" s="32">
+        <v>7040.7900390000004</v>
+      </c>
+      <c r="C480" s="33">
+        <f t="shared" si="9"/>
+        <v>0.75846583403620205</v>
+      </c>
+      <c r="E480" s="32">
+        <v>2.5479579562701096</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="32">
+        <v>44508</v>
+      </c>
+      <c r="B481" s="32">
+        <v>7047.4799800000001</v>
+      </c>
+      <c r="C481" s="33">
+        <f t="shared" si="9"/>
+        <v>9.5016908087629942E-2</v>
+      </c>
+      <c r="E481" s="32">
+        <v>2.6808042324278092</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="32">
+        <v>44509</v>
+      </c>
+      <c r="B482" s="32">
+        <v>7043.2700199999999</v>
+      </c>
+      <c r="C482" s="33">
+        <f t="shared" si="9"/>
+        <v>-5.9737097685237231E-2</v>
+      </c>
+      <c r="E482" s="32">
+        <v>2.839445397473102</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="32">
+        <v>44510</v>
+      </c>
+      <c r="B483" s="32">
+        <v>7045.1601559999999</v>
+      </c>
+      <c r="C483" s="33">
+        <f t="shared" si="9"/>
+        <v>2.6836057607230342E-2</v>
+      </c>
+      <c r="E483" s="32">
+        <v>2.8422312508301046</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="32">
+        <v>44511</v>
+      </c>
+      <c r="B484" s="32">
+        <v>7059.5498049999997</v>
+      </c>
+      <c r="C484" s="33">
+        <f t="shared" si="9"/>
+        <v>0.20424871374634135</v>
+      </c>
+      <c r="E484" s="32">
+        <v>3.3630514444303774</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="32">
+        <v>44512</v>
+      </c>
+      <c r="B485" s="32">
+        <v>7091.3999020000001</v>
+      </c>
+      <c r="C485" s="33">
+        <f t="shared" si="9"/>
+        <v>0.45116328774169562</v>
+      </c>
+      <c r="E485" s="32">
+        <v>3.421704136448815</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="32">
+        <v>44515</v>
+      </c>
+      <c r="B486" s="32">
+        <v>7128.6298829999996</v>
+      </c>
+      <c r="C486" s="33">
+        <f t="shared" si="9"/>
+        <v>0.5250018545632924</v>
+      </c>
+      <c r="E486" s="32">
+        <v>3.7073184597996014</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="32">
+        <v>44516</v>
+      </c>
+      <c r="B487" s="32">
+        <v>7152.6000979999999</v>
+      </c>
+      <c r="C487" s="33">
+        <f t="shared" si="9"/>
+        <v>0.33625276376268676</v>
+      </c>
+      <c r="E487" s="32">
+        <v>4.4688429840845565</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="32">
+        <v>44517</v>
+      </c>
+      <c r="B488" s="32">
+        <v>7156.8500979999999</v>
+      </c>
+      <c r="C488" s="33">
+        <f t="shared" si="9"/>
+        <v>5.9418951734605978E-2</v>
+      </c>
+      <c r="E488" s="32">
+        <v>4.6108163858576221</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="32">
+        <v>44518</v>
+      </c>
+      <c r="B489" s="32">
+        <v>7141.9799800000001</v>
+      </c>
+      <c r="C489" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.20777461867135255</v>
+      </c>
+      <c r="E489" s="32">
+        <v>5.0136181818181802</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="32">
+        <v>44519</v>
+      </c>
+      <c r="B490" s="32">
+        <v>7112.2900390000004</v>
+      </c>
+      <c r="C490" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.41571022437953731</v>
+      </c>
+      <c r="E490" s="32">
+        <v>5.1596320167188363</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="32">
+        <v>44522</v>
+      </c>
+      <c r="B491" s="32">
+        <v>7105</v>
+      </c>
+      <c r="C491" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.10249918043310598</v>
+      </c>
+      <c r="E491" s="32">
+        <v>7.5680111160635528</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="32">
+        <v>44523</v>
+      </c>
+      <c r="B492" s="32">
+        <v>7044.6201170000004</v>
+      </c>
+      <c r="C492" s="33">
+        <f t="shared" si="9"/>
+        <v>-0.84982242083039561</v>
+      </c>
+      <c r="E492" s="32">
+        <v>8.3894768439446317</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="32">
+        <v>44524</v>
+      </c>
+      <c r="B493" s="32">
+        <v>7042.2299800000001</v>
+      </c>
+      <c r="C493" s="33">
+        <f t="shared" si="9"/>
+        <v>-3.3928543488561863E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD02FB6C-4C4C-0F4B-9A91-A9F63459B426}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -12381,12 +22117,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C23AC2-8D4F-433B-A462-C5A00C57843C}">
   <dimension ref="A1:Q211"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17423,4 +27159,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AXABuAC8ALwAgAEcAZQBuAGUAcgBhAHQAZQAgAGEAbgAgAGkAbgBkAGUAeAAgAGMAbwBsAHUAbQBuACAAdABoAGUAIABoAGUAaQBnAGgAdAAgAG8AZgAgAHQAaABlACAAZABhAHQAYQAgAGQAXABuAF8AZgBJAG4AZABlAHgAPQBMAEEATQBCAEQAQQAoAGQALAByACwASQBOAEQARQBYACgAZAAsAHIALABTAEUAUQBVAEUATgBDAEUAKAAxACwAQwBPAEwAVQBNAE4AUwAoAGQAKQApACkAKQA7AFwAbgAvAC8AIABTAHUAcABlAHIAWABMAE8ATwBLAFUAUABcAG4AXwBmAFMAVQBQAEUAUgBYAEwATwBPAEsAVQBQAD0ATABBAE0AQgBEAEEAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsAGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABbAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkAF0ALABbAG0AYQB0AGMAaABfAG0AbwBkAGUAXQAsAFsAcwBlAGEAcgBjAGgAXwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAEMATwBMAFUATQBOAFMAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQApACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABYAE0AQQBUAEMASAAoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAIABsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsACAAbQBhAHQAYwBoAF8AbQBvAGQAZQAsACAAcwBlAGEAcgBjAGgAXwBtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABDAE8ATABVAE0ATgBTACgAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQAsACAATgBBACgAKQAsACAAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALAAgAG0AYQB0AGMAaABfAG0AbwBkAGUALAAgAHMAZQBhAHIAYwBoAF8AbQBvAGQAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQAsACAATgBBACgAKQAsACAAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAvACAATABpAG4AZQBhAHIAIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuACAARgBvAHIAbQB1AGwAYQBcAG4AXwBmAEkAbgB0AGUAcgBwAD0ATABBAE0AQgBEAEEAKAB4ACwAeABkAGEAdAAsAHkAZABhAHQALABcAG4AIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgAHgAbQBpAG4ALAAgAFgATABPAE8ASwBVAFAAKAB4ACwAeABkAGEAdAAsAHgAZABhAHQALAAsAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgAHgAbQBhAHgALAAgAFgATABPAE8ASwBVAFAAKAB4ACwAeABkAGEAdAAsAHgAZABhAHQALAAsADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAB5AG0AaQBuACwAIABYAEwATwBPAEsAVQBQACgAeAAsAHgAZABhAHQALAB5AGQAYQB0ACwALAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAB5AG0AYQB4ACwAIABYAEwATwBPAEsAVQBQACgAeAAsAHgAZABhAHQALAB5AGQAYQB0ACwALAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAASQBGACgAeABtAGkAbgA9AHgAbQBhAHgALAB5AG0AaQBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAeQBtAGkAbgAqACgAeABtAGEAeAAtAHgAKQArAHkAbQBhAHgAKgAoAHgALQB4AG0AaQBuACkAKQAvACgAeABtAGEAeAAtAHgAbQBpAG4AKQApAFwAbgAgACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAvACAAQwBvAHUAbgB0ACAAYQAgAHMAcABlAGMAaQBmAGkAYwAgAGMAaABhAHIAYQBjAHQAZQByACAAaQBuACAAYQAgAHMAdAByAGkAbgBnAFwAbgBfAGYAQwBoAGEAcgBDAG8AdQBuAHQAPQBMAEEATQBCAEQAQQAoAHMALABjACwATABFAFQAKAB6ACwAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMALABjACwAXAAiAFwAIgApACwATABFAE4AKABzACkALQBMAEUATgAoAHoAKQApACkAOwBcAG4AXABuAC8ALwAgAEYAaQBsAGwAIABEAG8AdwBuAFwAbgBfAGYARABOAD0ATABBAE0AQgBEAEEAKABhAHIAcgAsAFsAaQBuAGkAXQAsAFwAbgBMAEUAVAAoAFwAbgBfAGkAbgBpACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBpACkALABcACIAXAAiACwAaQBuAGkAKQAsAFwAbgBTAEMAQQBOACgAXwBpAG4AaQAsAGEAcgByACwATABBAE0AQgBEAEEAKABhACwAdgAsAEkARgAoAEwARQBOACgAdgApAD0AMAAsAGEALAB2ACkAKQApAFwAbgApAFwAbgApADsAXABuAFwAbgAvAC8AIABGAGkAbABsACAAVQBwAFwAbgBfAGYAVQBQAD0ATABBAE0AQgBEAEEAKABhAHIAcgAsAFsAaQBuAGkAXQAsAFwAbgBMAEUAVAAoAFwAbgBfAGYALABMAEEATQBCAEQAQQAoAHoALABJAE4ARABFAFgAKAB6ACwAUwBFAFEAVQBFAE4AQwBFACgAUgBPAFcAUwAoAHoAKQAsADEALABSAE8AVwBTACgAegApACwALQAxACkAKQApACwAXABuAF8AYQByAHIALAAgAF8AZgAoAGEAcgByACkALABcAG4AXwBpAG4AaQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAG4AaQApACwAXAAiAFwAIgAsAGkAbgBpACkALABcAG4AXwBmACgAUwBDAEEATgAoAF8AaQBuAGkALABfAGEAcgByACwATABBAE0AQgBEAEEAKABhACwAdgAsAEkARgAoAEwARQBOACgAdgApAD0AMAAsAGEALAB2ACkAKQApACkAXABuACkAXABuACkAOwBcAG4AXABuAC8ALwAgAEIAcgBvAGEAZABjAGEAcwB0ACAAZgBpAHIAcwB0ACAAYwBvAGwAdQBtAG4AXABuAF8AZgBCAEMAQQBTAFQAPQBMAEEATQBCAEQAQQAoAF8AbgBEAGEAdABhACwATABFAFQAKABmACwAIABMAEEATQBCAEQAQQAoAF8AZAAsAEwARQBUACgAXwBjACwAQwBPAEwAVQBNAE4AUwAoAF8AZAApAC0AMQAsAEQAUgBPAFAAKABSAEUARABVAEMARQAoAFwAIgBcACIALABUAEEASwBFACgAXwBkACwALAAxACkALABMAEEATQBCAEQAQQAoAGEALAB2ACwAVgBTAFQAQQBDAEsAKABhACwARQBYAFAAQQBOAEQAKAB2ACwAXwBjACwAMQAsAHYAKQApACkAKQAsADEAKQApACkALABcAG4AIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAZgAoAF8AbgBEAGEAdABhACkALABUAE8AQwBPAEwAKABEAFIATwBQACgAXwBuAEQAYQB0AGEALAAsADEAKQApACkAXABuACkAKQA7AFwAbgBcAG4ALwAvACAATQBhAHIAawAgAFAAcgBvAGMAdABvAHIAIABEAEQATAAgAGYAdQBuAGMAdABpAG8AbgBcAG4ARABEAEwAPQBMAEEATQBCAEQAQQAoAHIAYQBuAGcAZQAsAFsAbABvAG8AawB1AHAAMQBdACwAWwBsAG8AbwBrAHUAcAAyAF0ALABbAGwAbwBvAGsAdQBwADMAXQAsAFsAbABvAG8AawB1AHAANABdACwAWwBsAG8AbwBrAHUAcAA1AF0ALABbAGwAbwBvAGsAdQBwADYAXQAsAFsAbABvAG8AawB1AHAANwBdACwAWwBsAG8AbwBrAHUAcAA4AF0ALABbAGwAbwBvAGsAdQBwADkAXQAsAFsAbABvAG8AawB1AHAAMQAwAF0ALABcAG4ATABFAFQAKABcAG4AXwBzACwAIABcACIAJQBeACYAJgBAAFwAIgAsACAAXABuAGwAbwBvAGsAdQBwAFYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAMQAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAMgAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAMwAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANAAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANQAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANgAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANwAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAOAAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAOQAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAMQAwACwAXABuAGwAZQB2AGUAbABJAG4AZABlAHgALAAgAEkARgBFAFIAUgBPAFIAKABSAE8AVwBTACgAVABFAFgAVABTAFAATABJAFQAKABsAG8AbwBrAHUAcABWAGEAbAB1AGUALAAgACwAIABfAHMALAAgAFQAUgBVAEUAKAApACkAKQAsACAAMAApACAAKwAgADEALAAgAFwAbgBsAG8AbwBrAHUAcABBAHIAcgBhAHkALAAgAEIAWQBSAE8AVwAoAEUAWABQAEEATgBEACgAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAHIAYQBuAGcAZQAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAbABlAHYAZQBsAEkAbgBkAGUAeAAgAC0AIAAxACkAKQAsACAALAAgADEAMAAsACAAXAAiAFwAIgApACwAIABMAEEATQBCAEQAQQAoAHIAbwB3ACwAIABUAEUAWABUAEoATwBJAE4AKABfAHMALAAgAEYAQQBMAFMARQAsACAAcgBvAHcAKQApACkALABcAG4AcgBlAHQAdQByAG4AUgBhAG4AZwBlACwAIABJAE4ARABFAFgAKAByAGEAbgBnAGUALAAgADAALAAgAGwAZQB2AGUAbABJAG4AZABlAHgAKQAsACAAXABuAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAbwBvAGsAdQBwADEAKQAgACoAIABsAGUAdgBlAGwASQBuAGQAZQB4ACAAPQAgADEALAAgAHIAZQB0AHUAcgBuAFIAYQBuAGcAZQAsACAAWABMAE8ATwBLAFUAUAAoAGwAbwBvAGsAdQBwAFYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAQQByAHIAYQB5ACwAIAByAGUAdAB1AHIAbgBSAGEAbgBnAGUAKQA6AFgATABPAE8ASwBVAFAAKABsAG8AbwBrAHUAcABWAGEAbAB1AGUALAAgAGwAbwBvAGsAdQBwAEEAcgByAGEAeQAsACAAcgBlAHQAdQByAG4AUgBhAG4AZwBlACwAIAAsACAALAAgAC0AMQApACkALABcAG4AcgBlAHMAdQBsAHQAKQApADsAXABuAFwAbgAvAC8AIABNAGEAcgBrACAAUAByAG8AYwB0AG8AcgAgAEQARABMAFMAbwByAHQAZQByACAAZgB1AG4AYwB0AGkAbwBuAFwAbgBcAG4ARABEAEwAUwBvAHIAdABlAHIAPQBMAEEATQBCAEQAQQAoAFIAYQBuAGcAZQAsAFsAUwBvAHIAdABPAHIAZABlAHIAXQAsAFMATwBSAFQAKABSAGEAbgBnAGUALAAgAFMARQBRAFUARQBOAEMARQAoACwAIABDAE8ATABVAE0ATgBTACgAUgBhAG4AZwBlACkAKQAsACAAUwBvAHIAdABPAHIAZABlAHIAKQApADsAXABuAFwAbgAvAC8AIABEAG8AdQBiAGwAZQAgAFgATABPAE8ASwBVAFAAXABuAFwAbgBfAGYARABYAD0ATABBAE0AQgBEAEEAKAB2AGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAdgBsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsAGgAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALABoAGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABbAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkAF0ALABbAHYAbQBhAHQAYwBoAF8AbQBvAGQAZQBdACwAWwB2AHMAZQBhAHIAYwBoAF8AbQBvAGQAZQBdACwAWwBoAG0AYQB0AGMAaABfAG0AbwBkAGUAXQAsAFsAaABzAGUAYQByAGMAaABfAG0AbwBkAGUAXQAsACAASQBGAEUAUgBSAE8AUgAoACAASQBOAEQARQBYACgAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABYAE0AQQBUAEMASAAoAHYAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALAB2AGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAdgBtAGEAdABjAGgAXwBtAG8AZABlACwAdgBzAGUAYQByAGMAaABfAG0AbwBkAGUAKQAsAFgATQBBAFQAQwBIACgAaABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsAGgAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALABoAG0AYQB0AGMAaABfAG0AbwBkAGUALABoAHMAZQBhAHIAYwBoAF8AbQBvAGQAZQApACkALAAgAEkARgAoAEkAUwBPAE0AbABUAFQARQBEACgAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQAsAE4AQQAoACkALABpAGYAXwBuAG8AdABfAGYAbwB1AG4AZAApACkAKQA7AFwAbgBcAG4ALwAvACAAUQB1AGEAcgB0AGUAcgAgAGYAcgBvAG0AIABNAG8AbgB0AGgAIABBAGIAYgByAGUAdgBpAGEAdABpAG8AbgBcAG4AXABuAF8AZgBRAD0ATABBAE0AQgBEAEEAKAB4ACwAUgBPAFUATgBEAFUAUAAoAE0ATwBOAFQASAAoADEAJgB4ACkALwAzACwAMAApACkAOwBcAG4AXABuAC8ALwBMAGkAcwB0ACAAQwBvAG0AcABhAHIAZQBcAG4AXABuAF8AZgBMAEMAPQBMAEEATQBCAEQAQQAoAFIAZQBmAGUAcgBlAG4AYwBlACwAQwBvAG4AdABhAGkAbgBlAGQASQBuACwARgBJAEwAVABFAFIAKABSAGUAZgBlAHIAZQBuAGMAZQAsAEMATwBVAE4AVABJAEYAUwAoAEMAbwBuAHQAYQBpAG4AZQBkAEkAbgAsAFIAZQBmAGUAcgBlAG4AYwBlACkAPQAwACkAKQA7ACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8AUwB0AGEAbgBkAGEAcgBkACIALAAiAHQAZQB4AHQAIgA6ACIALwAvACAARwBlAG4AZQByAGEAdABlACAAYQBuACAAaQBuAGQAZQB4ACAAYwBvAGwAdQBtAG4AIAB0AGgAZQAgAGgAZQBpAGcAaAB0ACAAbwBmACAAdABoAGUAIABkAGEAdABhACAAZABcAG4AXwBmAEkAbgBkAGUAeAA9AEwAQQBNAEIARABBACgAZAAsAHIALABJAE4ARABFAFgAKABkACwAcgAsAFMARQBRAFUARQBOAEMARQAoADEALABDAE8ATABVAE0ATgBTACgAZAApACkAKQApADsAXABuAC8ALwAgAFMAdQBwAGUAcgBYAEwATwBPAEsAVQBQAFwAbgBfAGYAUwBVAFAARQBSAFgATABPAE8ASwBVAFAAPQBMAEEATQBCAEQAQQAoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQAsAFsAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAXQAsAFsAbQBhAHQAYwBoAF8AbQBvAGQAZQBdACwAWwBzAGUAYQByAGMAaABfAG0AbwBkAGUAXQAsAFwAbgAgACAAIAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAQwBPAEwAVQBNAE4AUwAoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACkAIAA9ACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFgATQBBAFQAQwBIACgAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALAAgAGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAIABtAGEAdABjAGgAXwBtAG8AZABlACwAIABzAGUAYQByAGMAaABfAG0AbwBkAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAEMATwBMAFUATQBOAFMAKAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQApACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAGYAXwBuAG8AdABfAGYAbwB1AG4AZAApACwAIABOAEEAKAApACwAIABpAGYAXwBuAG8AdABfAGYAbwB1AG4AZAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAE4ARABFAFgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMARQBRAFUARQBOAEMARQAoAFIATwBXAFMAKAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABYAE0AQQBUAEMASAAoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAIABsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsACAAbQBhAHQAYwBoAF8AbQBvAGQAZQAsACAAcwBlAGEAcgBjAGgAXwBtAG8AZABlACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAGYAXwBuAG8AdABfAGYAbwB1AG4AZAApACwAIABOAEEAKAApACwAIABpAGYAXwBuAG8AdABfAGYAbwB1AG4AZAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8AIABMAGkAbgBlAGEAcgAgAEkAbgB0AGUAcgBwAG8AbABhAHQAaQBvAG4AIABGAG8AcgBtAHUAbABhAFwAbgBfAGYASQBuAHQAZQByAHAAPQBMAEEATQBCAEQAQQAoAHgALAB4AGQAYQB0ACwAeQBkAGEAdAAsAFwAbgAgACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgACAAeABtAGkAbgAsACAAWABMAE8ATwBLAFUAUAAoAHgALAB4AGQAYQB0ACwAeABkAGEAdAAsACwALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAeABtAGEAeAAsACAAWABMAE8ATwBLAFUAUAAoAHgALAB4AGQAYQB0ACwAeABkAGEAdAAsACwAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgAHkAbQBpAG4ALAAgAFgATABPAE8ASwBVAFAAKAB4ACwAeABkAGEAdAAsAHkAZABhAHQALAAsAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgAHkAbQBhAHgALAAgAFgATABPAE8ASwBVAFAAKAB4ACwAeABkAGEAdAAsAHkAZABhAHQALAAsADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIABJAEYAKAB4AG0AaQBuAD0AeABtAGEAeAAsAHkAbQBpAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKAB5AG0AaQBuACoAKAB4AG0AYQB4AC0AeAApACsAeQBtAGEAeAAqACgAeAAtAHgAbQBpAG4AKQApAC8AKAB4AG0AYQB4AC0AeABtAGkAbgApACkAXABuACAAIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvAC8AIABDAG8AdQBuAHQAIABhACAAcwBwAGUAYwBpAGYAaQBjACAAYwBoAGEAcgBhAGMAdABlAHIAIABpAG4AIABhACAAcwB0AHIAaQBuAGcAXABuAF8AZgBDAGgAYQByAEMAbwB1AG4AdAA9AEwAQQBNAEIARABBACgAcwAsAGMALABMAEUAVAAoAHoALABTAFUAQgBTAFQASQBUAFUAVABFACgAcwAsAGMALABcACIAXAAiACkALABMAEUATgAoAHMAKQAtAEwARQBOACgAegApACkAKQA7AFwAbgBcAG4ALwAvACAARgBpAGwAbAAgAEQAbwB3AG4AXABuAF8AZgBEAE4APQBMAEEATQBCAEQAQQAoAGEAcgByACwAWwBpAG4AaQBdACwAXABuAEwARQBUACgAXABuAF8AaQBuAGkALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBuAGkAKQAsAFwAIgBcACIALABpAG4AaQApACwAXABuAFMAQwBBAE4AKABfAGkAbgBpACwAYQByAHIALABMAEEATQBCAEQAQQAoAGEALAB2ACwASQBGACgATABFAE4AKAB2ACkAPQAwACwAYQAsAHYAKQApACkAXABuACkAXABuACkAOwBcAG4AXABuAC8ALwAgAEYAaQBsAGwAIABVAHAAXABuAF8AZgBVAFAAPQBMAEEATQBCAEQAQQAoAGEAcgByACwAWwBpAG4AaQBdACwAXABuAEwARQBUACgAXABuAF8AZgAsAEwAQQBNAEIARABBACgAegAsAEkATgBEAEUAWAAoAHoALABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAegApACwAMQAsAFIATwBXAFMAKAB6ACkALAAtADEAKQApACkALABcAG4AXwBhAHIAcgAsACAAXwBmACgAYQByAHIAKQAsAFwAbgBfAGkAbgBpACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBpACkALABcACIAXAAiACwAaQBuAGkAKQAsAFwAbgBfAGYAKABTAEMAQQBOACgAXwBpAG4AaQAsAF8AYQByAHIALABMAEEATQBCAEQAQQAoAGEALAB2ACwASQBGACgATABFAE4AKAB2ACkAPQAwACwAYQAsAHYAKQApACkAKQBcAG4AKQBcAG4AKQA7AFwAbgBcAG4ALwAvACAAQgByAG8AYQBkAGMAYQBzAHQAIABmAGkAcgBzAHQAIABjAG8AbAB1AG0AbgBcAG4AXwBmAEIAQwBBAFMAVAA9AEwAQQBNAEIARABBACgAXwBuAEQAYQB0AGEALABMAEUAVAAoAGYALAAgAEwAQQBNAEIARABBACgAXwBkACwATABFAFQAKABfAGMALABDAE8ATABVAE0ATgBTACgAXwBkACkALQAxACwARABSAE8AUAAoAFIARQBEAFUAQwBFACgAXAAiAFwAIgAsAFQAQQBLAEUAKABfAGQALAAsADEAKQAsAEwAQQBNAEIARABBACgAYQAsAHYALABWAFMAVABBAEMASwAoAGEALABFAFgAUABBAE4ARAAoAHYALABfAGMALAAxACwAdgApACkAKQApACwAMQApACkAKQAsAFwAbgAgACAAIAAgACAASABTAFQAQQBDAEsAKABmACgAXwBuAEQAYQB0AGEAKQAsAFQATwBDAE8ATAAoAEQAUgBPAFAAKABfAG4ARABhAHQAYQAsACwAMQApACkAKQBcAG4AKQApADsAXABuAFwAbgAvAC8AIABNAGEAcgBrACAAUAByAG8AYwB0AG8AcgAgAEQARABMACAAZgB1AG4AYwB0AGkAbwBuAFwAbgBEAEQATAA9AEwAQQBNAEIARABBACgAcgBhAG4AZwBlACwAWwBsAG8AbwBrAHUAcAAxAF0ALABbAGwAbwBvAGsAdQBwADIAXQAsAFsAbABvAG8AawB1AHAAMwBdACwAWwBsAG8AbwBrAHUAcAA0AF0ALABbAGwAbwBvAGsAdQBwADUAXQAsAFsAbABvAG8AawB1AHAANgBdACwAWwBsAG8AbwBrAHUAcAA3AF0ALABbAGwAbwBvAGsAdQBwADgAXQAsAFsAbABvAG8AawB1AHAAOQBdACwAWwBsAG8AbwBrAHUAcAAxADAAXQAsAFwAbgBMAEUAVAAoAFwAbgBfAHMALAAgAFwAIgAlAF4AJgAmAEAAXAAiACwAIABcAG4AbABvAG8AawB1AHAAVgBhAGwAdQBlACwAIABsAG8AbwBrAHUAcAAxACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAAyACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAAzACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAA0ACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAA1ACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAA2ACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAA3ACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAA4ACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAA5ACAAJgAgAF8AcwAgACYAIABsAG8AbwBrAHUAcAAxADAALABcAG4AbABlAHYAZQBsAEkAbgBkAGUAeAAsACAASQBGAEUAUgBSAE8AUgAoAFIATwBXAFMAKABUAEUAWABUAFMAUABMAEkAVAAoAGwAbwBvAGsAdQBwAFYAYQBsAHUAZQAsACAALAAgAF8AcwAsACAAVABSAFUARQAoACkAKQApACwAIAAwACkAIAArACAAMQAsACAAXABuAGwAbwBvAGsAdQBwAEEAcgByAGEAeQAsACAAQgBZAFIATwBXACgARQBYAFAAQQBOAEQAKABDAEgATwBPAFMARQBDAE8ATABTACgAcgBhAG4AZwBlACwAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABsAGUAdgBlAGwASQBuAGQAZQB4ACAALQAgADEAKQApACwAIAAsACAAMQAwACwAIABcACIAXAAiACkALAAgAEwAQQBNAEIARABBACgAcgBvAHcALAAgAFQARQBYAFQASgBPAEkATgAoAF8AcwAsACAARgBBAEwAUwBFACwAIAByAG8AdwApACkAKQAsAFwAbgByAGUAdAB1AHIAbgBSAGEAbgBnAGUALAAgAEkATgBEAEUAWAAoAHIAYQBuAGcAZQAsACAAMAAsACAAbABlAHYAZQBsAEkAbgBkAGUAeAApACwAIABcAG4AcgBlAHMAdQBsAHQALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbABvAG8AawB1AHAAMQApACAAKgAgAGwAZQB2AGUAbABJAG4AZABlAHgAIAA9ACAAMQAsACAAcgBlAHQAdQByAG4AUgBhAG4AZwBlACwAIABYAEwATwBPAEsAVQBQACgAbABvAG8AawB1AHAAVgBhAGwAdQBlACwAIABsAG8AbwBrAHUAcABBAHIAcgBhAHkALAAgAHIAZQB0AHUAcgBuAFIAYQBuAGcAZQApADoAWABMAE8ATwBLAFUAUAAoAGwAbwBvAGsAdQBwAFYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAQQByAHIAYQB5ACwAIAByAGUAdAB1AHIAbgBSAGEAbgBnAGUALAAgACwAIAAsACAALQAxACkAKQAsAFwAbgByAGUAcwB1AGwAdAApACkAOwBcAG4AXABuAC8ALwAgAE0AYQByAGsAIABQAHIAbwBjAHQAbwByACAARABEAEwAUwBvAHIAdABlAHIAIABmAHUAbgBjAHQAaQBvAG4AXABuAFwAbgBEAEQATABTAG8AcgB0AGUAcgA9AEwAQQBNAEIARABBACgAUgBhAG4AZwBlACwAWwBTAG8AcgB0AE8AcgBkAGUAcgBdACwAUwBPAFIAVAAoAFIAYQBuAGcAZQAsACAAUwBFAFEAVQBFAE4AQwBFACgALAAgAEMATwBMAFUATQBOAFMAKABSAGEAbgBnAGUAKQApACwAIABTAG8AcgB0AE8AcgBkAGUAcgApACkAOwBcAG4AXABuAC8ALwAgAEQAbwB1AGIAbABlACAAWABMAE8ATwBLAFUAUABcAG4AXABuAF8AZgBEAFgAPQBMAEEATQBCAEQAQQAoAHYAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALAB2AGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAaABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsAGgAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQAsAFsAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAXQAsAFsAdgBtAGEAdABjAGgAXwBtAG8AZABlAF0ALABbAHYAcwBlAGEAcgBjAGgAXwBtAG8AZABlAF0ALABbAGgAbQBhAHQAYwBoAF8AbQBvAGQAZQBdACwAWwBoAHMAZQBhAHIAYwBoAF8AbQBvAGQAZQBdACwAIABJAEYARQBSAFIATwBSACgAIABJAE4ARABFAFgAKAByAGUAdAB1AHIAbgBfAGEAcgByAGEAeQAsAFgATQBBAFQAQwBIACgAdgBsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsAHYAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALAB2AG0AYQB0AGMAaABfAG0AbwBkAGUALAB2AHMAZQBhAHIAYwBoAF8AbQBvAGQAZQApACwAWABNAEEAVABDAEgAKABoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAaABsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsAGgAbQBhAHQAYwBoAF8AbQBvAGQAZQAsAGgAcwBlAGEAcgBjAGgAXwBtAG8AZABlACkAKQAsACAASQBGACgASQBTAE8ATQBsAFQAVABFAEQAKABpAGYAXwBuAG8AdABfAGYAbwB1AG4AZAApACwATgBBACgAKQAsAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkACkAKQApADsAXABuAFwAbgAvAC8AIABRAHUAYQByAHQAZQByACAAZgByAG8AbQAgAE0AbwBuAHQAaAAgAEEAYgBiAHIAZQB2AGkAYQB0AGkAbwBuAFwAbgBcAG4AXwBmAFEAPQBMAEEATQBCAEQAQQAoAHgALABSAE8AVQBOAEQAVQBQACgATQBPAE4AVABIACgAMQAmAHgAKQAvADMALAAwACkAKQA7AFwAbgBcAG4ALwAvAEwAaQBzAHQAIABDAG8AbQBwAGEAcgBlAFwAbgBcAG4AXwBmAEwAQwA9AEwAQQBNAEIARABBACgAUgBlAGYAZQByAGUAbgBjAGUALABDAG8AbgB0AGEAaQBuAGUAZABJAG4ALABGAEkATABUAEUAUgAoAFIAZQBmAGUAcgBlAG4AYwBlACwAQwBPAFUATgBUAEkARgBTACgAQwBvAG4AdABhAGkAbgBlAGQASQBuACwAUgBlAGYAZQByAGUAbgBjAGUAKQA9ADAAKQApADsAIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAXwBmAEkAbgBkAGUAeAAiACwAIgBfAGYAUwBVAFAARQBSAFgATABPAE8ASwBVAFAAIgAsACIAXwBmAEkAbgB0AGUAcgBwACIALAAiAF8AZgBDAGgAYQByAEMAbwB1AG4AdAAiACwAIgBfAGYARABOACIALAAiAF8AZgBVAFAAIgAsACIAXwBmAEIAQwBBAFMAVAAiACwAIgBEAEQATAAiACwAIgBEAEQATABTAG8AcgB0AGUAcgAiACwAIgBfAGYARABYACIALAAiAF8AZgBRACIALAAiAF8AZgBMAEMAIgAsACIAUwB0AGEAbgBkAGEAcgBkAC4AXwBmAEkAbgBkAGUAeAAiACwAIgBTAHQAYQBuAGQAYQByAGQALgBfAGYAUwBVAFAARQBSAFgATABPAE8ASwBVAFAAIgAsACIAUwB0AGEAbgBkAGEAcgBkAC4AXwBmAEkAbgB0AGUAcgBwACIALAAiAFMAdABhAG4AZABhAHIAZAAuAF8AZgBDAGgAYQByAEMAbwB1AG4AdAAiACwAIgBTAHQAYQBuAGQAYQByAGQALgBfAGYARABOACIALAAiAFMAdABhAG4AZABhAHIAZAAuAF8AZgBVAFAAIgAsACIAUwB0AGEAbgBkAGEAcgBkAC4AXwBmAEIAQwBBAFMAVAAiACwAIgBTAHQAYQBuAGQAYQByAGQALgBEAEQATAAiACwAIgBTAHQAYQBuAGQAYQByAGQALgBEAEQATABTAG8AcgB0AGUAcgAiACwAIgBTAHQAYQBuAGQAYQByAGQALgBfAGYARABYACIALAAiAFMAdABhAG4AZABhAHIAZAAuAF8AZgBRACIALAAiAFMAdABhAG4AZABhAHIAZAAuAF8AZgBMAEMAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{16E2388D-783C-42BB-9BD7-9AF038777E70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Financial_Modeling_SimTrade_VaR_calculation.xlsx
+++ b/Financial_Modeling_SimTrade_VaR_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55E31D62-73E6-4870-AB99-EB59BE69401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D8CAFBC-65BC-48B1-B58E-14939D69006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="23">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="34" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Underflow</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
   </si>
 </sst>
 </file>
@@ -13928,8 +13931,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802F29F9-E7D8-418D-8598-248BD26C39A9}">
   <dimension ref="A1:V493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14865,8 +14868,15 @@
       <c r="E32" s="32">
         <v>-2.0066766142794954</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O32" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="32">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(E3))</f>
+        <v>4.3929319156568843E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="32">
         <v>43871</v>
       </c>
@@ -14880,8 +14890,15 @@
       <c r="E33" s="32">
         <v>-1.9370244624565454</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O33" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="32">
+        <f>_xlfn.STDEV.P(_xlfn.ANCHORARRAY(E3))</f>
+        <v>1.5715646872301317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="32">
         <v>43872</v>
       </c>
@@ -14896,7 +14913,7 @@
         <v>-1.9048243331566181</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="32">
         <v>43873</v>
       </c>
@@ -14910,8 +14927,15 @@
       <c r="E35" s="32">
         <v>-1.8992154718224015</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O35" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="P35" s="32">
+        <f>_xlfn.NORM.INV(O35,$P$32,$P$33)</f>
+        <v>-3.6120768498989064</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="32">
         <v>43874</v>
       </c>
@@ -14925,8 +14949,15 @@
       <c r="E36" s="32">
         <v>-1.8571919569897599</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O36" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="P36" s="32">
+        <f>_xlfn.NORM.INV(O36,$P$32,$P$33)</f>
+        <v>-2.5410645566227696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="32">
         <v>43875</v>
       </c>
@@ -14941,7 +14972,7 @@
         <v>-1.7744565941854906</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="32">
         <v>43878</v>
       </c>
@@ -14956,7 +14987,7 @@
         <v>-1.7408915575824335</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="32">
         <v>43879</v>
       </c>
@@ -14971,7 +15002,7 @@
         <v>-1.6529605352588106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="32">
         <v>43880</v>
       </c>
@@ -14986,7 +15017,7 @@
         <v>-1.5917833968562081</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="32">
         <v>43881</v>
       </c>
@@ -15001,7 +15032,7 @@
         <v>-1.5869536022583384</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="32">
         <v>43882</v>
       </c>
@@ -15016,7 +15047,7 @@
         <v>-1.5756390601957304</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="32">
         <v>43885</v>
       </c>
@@ -15031,7 +15062,7 @@
         <v>-1.5726252703963901</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
         <v>43886</v>
       </c>
@@ -15046,7 +15077,7 @@
         <v>-1.5686458442076845</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="32">
         <v>43887</v>
       </c>
@@ -15061,7 +15092,7 @@
         <v>-1.5536633360371053</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="32">
         <v>43888</v>
       </c>
@@ -15076,7 +15107,7 @@
         <v>-1.536219319052825</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="32">
         <v>43889</v>
       </c>
@@ -15091,7 +15122,7 @@
         <v>-1.5282068230176424</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="32">
         <v>43892</v>
       </c>
@@ -22122,7 +22153,7 @@
   <dimension ref="A1:Q211"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
